--- a/Raw Sales Data/Toonwear.xlsx
+++ b/Raw Sales Data/Toonwear.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURU AARU\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83511B3A-0017-4F18-BB6A-5F38E8E262E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$12:$AL$12</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="71">
   <si>
     <t>--</t>
   </si>
@@ -201,140 +195,62 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>Monzo *4682</t>
-  </si>
-  <si>
-    <t>Funds sent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promoted Listings - General fee </t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
-    <t>Lancashire</t>
-  </si>
-  <si>
     <t>GB</t>
   </si>
   <si>
-    <t>Kids Large Sleeping Bag Napping Napper Play Pillow Warm Camping Unicorn Husky UK</t>
-  </si>
-  <si>
-    <t>Payout</t>
-  </si>
-  <si>
-    <t>Scheduled payout. Usually arrive in 1-3 working days.</t>
-  </si>
-  <si>
-    <t>Cheshire</t>
-  </si>
-  <si>
-    <t>LED Ceiling Light Round Panel Down Lights Bathroom Kitchen Living Room Wall Lamp</t>
-  </si>
-  <si>
-    <t>Heavy Duty Stainless Steel Tool Box Chest Secure Storage Case Removable Tray</t>
-  </si>
-  <si>
-    <t>Tool Box 0496</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Newtownabbey</t>
-  </si>
-  <si>
-    <t>Antrim</t>
-  </si>
-  <si>
-    <t>Sandbach</t>
-  </si>
-  <si>
-    <t>White 135X50cm 0441</t>
-  </si>
-  <si>
-    <t>Modern LED Ceiling Light Square Panel Down Lights Bathroom Kitchen Bedroom Lamp</t>
-  </si>
-  <si>
-    <t>Silver Ceiling Light Square 12W 0912</t>
-  </si>
-  <si>
-    <t>20-12641-95335</t>
-  </si>
-  <si>
-    <t>antoswife</t>
-  </si>
-  <si>
-    <t>00Elaine Morgan</t>
-  </si>
-  <si>
-    <t>BT366QE</t>
-  </si>
-  <si>
-    <t>Silver Ceiling Light Round 12W 0184</t>
-  </si>
-  <si>
-    <t>01-12666-68952</t>
-  </si>
-  <si>
-    <t>roller_router</t>
-  </si>
-  <si>
-    <t>CARLO CONCE</t>
-  </si>
-  <si>
-    <t>FEE-5949403641318_11</t>
-  </si>
-  <si>
-    <t>CW11 4HS</t>
-  </si>
-  <si>
-    <t>15-12648-54018</t>
-  </si>
-  <si>
-    <t>marhawri1</t>
-  </si>
-  <si>
-    <t>Mariusz Hawryluk</t>
-  </si>
-  <si>
-    <t>FEE-5948776117318_11</t>
-  </si>
-  <si>
-    <t>PR1 4LJ</t>
-  </si>
-  <si>
-    <t>07-12657-62603</t>
-  </si>
-  <si>
-    <t>boby227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thelma  Greensill </t>
-  </si>
-  <si>
-    <t>FEE-5948535706018_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolverhampton </t>
-  </si>
-  <si>
-    <t>WV3 7NP</t>
-  </si>
-  <si>
-    <t>FEE-5948233584718_11</t>
-  </si>
-  <si>
-    <t>Bank reference ID PQ4JVTETBCZPW6B</t>
+    <t>27-13419-56856</t>
+  </si>
+  <si>
+    <t>scottsmith10k2010</t>
+  </si>
+  <si>
+    <t>Scott Smith</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>Somerset</t>
+  </si>
+  <si>
+    <t>ta219bw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funds on hold. Estimated release on 27 Aug. </t>
+  </si>
+  <si>
+    <t>Mini cordless angle grinder polishing and cutting machine+2 battery charger 12V</t>
+  </si>
+  <si>
+    <t>Angle Grinder 250601000008</t>
+  </si>
+  <si>
+    <t>FEE-7320093281311_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion fee </t>
+  </si>
+  <si>
+    <t>FEE-7320093280911_11</t>
+  </si>
+  <si>
+    <t>FEE-7320026524711_11</t>
+  </si>
+  <si>
+    <t>FEE-7320019760211_11</t>
+  </si>
+  <si>
+    <t>FEE-7317232142211_11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,12 +384,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -817,15 +727,10 @@
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -840,12 +745,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="36"/>
+    <cellStyle name="60% - Accent2 2" xfId="37"/>
+    <cellStyle name="60% - Accent3 2" xfId="38"/>
+    <cellStyle name="60% - Accent4 2" xfId="39"/>
+    <cellStyle name="60% - Accent5 2" xfId="40"/>
+    <cellStyle name="60% - Accent6 2" xfId="41"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -863,7 +768,7 @@
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Neutral 2" xfId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
@@ -927,7 +832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -962,7 +867,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1139,18 +1044,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,1047 +1306,699 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>45689</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>-1.91</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="A13" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13">
+        <v>12.43</v>
+      </c>
+      <c r="L13" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="4">
-        <v>45690</v>
-      </c>
-      <c r="N13" s="6">
-        <v>6740000000</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>376000000000</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>-1.91</v>
-      </c>
-      <c r="AI13" s="3" t="s">
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13">
+        <v>406123550928</v>
+      </c>
+      <c r="S13">
+        <v>10078206794527</v>
+      </c>
+      <c r="T13" t="s">
+        <v>63</v>
+      </c>
+      <c r="U13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>14.99</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>-0.36</v>
+      </c>
+      <c r="AC13">
+        <v>-2.14</v>
+      </c>
+      <c r="AD13">
+        <v>-0.06</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>14.99</v>
+      </c>
+      <c r="AI13" t="s">
         <v>53</v>
       </c>
-      <c r="AJ13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL13" s="3" t="s">
-        <v>56</v>
+      <c r="AJ13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>45689</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="3">
-        <v>11.77</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="A14" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>-0.36</v>
+      </c>
+      <c r="L14" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="4">
-        <v>45697</v>
-      </c>
-      <c r="N14" s="6">
-        <v>6740000000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>376000000000</v>
-      </c>
-      <c r="S14" s="6">
-        <v>1610000000000</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>406126420661</v>
+      </c>
+      <c r="S14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>-0.36</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="s">
         <v>65</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="AL14" t="s">
         <v>66</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1</v>
-      </c>
-      <c r="W14" s="3">
-        <v>13.29</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>-0.36</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>-0.06</v>
-      </c>
-      <c r="AE14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="3">
-        <v>13.29</v>
-      </c>
-      <c r="AI14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>45689</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-1.5</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>-0.36</v>
+      </c>
+      <c r="L15" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="4">
-        <v>45690</v>
-      </c>
-      <c r="N15" s="6">
-        <v>6740000000</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>376000000000</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>-1.5</v>
-      </c>
-      <c r="AI15" s="3" t="s">
+      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>406126420661</v>
+      </c>
+      <c r="S15" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>-0.36</v>
+      </c>
+      <c r="AI15" t="s">
         <v>53</v>
       </c>
-      <c r="AJ15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL15" s="3" t="s">
-        <v>56</v>
+      <c r="AJ15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>45689</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="A16" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>-0.36</v>
+      </c>
+      <c r="L16" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="4">
-        <v>45698</v>
-      </c>
-      <c r="N16" s="6">
-        <v>6750000000</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>376000000000</v>
-      </c>
-      <c r="S16" s="6">
-        <v>1610000000000</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V16" s="3">
-        <v>1</v>
-      </c>
-      <c r="W16" s="3">
-        <v>9.99</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>-0.12</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>-1.43</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>-0.04</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="3">
-        <v>9.99</v>
-      </c>
-      <c r="AI16" s="3" t="s">
+      <c r="M16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>406123550928</v>
+      </c>
+      <c r="S16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>-0.36</v>
+      </c>
+      <c r="AI16" t="s">
         <v>53</v>
       </c>
-      <c r="AJ16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>0</v>
+      <c r="AJ16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>45689</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>-1.43</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>-0.36</v>
+      </c>
+      <c r="L17" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="4">
-        <v>45690</v>
-      </c>
-      <c r="N17" s="6">
-        <v>6740000000</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
-        <v>376000000000</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="3">
-        <v>-1.43</v>
-      </c>
-      <c r="AI17" s="3" t="s">
+      <c r="M17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>406115942395</v>
+      </c>
+      <c r="S17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>-0.36</v>
+      </c>
+      <c r="AI17" t="s">
         <v>53</v>
       </c>
-      <c r="AJ17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL17" s="3" t="s">
-        <v>56</v>
+      <c r="AJ17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>45689</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="3">
-        <v>7.97</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="A18" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>-0.36</v>
+      </c>
+      <c r="L18" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="4">
-        <v>45698</v>
-      </c>
-      <c r="N18" s="6">
-        <v>6750000000</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>376000000000</v>
-      </c>
-      <c r="S18" s="6">
-        <v>1610000000000</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1</v>
-      </c>
-      <c r="W18" s="3">
-        <v>9.49</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-0.12</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>-1.36</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>-0.04</v>
-      </c>
-      <c r="AE18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="3">
-        <v>9.49</v>
-      </c>
-      <c r="AI18" s="3" t="s">
+      <c r="M18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>406123550928</v>
+      </c>
+      <c r="S18" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>-0.36</v>
+      </c>
+      <c r="AI18" t="s">
         <v>53</v>
       </c>
-      <c r="AJ18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>45689</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>-1.86</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="4">
-        <v>45690</v>
-      </c>
-      <c r="N19" s="6">
-        <v>6740000000</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>376000000000</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="3">
-        <v>-1.86</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL19" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>45689</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="3">
-        <v>13.01</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="4">
-        <v>45704</v>
-      </c>
-      <c r="N20" s="6">
-        <v>6750000000</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
-        <v>376000000000</v>
-      </c>
-      <c r="S20" s="6">
-        <v>1610000000000</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1</v>
-      </c>
-      <c r="W20" s="3">
-        <v>15.45</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-0.36</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>-2.02</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>-0.06</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="3">
-        <v>15.45</v>
-      </c>
-      <c r="AI20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>45689</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-39.409999999999997</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>6730000000</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>-39.409999999999997</v>
-      </c>
-      <c r="AI21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL21" s="3" t="s">
-        <v>62</v>
+      <c r="AJ18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Sales Data/Toonwear.xlsx
+++ b/Raw Sales Data/Toonwear.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\email\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="91">
   <si>
     <t>--</t>
   </si>
@@ -244,6 +249,66 @@
   </si>
   <si>
     <t>FEE-7317232142211_11</t>
+  </si>
+  <si>
+    <t>08-13447-38765</t>
+  </si>
+  <si>
+    <t>cleris123</t>
+  </si>
+  <si>
+    <t>cleris da silva</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>NW10 1ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funds on hold. Estimated release on 28 Aug. </t>
+  </si>
+  <si>
+    <t>FEE-7322736356711_11</t>
+  </si>
+  <si>
+    <t>FEE-7322720912711_11</t>
+  </si>
+  <si>
+    <t>16-13436-19447</t>
+  </si>
+  <si>
+    <t>roe_550</t>
+  </si>
+  <si>
+    <t>Katie Roebuck</t>
+  </si>
+  <si>
+    <t>Snodland</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>ME6 5TF</t>
+  </si>
+  <si>
+    <t>03-13453-55140</t>
+  </si>
+  <si>
+    <t>cjhl-4</t>
+  </si>
+  <si>
+    <t>Mr C V Cunliffe</t>
+  </si>
+  <si>
+    <t>Golborne</t>
+  </si>
+  <si>
+    <t>Cheshire</t>
+  </si>
+  <si>
+    <t>WA3 3QL</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1109,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1052,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,37 +1372,37 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45881</v>
+        <v>45880</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>12.43</v>
+        <v>-0.36</v>
       </c>
       <c r="L13" t="s">
         <v>53</v>
@@ -1355,27 +1420,27 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>406123550928</v>
       </c>
-      <c r="S13">
-        <v>10078206794527</v>
+      <c r="S13" t="s">
+        <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>64</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>14.99</v>
-      </c>
-      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
         <v>0</v>
       </c>
       <c r="Y13" t="s">
@@ -1387,26 +1452,26 @@
       <c r="AA13" s="2">
         <v>0</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <v>-0.36</v>
-      </c>
-      <c r="AC13">
-        <v>-2.14</v>
-      </c>
-      <c r="AD13">
-        <v>-0.06</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>14.99</v>
       </c>
       <c r="AI13" t="s">
         <v>53</v>
@@ -1415,45 +1480,45 @@
         <v>0</v>
       </c>
       <c r="AK13" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>-0.36</v>
+        <v>12.43</v>
       </c>
       <c r="L14" t="s">
         <v>53</v>
@@ -1471,27 +1536,27 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="R14">
-        <v>406126420661</v>
-      </c>
-      <c r="S14" t="s">
-        <v>0</v>
+        <v>406123550928</v>
+      </c>
+      <c r="S14">
+        <v>10074089845108</v>
       </c>
       <c r="T14" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>14.99</v>
+      </c>
+      <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14" t="s">
@@ -1503,14 +1568,14 @@
       <c r="AA14" s="2">
         <v>0</v>
       </c>
-      <c r="AB14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>0</v>
+      <c r="AB14">
+        <v>-0.36</v>
+      </c>
+      <c r="AC14">
+        <v>-2.14</v>
+      </c>
+      <c r="AD14">
+        <v>-0.06</v>
       </c>
       <c r="AE14" t="s">
         <v>0</v>
@@ -1522,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>-0.36</v>
+        <v>14.99</v>
       </c>
       <c r="AI14" t="s">
         <v>53</v>
@@ -1531,15 +1596,15 @@
         <v>0</v>
       </c>
       <c r="AK14" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1590,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>406126420661</v>
+        <v>406129000095</v>
       </c>
       <c r="S15" t="s">
         <v>0</v>
@@ -1647,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AK15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s">
         <v>66</v>
@@ -1655,7 +1720,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -1706,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>406123550928</v>
+        <v>406128982486</v>
       </c>
       <c r="S16" t="s">
         <v>0</v>
@@ -1763,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="AK16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s">
         <v>66</v>
@@ -1771,37 +1836,37 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>-0.36</v>
+        <v>12.43</v>
       </c>
       <c r="L17" t="s">
         <v>53</v>
@@ -1819,27 +1884,27 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="R17">
-        <v>406115942395</v>
-      </c>
-      <c r="S17" t="s">
-        <v>0</v>
+        <v>406123550928</v>
+      </c>
+      <c r="S17">
+        <v>10074695962716</v>
       </c>
       <c r="T17" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U17" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" t="s">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
-        <v>0</v>
-      </c>
-      <c r="X17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>14.99</v>
+      </c>
+      <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17" t="s">
@@ -1851,14 +1916,14 @@
       <c r="AA17" s="2">
         <v>0</v>
       </c>
-      <c r="AB17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>0</v>
+      <c r="AB17">
+        <v>-0.36</v>
+      </c>
+      <c r="AC17">
+        <v>-2.14</v>
+      </c>
+      <c r="AD17">
+        <v>-0.06</v>
       </c>
       <c r="AE17" t="s">
         <v>0</v>
@@ -1870,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>-0.36</v>
+        <v>14.99</v>
       </c>
       <c r="AI17" t="s">
         <v>53</v>
@@ -1879,45 +1944,45 @@
         <v>0</v>
       </c>
       <c r="AK17" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>-0.36</v>
+        <v>12.43</v>
       </c>
       <c r="L18" t="s">
         <v>53</v>
@@ -1935,27 +2000,27 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="R18">
         <v>406123550928</v>
       </c>
-      <c r="S18" t="s">
-        <v>0</v>
+      <c r="S18">
+        <v>10074911952003</v>
       </c>
       <c r="T18" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U18" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" t="s">
-        <v>0</v>
-      </c>
-      <c r="W18" t="s">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>14.99</v>
+      </c>
+      <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18" t="s">
@@ -1967,14 +2032,14 @@
       <c r="AA18" s="2">
         <v>0</v>
       </c>
-      <c r="AB18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>0</v>
+      <c r="AB18">
+        <v>-0.36</v>
+      </c>
+      <c r="AC18">
+        <v>-2.14</v>
+      </c>
+      <c r="AD18">
+        <v>-0.06</v>
       </c>
       <c r="AE18" t="s">
         <v>0</v>
@@ -1986,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>-0.36</v>
+        <v>14.99</v>
       </c>
       <c r="AI18" t="s">
         <v>53</v>
@@ -1995,9 +2060,589 @@
         <v>0</v>
       </c>
       <c r="AK18" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19">
+        <v>12.43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19">
+        <v>406123550928</v>
+      </c>
+      <c r="S19">
+        <v>10078206794527</v>
+      </c>
+      <c r="T19" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>14.99</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>-0.36</v>
+      </c>
+      <c r="AC19">
+        <v>-2.14</v>
+      </c>
+      <c r="AD19">
+        <v>-0.06</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>14.99</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>-0.36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>406126420661</v>
+      </c>
+      <c r="S20" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>-0.36</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>-0.36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>406126420661</v>
+      </c>
+      <c r="S21" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>-0.36</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>-0.36</v>
+      </c>
+      <c r="L22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>406123550928</v>
+      </c>
+      <c r="S22" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>-0.36</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-0.36</v>
+      </c>
+      <c r="L23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>406115942395</v>
+      </c>
+      <c r="S23" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>-0.36</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL23" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Raw Sales Data/Toonwear.xlsx
+++ b/Raw Sales Data/Toonwear.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="112">
   <si>
     <t>--</t>
   </si>
@@ -309,6 +309,69 @@
   </si>
   <si>
     <t>WA3 3QL</t>
+  </si>
+  <si>
+    <t>12-13446-94105</t>
+  </si>
+  <si>
+    <t>baz001d</t>
+  </si>
+  <si>
+    <t>mr B Drabble</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>South Yorkshire</t>
+  </si>
+  <si>
+    <t>s652az</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funds on hold. Estimated release on 29 Aug. </t>
+  </si>
+  <si>
+    <t>05-13455-76492</t>
+  </si>
+  <si>
+    <t>chinet-26</t>
+  </si>
+  <si>
+    <t>Seth Harris</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>NR11 7BE</t>
+  </si>
+  <si>
+    <t>2x Camping Toaster 4Slice Folding Gas Toaster, CampingMiniToaster for Gas Stoves</t>
+  </si>
+  <si>
+    <t>Folding Toaster 21 (2pc)</t>
+  </si>
+  <si>
+    <t>06-13453-93914</t>
+  </si>
+  <si>
+    <t>clifanchor</t>
+  </si>
+  <si>
+    <t>Clif Woodall</t>
+  </si>
+  <si>
+    <t>PENZANCE</t>
+  </si>
+  <si>
+    <t>Cornwall</t>
+  </si>
+  <si>
+    <t>TR17 0EX</t>
   </si>
 </sst>
 </file>
@@ -1117,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL23"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,31 +1551,31 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45882</v>
+        <v>45881</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
         <v>55</v>
@@ -1536,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="R14">
         <v>406123550928</v>
       </c>
       <c r="S14">
-        <v>10074089845108</v>
+        <v>10078206794527</v>
       </c>
       <c r="T14" t="s">
         <v>63</v>
@@ -1604,7 +1667,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45882</v>
+        <v>45881</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1655,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>406129000095</v>
+        <v>406126420661</v>
       </c>
       <c r="S15" t="s">
         <v>0</v>
@@ -1712,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="AK15" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="s">
         <v>66</v>
@@ -1720,7 +1783,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45882</v>
+        <v>45881</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -1771,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>406128982486</v>
+        <v>406126420661</v>
       </c>
       <c r="S16" t="s">
         <v>0</v>
@@ -1828,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="AK16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AL16" t="s">
         <v>66</v>
@@ -1836,37 +1899,37 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45882</v>
+        <v>45881</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>12.43</v>
+        <v>-0.36</v>
       </c>
       <c r="L17" t="s">
         <v>53</v>
@@ -1884,27 +1947,27 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>406123550928</v>
       </c>
-      <c r="S17">
-        <v>10074695962716</v>
+      <c r="S17" t="s">
+        <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>64</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>14.99</v>
-      </c>
-      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
         <v>0</v>
       </c>
       <c r="Y17" t="s">
@@ -1916,26 +1979,26 @@
       <c r="AA17" s="2">
         <v>0</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH17">
         <v>-0.36</v>
-      </c>
-      <c r="AC17">
-        <v>-2.14</v>
-      </c>
-      <c r="AD17">
-        <v>-0.06</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>14.99</v>
       </c>
       <c r="AI17" t="s">
         <v>53</v>
@@ -1944,45 +2007,45 @@
         <v>0</v>
       </c>
       <c r="AK17" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AL17" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45882</v>
+        <v>45881</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>12.43</v>
+        <v>-0.36</v>
       </c>
       <c r="L18" t="s">
         <v>53</v>
@@ -2000,27 +2063,27 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>406123550928</v>
-      </c>
-      <c r="S18">
-        <v>10074911952003</v>
+        <v>406115942395</v>
+      </c>
+      <c r="S18" t="s">
+        <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>64</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>14.99</v>
-      </c>
-      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
         <v>0</v>
       </c>
       <c r="Y18" t="s">
@@ -2032,26 +2095,26 @@
       <c r="AA18" s="2">
         <v>0</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH18">
         <v>-0.36</v>
-      </c>
-      <c r="AC18">
-        <v>-2.14</v>
-      </c>
-      <c r="AD18">
-        <v>-0.06</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>14.99</v>
       </c>
       <c r="AI18" t="s">
         <v>53</v>
@@ -2060,39 +2123,39 @@
         <v>0</v>
       </c>
       <c r="AK18" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AL18" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="J19" t="s">
         <v>55</v>
@@ -2116,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="R19">
         <v>406123550928</v>
       </c>
       <c r="S19">
-        <v>10078206794527</v>
+        <v>10074774179712</v>
       </c>
       <c r="T19" t="s">
         <v>63</v>
@@ -2184,37 +2247,37 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>-0.36</v>
+        <v>5.17</v>
       </c>
       <c r="L20" t="s">
         <v>53</v>
@@ -2232,27 +2295,27 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="R20">
-        <v>406126420661</v>
-      </c>
-      <c r="S20" t="s">
-        <v>0</v>
+        <v>406115937519</v>
+      </c>
+      <c r="S20">
+        <v>10074276974705</v>
       </c>
       <c r="T20" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="U20" t="s">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s">
-        <v>0</v>
-      </c>
-      <c r="X20" t="s">
+        <v>105</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>6.39</v>
+      </c>
+      <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20" t="s">
@@ -2264,14 +2327,14 @@
       <c r="AA20" s="2">
         <v>0</v>
       </c>
-      <c r="AB20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>0</v>
+      <c r="AB20">
+        <v>-0.36</v>
+      </c>
+      <c r="AC20">
+        <v>-0.84</v>
+      </c>
+      <c r="AD20">
+        <v>-0.02</v>
       </c>
       <c r="AE20" t="s">
         <v>0</v>
@@ -2283,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>-0.36</v>
+        <v>6.39</v>
       </c>
       <c r="AI20" t="s">
         <v>53</v>
@@ -2292,45 +2355,45 @@
         <v>0</v>
       </c>
       <c r="AK20" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="H21" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I21" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="J21" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>-0.36</v>
+        <v>12.43</v>
       </c>
       <c r="L21" t="s">
         <v>53</v>
@@ -2348,27 +2411,27 @@
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="R21">
-        <v>406126420661</v>
-      </c>
-      <c r="S21" t="s">
-        <v>0</v>
+        <v>406123550928</v>
+      </c>
+      <c r="S21">
+        <v>10074955528706</v>
       </c>
       <c r="T21" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U21" t="s">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>14.99</v>
+      </c>
+      <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21" t="s">
@@ -2380,14 +2443,14 @@
       <c r="AA21" s="2">
         <v>0</v>
       </c>
-      <c r="AB21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>0</v>
+      <c r="AB21">
+        <v>-0.36</v>
+      </c>
+      <c r="AC21">
+        <v>-2.14</v>
+      </c>
+      <c r="AD21">
+        <v>-0.06</v>
       </c>
       <c r="AE21" t="s">
         <v>0</v>
@@ -2399,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>-0.36</v>
+        <v>14.99</v>
       </c>
       <c r="AI21" t="s">
         <v>53</v>
@@ -2408,45 +2471,45 @@
         <v>0</v>
       </c>
       <c r="AK21" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>-0.36</v>
+        <v>12.43</v>
       </c>
       <c r="L22" t="s">
         <v>53</v>
@@ -2464,27 +2527,27 @@
         <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="R22">
         <v>406123550928</v>
       </c>
-      <c r="S22" t="s">
-        <v>0</v>
+      <c r="S22">
+        <v>10074089845108</v>
       </c>
       <c r="T22" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U22" t="s">
-        <v>0</v>
-      </c>
-      <c r="V22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s">
-        <v>0</v>
-      </c>
-      <c r="X22" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>14.99</v>
+      </c>
+      <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22" t="s">
@@ -2496,14 +2559,14 @@
       <c r="AA22" s="2">
         <v>0</v>
       </c>
-      <c r="AB22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>0</v>
+      <c r="AB22">
+        <v>-0.36</v>
+      </c>
+      <c r="AC22">
+        <v>-2.14</v>
+      </c>
+      <c r="AD22">
+        <v>-0.06</v>
       </c>
       <c r="AE22" t="s">
         <v>0</v>
@@ -2515,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>-0.36</v>
+        <v>14.99</v>
       </c>
       <c r="AI22" t="s">
         <v>53</v>
@@ -2524,15 +2587,15 @@
         <v>0</v>
       </c>
       <c r="AK22" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -2583,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>406115942395</v>
+        <v>406129000095</v>
       </c>
       <c r="S23" t="s">
         <v>0</v>
@@ -2640,10 +2703,358 @@
         <v>0</v>
       </c>
       <c r="AK23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>-0.36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>406128982486</v>
+      </c>
+      <c r="S24" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>-0.36</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <v>12.43</v>
+      </c>
+      <c r="L25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25">
+        <v>406123550928</v>
+      </c>
+      <c r="S25">
+        <v>10074695962716</v>
+      </c>
+      <c r="T25" t="s">
+        <v>63</v>
+      </c>
+      <c r="U25" t="s">
+        <v>64</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>14.99</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>-0.36</v>
+      </c>
+      <c r="AC25">
+        <v>-2.14</v>
+      </c>
+      <c r="AD25">
+        <v>-0.06</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>14.99</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26">
+        <v>12.43</v>
+      </c>
+      <c r="L26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26">
+        <v>406123550928</v>
+      </c>
+      <c r="S26">
+        <v>10074911952003</v>
+      </c>
+      <c r="T26" t="s">
+        <v>63</v>
+      </c>
+      <c r="U26" t="s">
+        <v>64</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>14.99</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>-0.36</v>
+      </c>
+      <c r="AC26">
+        <v>-2.14</v>
+      </c>
+      <c r="AD26">
+        <v>-0.06</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>14.99</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Sales Data/Toonwear.xlsx
+++ b/Raw Sales Data/Toonwear.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="124">
   <si>
     <t>--</t>
   </si>
@@ -372,6 +372,42 @@
   </si>
   <si>
     <t>TR17 0EX</t>
+  </si>
+  <si>
+    <t>10-13454-07555</t>
+  </si>
+  <si>
+    <t>yong6032</t>
+  </si>
+  <si>
+    <t>Yongjian Yang</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>EX1 2BH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funds on hold. Estimated release on 30 Aug. </t>
+  </si>
+  <si>
+    <t>06-13458-93815</t>
+  </si>
+  <si>
+    <t>harry01090_1</t>
+  </si>
+  <si>
+    <t>Harry Williams</t>
+  </si>
+  <si>
+    <t>Leigh</t>
+  </si>
+  <si>
+    <t>Lancashire</t>
+  </si>
+  <si>
+    <t>wn7 5hp</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL26"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,31 +2167,31 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
         <v>55</v>
@@ -2179,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="R19">
         <v>406123550928</v>
       </c>
       <c r="S19">
-        <v>10074774179712</v>
+        <v>10074089845108</v>
       </c>
       <c r="T19" t="s">
         <v>63</v>
@@ -2247,37 +2283,37 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>5.17</v>
+        <v>-0.36</v>
       </c>
       <c r="L20" t="s">
         <v>53</v>
@@ -2295,27 +2331,27 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>406115937519</v>
-      </c>
-      <c r="S20">
-        <v>10074276974705</v>
+        <v>406129000095</v>
+      </c>
+      <c r="S20" t="s">
+        <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>105</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>6.39</v>
-      </c>
-      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
         <v>0</v>
       </c>
       <c r="Y20" t="s">
@@ -2327,26 +2363,26 @@
       <c r="AA20" s="2">
         <v>0</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH20">
         <v>-0.36</v>
-      </c>
-      <c r="AC20">
-        <v>-0.84</v>
-      </c>
-      <c r="AD20">
-        <v>-0.02</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>6.39</v>
       </c>
       <c r="AI20" t="s">
         <v>53</v>
@@ -2355,45 +2391,45 @@
         <v>0</v>
       </c>
       <c r="AK20" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>12.43</v>
+        <v>-0.36</v>
       </c>
       <c r="L21" t="s">
         <v>53</v>
@@ -2411,27 +2447,27 @@
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>406123550928</v>
-      </c>
-      <c r="S21">
-        <v>10074955528706</v>
+        <v>406128982486</v>
+      </c>
+      <c r="S21" t="s">
+        <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>64</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>14.99</v>
-      </c>
-      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
         <v>0</v>
       </c>
       <c r="Y21" t="s">
@@ -2443,26 +2479,26 @@
       <c r="AA21" s="2">
         <v>0</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH21">
         <v>-0.36</v>
-      </c>
-      <c r="AC21">
-        <v>-2.14</v>
-      </c>
-      <c r="AD21">
-        <v>-0.06</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>14.99</v>
       </c>
       <c r="AI21" t="s">
         <v>53</v>
@@ -2471,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="AK21" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
@@ -2485,25 +2521,25 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s">
         <v>55</v>
@@ -2533,7 +2569,7 @@
         <v>406123550928</v>
       </c>
       <c r="S22">
-        <v>10074089845108</v>
+        <v>10074695962716</v>
       </c>
       <c r="T22" t="s">
         <v>63</v>
@@ -2598,34 +2634,34 @@
         <v>45882</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J23" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>-0.36</v>
+        <v>12.43</v>
       </c>
       <c r="L23" t="s">
         <v>53</v>
@@ -2643,27 +2679,27 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="R23">
-        <v>406129000095</v>
-      </c>
-      <c r="S23" t="s">
-        <v>0</v>
+        <v>406123550928</v>
+      </c>
+      <c r="S23">
+        <v>10074911952003</v>
       </c>
       <c r="T23" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V23" t="s">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s">
-        <v>0</v>
-      </c>
-      <c r="X23" t="s">
+        <v>64</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>14.99</v>
+      </c>
+      <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23" t="s">
@@ -2675,14 +2711,14 @@
       <c r="AA23" s="2">
         <v>0</v>
       </c>
-      <c r="AB23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>0</v>
+      <c r="AB23">
+        <v>-0.36</v>
+      </c>
+      <c r="AC23">
+        <v>-2.14</v>
+      </c>
+      <c r="AD23">
+        <v>-0.06</v>
       </c>
       <c r="AE23" t="s">
         <v>0</v>
@@ -2694,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>-0.36</v>
+        <v>14.99</v>
       </c>
       <c r="AI23" t="s">
         <v>53</v>
@@ -2703,45 +2739,45 @@
         <v>0</v>
       </c>
       <c r="AK23" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J24" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>-0.36</v>
+        <v>12.43</v>
       </c>
       <c r="L24" t="s">
         <v>53</v>
@@ -2759,27 +2795,27 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="R24">
-        <v>406128982486</v>
-      </c>
-      <c r="S24" t="s">
-        <v>0</v>
+        <v>406123550928</v>
+      </c>
+      <c r="S24">
+        <v>10074787916610</v>
       </c>
       <c r="T24" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U24" t="s">
-        <v>0</v>
-      </c>
-      <c r="V24" t="s">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s">
-        <v>0</v>
-      </c>
-      <c r="X24" t="s">
+        <v>64</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>14.99</v>
+      </c>
+      <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24" t="s">
@@ -2791,14 +2827,14 @@
       <c r="AA24" s="2">
         <v>0</v>
       </c>
-      <c r="AB24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>0</v>
+      <c r="AB24">
+        <v>-0.36</v>
+      </c>
+      <c r="AC24">
+        <v>-2.14</v>
+      </c>
+      <c r="AD24">
+        <v>-0.06</v>
       </c>
       <c r="AE24" t="s">
         <v>0</v>
@@ -2810,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>-0.36</v>
+        <v>14.99</v>
       </c>
       <c r="AI24" t="s">
         <v>53</v>
@@ -2819,39 +2855,39 @@
         <v>0</v>
       </c>
       <c r="AK24" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="J25" t="s">
         <v>55</v>
@@ -2875,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="R25">
         <v>406123550928</v>
       </c>
       <c r="S25">
-        <v>10074695962716</v>
+        <v>10074983696206</v>
       </c>
       <c r="T25" t="s">
         <v>63</v>
@@ -2943,31 +2979,31 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J26" t="s">
         <v>55</v>
@@ -2991,13 +3027,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="R26">
         <v>406123550928</v>
       </c>
       <c r="S26">
-        <v>10074911952003</v>
+        <v>10074774179712</v>
       </c>
       <c r="T26" t="s">
         <v>63</v>
@@ -3054,6 +3090,238 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27">
+        <v>5.17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>97</v>
+      </c>
+      <c r="R27">
+        <v>406115937519</v>
+      </c>
+      <c r="S27">
+        <v>10074276974705</v>
+      </c>
+      <c r="T27" t="s">
+        <v>104</v>
+      </c>
+      <c r="U27" t="s">
+        <v>105</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>6.39</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>-0.36</v>
+      </c>
+      <c r="AC27">
+        <v>-0.84</v>
+      </c>
+      <c r="AD27">
+        <v>-0.02</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>6.39</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28">
+        <v>12.43</v>
+      </c>
+      <c r="L28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>97</v>
+      </c>
+      <c r="R28">
+        <v>406123550928</v>
+      </c>
+      <c r="S28">
+        <v>10074955528706</v>
+      </c>
+      <c r="T28" t="s">
+        <v>63</v>
+      </c>
+      <c r="U28" t="s">
+        <v>64</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>14.99</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>-0.36</v>
+      </c>
+      <c r="AC28">
+        <v>-2.14</v>
+      </c>
+      <c r="AD28">
+        <v>-0.06</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>14.99</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Toonwear.xlsx
+++ b/Raw Sales Data/Toonwear.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="145">
   <si>
     <t>--</t>
   </si>
@@ -311,69 +311,6 @@
     <t>WA3 3QL</t>
   </si>
   <si>
-    <t>12-13446-94105</t>
-  </si>
-  <si>
-    <t>baz001d</t>
-  </si>
-  <si>
-    <t>mr B Drabble</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>South Yorkshire</t>
-  </si>
-  <si>
-    <t>s652az</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funds on hold. Estimated release on 29 Aug. </t>
-  </si>
-  <si>
-    <t>05-13455-76492</t>
-  </si>
-  <si>
-    <t>chinet-26</t>
-  </si>
-  <si>
-    <t>Seth Harris</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
-    <t>Norfolk</t>
-  </si>
-  <si>
-    <t>NR11 7BE</t>
-  </si>
-  <si>
-    <t>2x Camping Toaster 4Slice Folding Gas Toaster, CampingMiniToaster for Gas Stoves</t>
-  </si>
-  <si>
-    <t>Folding Toaster 21 (2pc)</t>
-  </si>
-  <si>
-    <t>06-13453-93914</t>
-  </si>
-  <si>
-    <t>clifanchor</t>
-  </si>
-  <si>
-    <t>Clif Woodall</t>
-  </si>
-  <si>
-    <t>PENZANCE</t>
-  </si>
-  <si>
-    <t>Cornwall</t>
-  </si>
-  <si>
-    <t>TR17 0EX</t>
-  </si>
-  <si>
     <t>10-13454-07555</t>
   </si>
   <si>
@@ -408,6 +345,132 @@
   </si>
   <si>
     <t>wn7 5hp</t>
+  </si>
+  <si>
+    <t>02-13474-30011</t>
+  </si>
+  <si>
+    <t>freno71160_8</t>
+  </si>
+  <si>
+    <t>frank mcCabe</t>
+  </si>
+  <si>
+    <t>FEE-7334485071911_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promoted Listings - General fee </t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Angus</t>
+  </si>
+  <si>
+    <t>DD5 2PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funds on hold. Estimated release on 2 Sep. </t>
+  </si>
+  <si>
+    <t>11-13455-13707</t>
+  </si>
+  <si>
+    <t>neel_kamal701</t>
+  </si>
+  <si>
+    <t>verinder chauhan</t>
+  </si>
+  <si>
+    <t>FEE-7333504144911_11</t>
+  </si>
+  <si>
+    <t>05-13463-74801</t>
+  </si>
+  <si>
+    <t>1229.silveradorider</t>
+  </si>
+  <si>
+    <t>robin chadwick</t>
+  </si>
+  <si>
+    <t>FEE-7333503301711_11</t>
+  </si>
+  <si>
+    <t>25-13438-36329</t>
+  </si>
+  <si>
+    <t>dansjimm</t>
+  </si>
+  <si>
+    <t>jimmy danson</t>
+  </si>
+  <si>
+    <t>FEE-7333503517711_11</t>
+  </si>
+  <si>
+    <t>15-13450-61669</t>
+  </si>
+  <si>
+    <t>jamietopping</t>
+  </si>
+  <si>
+    <t>Jamie Topping</t>
+  </si>
+  <si>
+    <t>FEE-7333477405211_11</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Greater Manchester</t>
+  </si>
+  <si>
+    <t>M6 8SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funds on hold. Estimated release on 31 Aug. </t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Cumbria</t>
+  </si>
+  <si>
+    <t>CA27DD</t>
+  </si>
+  <si>
+    <t>Massage Office Chair Gaming Computer Desk Swivel Recliner Chair Leather Footrest</t>
+  </si>
+  <si>
+    <t>Executive Black Chair 250601000002</t>
+  </si>
+  <si>
+    <t>ulverston</t>
+  </si>
+  <si>
+    <t>LA12 9AH</t>
+  </si>
+  <si>
+    <t>west bromwich</t>
+  </si>
+  <si>
+    <t>West Midlands</t>
+  </si>
+  <si>
+    <t>b70 8la</t>
+  </si>
+  <si>
+    <t>FEE-7330086015111_11</t>
+  </si>
+  <si>
+    <t>FEE-7330041300711_11</t>
+  </si>
+  <si>
+    <t>FEE-7329821432811_11</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,25 +2816,25 @@
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H24" t="s">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
         <v>55</v>
@@ -2795,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="R24">
         <v>406123550928</v>
@@ -2869,25 +2932,25 @@
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="J25" t="s">
         <v>55</v>
@@ -2911,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="R25">
         <v>406123550928</v>
@@ -2979,37 +3042,37 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>12.43</v>
+        <v>-1.67</v>
       </c>
       <c r="L26" t="s">
         <v>53</v>
@@ -3027,27 +3090,27 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>406123550928</v>
       </c>
-      <c r="S26">
-        <v>10074774179712</v>
+      <c r="S26" t="s">
+        <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>64</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>14.99</v>
-      </c>
-      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
         <v>0</v>
       </c>
       <c r="Y26" t="s">
@@ -3059,14 +3122,14 @@
       <c r="AA26" s="2">
         <v>0</v>
       </c>
-      <c r="AB26">
-        <v>-0.36</v>
-      </c>
-      <c r="AC26">
-        <v>-2.14</v>
-      </c>
-      <c r="AD26">
-        <v>-0.06</v>
+      <c r="AB26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>0</v>
       </c>
       <c r="AE26" t="s">
         <v>0</v>
@@ -3078,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>14.99</v>
+        <v>-1.67</v>
       </c>
       <c r="AI26" t="s">
         <v>53</v>
@@ -3087,45 +3150,45 @@
         <v>0</v>
       </c>
       <c r="AK26" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AL26" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J27" t="s">
         <v>55</v>
       </c>
       <c r="K27">
-        <v>5.17</v>
+        <v>12.84</v>
       </c>
       <c r="L27" t="s">
         <v>53</v>
@@ -3143,25 +3206,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="R27">
-        <v>406115937519</v>
+        <v>406123550928</v>
       </c>
       <c r="S27">
-        <v>10074276974705</v>
+        <v>10074424185602</v>
       </c>
       <c r="T27" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="U27" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="V27">
         <v>1</v>
       </c>
       <c r="W27">
-        <v>6.39</v>
+        <v>15.47</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -3179,10 +3242,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC27">
-        <v>-0.84</v>
+        <v>-2.21</v>
       </c>
       <c r="AD27">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="AE27" t="s">
         <v>0</v>
@@ -3194,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>6.39</v>
+        <v>15.47</v>
       </c>
       <c r="AI27" t="s">
         <v>53</v>
@@ -3211,37 +3274,37 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45883</v>
+        <v>45886</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>12.43</v>
+        <v>-1.67</v>
       </c>
       <c r="L28" t="s">
         <v>53</v>
@@ -3259,69 +3322,1461 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>406123550928</v>
       </c>
-      <c r="S28">
-        <v>10074955528706</v>
+      <c r="S28" t="s">
+        <v>0</v>
       </c>
       <c r="T28" t="s">
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>-1.67</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>-1.67</v>
+      </c>
+      <c r="L29" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>406123550928</v>
+      </c>
+      <c r="S29" t="s">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>0</v>
+      </c>
+      <c r="U29" t="s">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>-1.67</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>-1.67</v>
+      </c>
+      <c r="L30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>406123550928</v>
+      </c>
+      <c r="S30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>0</v>
+      </c>
+      <c r="U30" t="s">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>-1.67</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>-11.77</v>
+      </c>
+      <c r="L31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>406115942395</v>
+      </c>
+      <c r="S31" t="s">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>-11.77</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32">
+        <v>12.84</v>
+      </c>
+      <c r="L32" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>131</v>
+      </c>
+      <c r="R32">
+        <v>406123550928</v>
+      </c>
+      <c r="S32">
+        <v>10073945619225</v>
+      </c>
+      <c r="T32" t="s">
         <v>63</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U32" t="s">
         <v>64</v>
       </c>
-      <c r="V28">
+      <c r="V32">
         <v>1</v>
       </c>
-      <c r="W28">
+      <c r="W32">
+        <v>15.47</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>-0.36</v>
+      </c>
+      <c r="AC32">
+        <v>-2.21</v>
+      </c>
+      <c r="AD32">
+        <v>-0.06</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>15.47</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" t="s">
+        <v>133</v>
+      </c>
+      <c r="I33" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33">
+        <v>66.58</v>
+      </c>
+      <c r="L33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>131</v>
+      </c>
+      <c r="R33">
+        <v>406115942395</v>
+      </c>
+      <c r="S33">
+        <v>10074777307115</v>
+      </c>
+      <c r="T33" t="s">
+        <v>135</v>
+      </c>
+      <c r="U33" t="s">
+        <v>136</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>78.47</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>-0.36</v>
+      </c>
+      <c r="AC33">
+        <v>-11.21</v>
+      </c>
+      <c r="AD33">
+        <v>-0.32</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>78.47</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34">
+        <v>12.84</v>
+      </c>
+      <c r="L34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>131</v>
+      </c>
+      <c r="R34">
+        <v>406123550928</v>
+      </c>
+      <c r="S34">
+        <v>10074322117105</v>
+      </c>
+      <c r="T34" t="s">
+        <v>63</v>
+      </c>
+      <c r="U34" t="s">
+        <v>64</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>15.47</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>-0.36</v>
+      </c>
+      <c r="AC34">
+        <v>-2.21</v>
+      </c>
+      <c r="AD34">
+        <v>-0.06</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>15.47</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>141</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35">
+        <v>12.84</v>
+      </c>
+      <c r="L35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>131</v>
+      </c>
+      <c r="R35">
+        <v>406123550928</v>
+      </c>
+      <c r="S35">
+        <v>10074853635711</v>
+      </c>
+      <c r="T35" t="s">
+        <v>63</v>
+      </c>
+      <c r="U35" t="s">
+        <v>64</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>15.47</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>-0.36</v>
+      </c>
+      <c r="AC35">
+        <v>-2.21</v>
+      </c>
+      <c r="AD35">
+        <v>-0.06</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>15.47</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>-0.36</v>
+      </c>
+      <c r="L36" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>406137033081</v>
+      </c>
+      <c r="S36" t="s">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>0</v>
+      </c>
+      <c r="U36" t="s">
+        <v>0</v>
+      </c>
+      <c r="V36" t="s">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>0</v>
+      </c>
+      <c r="X36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>-0.36</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>-0.36</v>
+      </c>
+      <c r="L37" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>406137004836</v>
+      </c>
+      <c r="S37" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>0</v>
+      </c>
+      <c r="U37" t="s">
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>0</v>
+      </c>
+      <c r="X37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>-0.36</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>-0.36</v>
+      </c>
+      <c r="L38" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>406136806041</v>
+      </c>
+      <c r="S38" t="s">
+        <v>0</v>
+      </c>
+      <c r="T38" t="s">
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
+        <v>0</v>
+      </c>
+      <c r="V38" t="s">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>-0.36</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39">
+        <v>12.43</v>
+      </c>
+      <c r="L39" t="s">
+        <v>53</v>
+      </c>
+      <c r="M39" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>96</v>
+      </c>
+      <c r="R39">
+        <v>406123550928</v>
+      </c>
+      <c r="S39">
+        <v>10074787916610</v>
+      </c>
+      <c r="T39" t="s">
+        <v>63</v>
+      </c>
+      <c r="U39" t="s">
+        <v>64</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
         <v>14.99</v>
       </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB28">
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39">
         <v>-0.36</v>
       </c>
-      <c r="AC28">
+      <c r="AC39">
         <v>-2.14</v>
       </c>
-      <c r="AD28">
+      <c r="AD39">
         <v>-0.06</v>
       </c>
-      <c r="AE28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH28">
+      <c r="AE39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH39">
         <v>14.99</v>
       </c>
-      <c r="AI28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="s">
+      <c r="AI39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40">
+        <v>12.43</v>
+      </c>
+      <c r="L40" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>96</v>
+      </c>
+      <c r="R40">
+        <v>406123550928</v>
+      </c>
+      <c r="S40">
+        <v>10074983696206</v>
+      </c>
+      <c r="T40" t="s">
+        <v>63</v>
+      </c>
+      <c r="U40" t="s">
+        <v>64</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>14.99</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>-0.36</v>
+      </c>
+      <c r="AC40">
+        <v>-2.14</v>
+      </c>
+      <c r="AD40">
+        <v>-0.06</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>14.99</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Toonwear.xlsx
+++ b/Raw Sales Data/Toonwear.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\email\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
   </bookViews>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="189">
   <si>
     <t>--</t>
   </si>
@@ -471,6 +466,138 @@
   </si>
   <si>
     <t>FEE-7329821432811_11</t>
+  </si>
+  <si>
+    <t>12-13463-66629</t>
+  </si>
+  <si>
+    <t>tiny420_0</t>
+  </si>
+  <si>
+    <t>ian skene</t>
+  </si>
+  <si>
+    <t>FEE-7336257595711_11</t>
+  </si>
+  <si>
+    <t>middlesbrogh</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>TS66XR</t>
+  </si>
+  <si>
+    <t>04-13474-02117</t>
+  </si>
+  <si>
+    <t>kolo898</t>
+  </si>
+  <si>
+    <t>Anthony. Doe</t>
+  </si>
+  <si>
+    <t>FEE-7336154649511_11</t>
+  </si>
+  <si>
+    <t>Park Royal</t>
+  </si>
+  <si>
+    <t>NW10 7AY</t>
+  </si>
+  <si>
+    <t>05-13472-26780</t>
+  </si>
+  <si>
+    <t>lormicha-n6sb3</t>
+  </si>
+  <si>
+    <t>Michael Lord</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>BB102EF</t>
+  </si>
+  <si>
+    <t>LED Ceiling Light Chandelier vintage pendant lights fitting Bedroom Lamp Sputnik</t>
+  </si>
+  <si>
+    <t>Pendent Light Black 250601000021 + 6pc Bulb</t>
+  </si>
+  <si>
+    <t>FEE-7335522856311_11</t>
+  </si>
+  <si>
+    <t>FEE-7335522854611_11</t>
+  </si>
+  <si>
+    <t>FEE-7335403356411_11</t>
+  </si>
+  <si>
+    <t>FEE-7335403355411_11</t>
+  </si>
+  <si>
+    <t>FEE-7335334499711_11</t>
+  </si>
+  <si>
+    <t>FEE-7335235253311_11</t>
+  </si>
+  <si>
+    <t>FEE-7335046845711_11</t>
+  </si>
+  <si>
+    <t>FEE-7334950682311_11</t>
+  </si>
+  <si>
+    <t>03-13473-27691</t>
+  </si>
+  <si>
+    <t>9443sej</t>
+  </si>
+  <si>
+    <t>john slack</t>
+  </si>
+  <si>
+    <t>stanford-le-hope</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>ss178hh</t>
+  </si>
+  <si>
+    <t>60W LED Rechargeable Cordless Work Site Flood Light Mobile Portable Camping Lamp</t>
+  </si>
+  <si>
+    <t>Flood Light 250601000020</t>
+  </si>
+  <si>
+    <t>FEE-7334923571011_11</t>
+  </si>
+  <si>
+    <t>27-13441-20436</t>
+  </si>
+  <si>
+    <t>djm0_7</t>
+  </si>
+  <si>
+    <t>David mitchell</t>
+  </si>
+  <si>
+    <t>FEE-7334843608011_11</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>North Yorkshire</t>
+  </si>
+  <si>
+    <t>YO19 6JD</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1279,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL40"/>
+  <dimension ref="A1:AL57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,37 +3169,37 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45887</v>
+        <v>45884</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="J26" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>-1.67</v>
+        <v>12.43</v>
       </c>
       <c r="L26" t="s">
         <v>53</v>
@@ -3090,27 +3217,27 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="R26">
         <v>406123550928</v>
       </c>
-      <c r="S26" t="s">
-        <v>0</v>
+      <c r="S26">
+        <v>10074787916610</v>
       </c>
       <c r="T26" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U26" t="s">
-        <v>0</v>
-      </c>
-      <c r="V26" t="s">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
+        <v>64</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>14.99</v>
+      </c>
+      <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26" t="s">
@@ -3122,14 +3249,14 @@
       <c r="AA26" s="2">
         <v>0</v>
       </c>
-      <c r="AB26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>0</v>
+      <c r="AB26">
+        <v>-0.36</v>
+      </c>
+      <c r="AC26">
+        <v>-2.14</v>
+      </c>
+      <c r="AD26">
+        <v>-0.06</v>
       </c>
       <c r="AE26" t="s">
         <v>0</v>
@@ -3141,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>-1.67</v>
+        <v>14.99</v>
       </c>
       <c r="AI26" t="s">
         <v>53</v>
@@ -3150,45 +3277,45 @@
         <v>0</v>
       </c>
       <c r="AK26" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45887</v>
+        <v>45884</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J27" t="s">
         <v>55</v>
       </c>
       <c r="K27">
-        <v>12.84</v>
+        <v>12.43</v>
       </c>
       <c r="L27" t="s">
         <v>53</v>
@@ -3206,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="R27">
         <v>406123550928</v>
       </c>
       <c r="S27">
-        <v>10074424185602</v>
+        <v>10074983696206</v>
       </c>
       <c r="T27" t="s">
         <v>63</v>
@@ -3224,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <v>15.47</v>
+        <v>14.99</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -3242,7 +3369,7 @@
         <v>-0.36</v>
       </c>
       <c r="AC27">
-        <v>-2.21</v>
+        <v>-2.14</v>
       </c>
       <c r="AD27">
         <v>-0.06</v>
@@ -3257,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>15.47</v>
+        <v>14.99</v>
       </c>
       <c r="AI27" t="s">
         <v>53</v>
@@ -3274,22 +3401,22 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G28" t="s">
         <v>0</v>
@@ -3304,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>-1.67</v>
+        <v>-1.54</v>
       </c>
       <c r="L28" t="s">
         <v>53</v>
@@ -3373,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>-1.67</v>
+        <v>-1.54</v>
       </c>
       <c r="AI28" t="s">
         <v>53</v>
@@ -3382,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="AK28" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AL28" t="s">
         <v>107</v>
@@ -3390,37 +3517,37 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I29" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="J29" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>-1.67</v>
+        <v>13.28</v>
       </c>
       <c r="L29" t="s">
         <v>53</v>
@@ -3438,27 +3565,27 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="R29">
         <v>406123550928</v>
       </c>
-      <c r="S29" t="s">
-        <v>0</v>
+      <c r="S29">
+        <v>10074878615812</v>
       </c>
       <c r="T29" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U29" t="s">
-        <v>0</v>
-      </c>
-      <c r="V29" t="s">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s">
-        <v>0</v>
-      </c>
-      <c r="X29" t="s">
+        <v>64</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>15.99</v>
+      </c>
+      <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29" t="s">
@@ -3470,14 +3597,14 @@
       <c r="AA29" s="2">
         <v>0</v>
       </c>
-      <c r="AB29" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>0</v>
+      <c r="AB29">
+        <v>-0.36</v>
+      </c>
+      <c r="AC29">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD29">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE29" t="s">
         <v>0</v>
@@ -3489,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>-1.67</v>
+        <v>15.99</v>
       </c>
       <c r="AI29" t="s">
         <v>53</v>
@@ -3498,30 +3625,30 @@
         <v>0</v>
       </c>
       <c r="AK29" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="G30" t="s">
         <v>0</v>
@@ -3536,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>-1.67</v>
+        <v>-1.54</v>
       </c>
       <c r="L30" t="s">
         <v>53</v>
@@ -3605,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>-1.67</v>
+        <v>-1.54</v>
       </c>
       <c r="AI30" t="s">
         <v>53</v>
@@ -3614,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="AL30" t="s">
         <v>107</v>
@@ -3622,37 +3749,37 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="H31" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="J31" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>-11.77</v>
+        <v>13.28</v>
       </c>
       <c r="L31" t="s">
         <v>53</v>
@@ -3670,27 +3797,27 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="R31">
-        <v>406115942395</v>
-      </c>
-      <c r="S31" t="s">
-        <v>0</v>
+        <v>406123550928</v>
+      </c>
+      <c r="S31">
+        <v>10074728166404</v>
       </c>
       <c r="T31" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U31" t="s">
-        <v>0</v>
-      </c>
-      <c r="V31" t="s">
-        <v>0</v>
-      </c>
-      <c r="W31" t="s">
-        <v>0</v>
-      </c>
-      <c r="X31" t="s">
+        <v>64</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>15.99</v>
+      </c>
+      <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31" t="s">
@@ -3702,14 +3829,14 @@
       <c r="AA31" s="2">
         <v>0</v>
       </c>
-      <c r="AB31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>0</v>
+      <c r="AB31">
+        <v>-0.36</v>
+      </c>
+      <c r="AC31">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD31">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE31" t="s">
         <v>0</v>
@@ -3721,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>-11.77</v>
+        <v>15.99</v>
       </c>
       <c r="AI31" t="s">
         <v>53</v>
@@ -3730,45 +3857,45 @@
         <v>0</v>
       </c>
       <c r="AK31" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="J32" t="s">
         <v>55</v>
       </c>
       <c r="K32">
-        <v>12.84</v>
+        <v>28.05</v>
       </c>
       <c r="L32" t="s">
         <v>53</v>
@@ -3786,25 +3913,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="R32">
-        <v>406123550928</v>
+        <v>406137033081</v>
       </c>
       <c r="S32">
-        <v>10073945619225</v>
+        <v>10074371795205</v>
       </c>
       <c r="T32" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="U32" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>15.47</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -3822,10 +3949,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC32">
-        <v>-2.21</v>
+        <v>-4.75</v>
       </c>
       <c r="AD32">
-        <v>-0.06</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="AE32" t="s">
         <v>0</v>
@@ -3837,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="AH32">
-        <v>15.47</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="AI32" t="s">
         <v>53</v>
@@ -3854,37 +3981,37 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>66.58</v>
+        <v>-0.36</v>
       </c>
       <c r="L33" t="s">
         <v>53</v>
@@ -3902,27 +4029,27 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>406115942395</v>
-      </c>
-      <c r="S33">
-        <v>10074777307115</v>
+        <v>406142479393</v>
+      </c>
+      <c r="S33" t="s">
+        <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>136</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>78.47</v>
-      </c>
-      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="V33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
         <v>0</v>
       </c>
       <c r="Y33" t="s">
@@ -3934,27 +4061,27 @@
       <c r="AA33" s="2">
         <v>0</v>
       </c>
-      <c r="AB33">
+      <c r="AB33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH33">
         <v>-0.36</v>
       </c>
-      <c r="AC33">
-        <v>-11.21</v>
-      </c>
-      <c r="AD33">
-        <v>-0.32</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>78.47</v>
-      </c>
       <c r="AI33" t="s">
         <v>53</v>
       </c>
@@ -3962,45 +4089,45 @@
         <v>0</v>
       </c>
       <c r="AK33" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="AL33" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>12.84</v>
+        <v>-0.36</v>
       </c>
       <c r="L34" t="s">
         <v>53</v>
@@ -4018,27 +4145,27 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>406123550928</v>
-      </c>
-      <c r="S34">
-        <v>10074322117105</v>
+        <v>406142479393</v>
+      </c>
+      <c r="S34" t="s">
+        <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>64</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>15.47</v>
-      </c>
-      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
         <v>0</v>
       </c>
       <c r="Y34" t="s">
@@ -4050,27 +4177,27 @@
       <c r="AA34" s="2">
         <v>0</v>
       </c>
-      <c r="AB34">
+      <c r="AB34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH34">
         <v>-0.36</v>
       </c>
-      <c r="AC34">
-        <v>-2.21</v>
-      </c>
-      <c r="AD34">
-        <v>-0.06</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>15.47</v>
-      </c>
       <c r="AI34" t="s">
         <v>53</v>
       </c>
@@ -4078,45 +4205,45 @@
         <v>0</v>
       </c>
       <c r="AK34" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="AL34" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>12.84</v>
+        <v>-0.36</v>
       </c>
       <c r="L35" t="s">
         <v>53</v>
@@ -4134,27 +4261,27 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>406123550928</v>
-      </c>
-      <c r="S35">
-        <v>10074853635711</v>
+        <v>406142372232</v>
+      </c>
+      <c r="S35" t="s">
+        <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>64</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>15.47</v>
-      </c>
-      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="V35" t="s">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>0</v>
+      </c>
+      <c r="X35" t="s">
         <v>0</v>
       </c>
       <c r="Y35" t="s">
@@ -4166,27 +4293,27 @@
       <c r="AA35" s="2">
         <v>0</v>
       </c>
-      <c r="AB35">
+      <c r="AB35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH35">
         <v>-0.36</v>
       </c>
-      <c r="AC35">
-        <v>-2.21</v>
-      </c>
-      <c r="AD35">
-        <v>-0.06</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>15.47</v>
-      </c>
       <c r="AI35" t="s">
         <v>53</v>
       </c>
@@ -4194,15 +4321,15 @@
         <v>0</v>
       </c>
       <c r="AK35" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="AL35" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B36" t="s">
         <v>52</v>
@@ -4253,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>406137033081</v>
+        <v>406142372232</v>
       </c>
       <c r="S36" t="s">
         <v>0</v>
@@ -4310,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="AK36" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="AL36" t="s">
         <v>66</v>
@@ -4318,7 +4445,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
@@ -4369,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>406137004836</v>
+        <v>406142313893</v>
       </c>
       <c r="S37" t="s">
         <v>0</v>
@@ -4426,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="AK37" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AL37" t="s">
         <v>66</v>
@@ -4434,7 +4561,7 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
@@ -4485,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>406136806041</v>
+        <v>406142170274</v>
       </c>
       <c r="S38" t="s">
         <v>0</v>
@@ -4542,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="AK38" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="AL38" t="s">
         <v>66</v>
@@ -4550,37 +4677,37 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="H39" t="s">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>12.43</v>
+        <v>-0.36</v>
       </c>
       <c r="L39" t="s">
         <v>53</v>
@@ -4598,27 +4725,27 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>406123550928</v>
-      </c>
-      <c r="S39">
-        <v>10074787916610</v>
+        <v>406142024065</v>
+      </c>
+      <c r="S39" t="s">
+        <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>64</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>14.99</v>
-      </c>
-      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>0</v>
+      </c>
+      <c r="X39" t="s">
         <v>0</v>
       </c>
       <c r="Y39" t="s">
@@ -4630,27 +4757,27 @@
       <c r="AA39" s="2">
         <v>0</v>
       </c>
-      <c r="AB39">
+      <c r="AB39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH39">
         <v>-0.36</v>
       </c>
-      <c r="AC39">
-        <v>-2.14</v>
-      </c>
-      <c r="AD39">
-        <v>-0.06</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>14.99</v>
-      </c>
       <c r="AI39" t="s">
         <v>53</v>
       </c>
@@ -4658,126 +4785,2098 @@
         <v>0</v>
       </c>
       <c r="AK39" t="s">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AL39" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>-0.36</v>
+      </c>
+      <c r="L40" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>406141928658</v>
+      </c>
+      <c r="S40" t="s">
+        <v>0</v>
+      </c>
+      <c r="T40" t="s">
+        <v>0</v>
+      </c>
+      <c r="U40" t="s">
+        <v>0</v>
+      </c>
+      <c r="V40" t="s">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>0</v>
+      </c>
+      <c r="X40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>-0.36</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I40" t="s">
-        <v>102</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" t="s">
+        <v>177</v>
+      </c>
+      <c r="I41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J41" t="s">
         <v>55</v>
       </c>
-      <c r="K40">
-        <v>12.43</v>
-      </c>
-      <c r="L40" t="s">
-        <v>53</v>
-      </c>
-      <c r="M40" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>96</v>
-      </c>
-      <c r="R40">
+      <c r="K41">
+        <v>12.75</v>
+      </c>
+      <c r="L41" t="s">
+        <v>53</v>
+      </c>
+      <c r="M41" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>111</v>
+      </c>
+      <c r="R41">
+        <v>406136806041</v>
+      </c>
+      <c r="S41">
+        <v>10075024981703</v>
+      </c>
+      <c r="T41" t="s">
+        <v>179</v>
+      </c>
+      <c r="U41" t="s">
+        <v>180</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>15.15</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>-0.36</v>
+      </c>
+      <c r="AC41">
+        <v>-1.98</v>
+      </c>
+      <c r="AD41">
+        <v>-0.06</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>15.15</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>-0.36</v>
+      </c>
+      <c r="L42" t="s">
+        <v>53</v>
+      </c>
+      <c r="M42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>406141891482</v>
+      </c>
+      <c r="S42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U42" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>0</v>
+      </c>
+      <c r="X42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>-0.36</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>-1.67</v>
+      </c>
+      <c r="L43" t="s">
+        <v>53</v>
+      </c>
+      <c r="M43" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43">
         <v>406123550928</v>
       </c>
-      <c r="S40">
-        <v>10074983696206</v>
-      </c>
-      <c r="T40" t="s">
+      <c r="S43" t="s">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>0</v>
+      </c>
+      <c r="U43" t="s">
+        <v>0</v>
+      </c>
+      <c r="V43" t="s">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>0</v>
+      </c>
+      <c r="X43" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>-1.67</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" t="s">
+        <v>186</v>
+      </c>
+      <c r="H44" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" t="s">
+        <v>188</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44">
+        <v>12.84</v>
+      </c>
+      <c r="L44" t="s">
+        <v>53</v>
+      </c>
+      <c r="M44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>111</v>
+      </c>
+      <c r="R44">
+        <v>406123550928</v>
+      </c>
+      <c r="S44">
+        <v>10078330325327</v>
+      </c>
+      <c r="T44" t="s">
         <v>63</v>
       </c>
-      <c r="U40" t="s">
+      <c r="U44" t="s">
         <v>64</v>
       </c>
-      <c r="V40">
+      <c r="V44">
         <v>1</v>
       </c>
-      <c r="W40">
-        <v>14.99</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB40">
+      <c r="W44">
+        <v>15.47</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44">
         <v>-0.36</v>
       </c>
-      <c r="AC40">
-        <v>-2.14</v>
-      </c>
-      <c r="AD40">
+      <c r="AC44">
+        <v>-2.21</v>
+      </c>
+      <c r="AD44">
         <v>-0.06</v>
       </c>
-      <c r="AE40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>14.99</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>0</v>
+      <c r="AE44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>15.47</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>-1.67</v>
+      </c>
+      <c r="L45" t="s">
+        <v>53</v>
+      </c>
+      <c r="M45" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>406123550928</v>
+      </c>
+      <c r="S45" t="s">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>0</v>
+      </c>
+      <c r="U45" t="s">
+        <v>0</v>
+      </c>
+      <c r="V45" t="s">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>0</v>
+      </c>
+      <c r="X45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>-1.67</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" t="s">
+        <v>110</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46">
+        <v>12.84</v>
+      </c>
+      <c r="L46" t="s">
+        <v>53</v>
+      </c>
+      <c r="M46" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>111</v>
+      </c>
+      <c r="R46">
+        <v>406123550928</v>
+      </c>
+      <c r="S46">
+        <v>10074424185602</v>
+      </c>
+      <c r="T46" t="s">
+        <v>63</v>
+      </c>
+      <c r="U46" t="s">
+        <v>64</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>15.47</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>-0.36</v>
+      </c>
+      <c r="AC46">
+        <v>-2.21</v>
+      </c>
+      <c r="AD46">
+        <v>-0.06</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>15.47</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>-1.67</v>
+      </c>
+      <c r="L47" t="s">
+        <v>53</v>
+      </c>
+      <c r="M47" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>406123550928</v>
+      </c>
+      <c r="S47" t="s">
+        <v>0</v>
+      </c>
+      <c r="T47" t="s">
+        <v>0</v>
+      </c>
+      <c r="U47" t="s">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>-1.67</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>-1.67</v>
+      </c>
+      <c r="L48" t="s">
+        <v>53</v>
+      </c>
+      <c r="M48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>406123550928</v>
+      </c>
+      <c r="S48" t="s">
+        <v>0</v>
+      </c>
+      <c r="T48" t="s">
+        <v>0</v>
+      </c>
+      <c r="U48" t="s">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>-1.67</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>-1.67</v>
+      </c>
+      <c r="L49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M49" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>406123550928</v>
+      </c>
+      <c r="S49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" t="s">
+        <v>0</v>
+      </c>
+      <c r="U49" t="s">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>0</v>
+      </c>
+      <c r="X49" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>-1.67</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>-11.77</v>
+      </c>
+      <c r="L50" t="s">
+        <v>53</v>
+      </c>
+      <c r="M50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>406115942395</v>
+      </c>
+      <c r="S50" t="s">
+        <v>0</v>
+      </c>
+      <c r="T50" t="s">
+        <v>0</v>
+      </c>
+      <c r="U50" t="s">
+        <v>0</v>
+      </c>
+      <c r="V50" t="s">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>0</v>
+      </c>
+      <c r="X50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>-11.77</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51" t="s">
+        <v>130</v>
+      </c>
+      <c r="J51" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51">
+        <v>12.84</v>
+      </c>
+      <c r="L51" t="s">
+        <v>53</v>
+      </c>
+      <c r="M51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>131</v>
+      </c>
+      <c r="R51">
+        <v>406123550928</v>
+      </c>
+      <c r="S51">
+        <v>10073945619225</v>
+      </c>
+      <c r="T51" t="s">
+        <v>63</v>
+      </c>
+      <c r="U51" t="s">
+        <v>64</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>15.47</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>-0.36</v>
+      </c>
+      <c r="AC51">
+        <v>-2.21</v>
+      </c>
+      <c r="AD51">
+        <v>-0.06</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>15.47</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52" t="s">
+        <v>134</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52">
+        <v>66.58</v>
+      </c>
+      <c r="L52" t="s">
+        <v>53</v>
+      </c>
+      <c r="M52" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>131</v>
+      </c>
+      <c r="R52">
+        <v>406115942395</v>
+      </c>
+      <c r="S52">
+        <v>10074777307115</v>
+      </c>
+      <c r="T52" t="s">
+        <v>135</v>
+      </c>
+      <c r="U52" t="s">
+        <v>136</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>78.47</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>-0.36</v>
+      </c>
+      <c r="AC52">
+        <v>-11.21</v>
+      </c>
+      <c r="AD52">
+        <v>-0.32</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>78.47</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53" t="s">
+        <v>138</v>
+      </c>
+      <c r="J53" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53">
+        <v>12.84</v>
+      </c>
+      <c r="L53" t="s">
+        <v>53</v>
+      </c>
+      <c r="M53" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>131</v>
+      </c>
+      <c r="R53">
+        <v>406123550928</v>
+      </c>
+      <c r="S53">
+        <v>10074322117105</v>
+      </c>
+      <c r="T53" t="s">
+        <v>63</v>
+      </c>
+      <c r="U53" t="s">
+        <v>64</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>15.47</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>-0.36</v>
+      </c>
+      <c r="AC53">
+        <v>-2.21</v>
+      </c>
+      <c r="AD53">
+        <v>-0.06</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>15.47</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" t="s">
+        <v>141</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54">
+        <v>12.84</v>
+      </c>
+      <c r="L54" t="s">
+        <v>53</v>
+      </c>
+      <c r="M54" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>131</v>
+      </c>
+      <c r="R54">
+        <v>406123550928</v>
+      </c>
+      <c r="S54">
+        <v>10074853635711</v>
+      </c>
+      <c r="T54" t="s">
+        <v>63</v>
+      </c>
+      <c r="U54" t="s">
+        <v>64</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>15.47</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>-0.36</v>
+      </c>
+      <c r="AC54">
+        <v>-2.21</v>
+      </c>
+      <c r="AD54">
+        <v>-0.06</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>15.47</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>-0.36</v>
+      </c>
+      <c r="L55" t="s">
+        <v>53</v>
+      </c>
+      <c r="M55" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>406137033081</v>
+      </c>
+      <c r="S55" t="s">
+        <v>0</v>
+      </c>
+      <c r="T55" t="s">
+        <v>0</v>
+      </c>
+      <c r="U55" t="s">
+        <v>0</v>
+      </c>
+      <c r="V55" t="s">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>-0.36</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>-0.36</v>
+      </c>
+      <c r="L56" t="s">
+        <v>53</v>
+      </c>
+      <c r="M56" t="s">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>406137004836</v>
+      </c>
+      <c r="S56" t="s">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>0</v>
+      </c>
+      <c r="U56" t="s">
+        <v>0</v>
+      </c>
+      <c r="V56" t="s">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>-0.36</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>-0.36</v>
+      </c>
+      <c r="L57" t="s">
+        <v>53</v>
+      </c>
+      <c r="M57" t="s">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>406136806041</v>
+      </c>
+      <c r="S57" t="s">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>0</v>
+      </c>
+      <c r="U57" t="s">
+        <v>0</v>
+      </c>
+      <c r="V57" t="s">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>0</v>
+      </c>
+      <c r="X57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>-0.36</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Sales Data/Toonwear.xlsx
+++ b/Raw Sales Data/Toonwear.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\email\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
   </bookViews>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="224">
   <si>
     <t>--</t>
   </si>
@@ -598,6 +603,111 @@
   </si>
   <si>
     <t>YO19 6JD</t>
+  </si>
+  <si>
+    <t>27-13448-71241</t>
+  </si>
+  <si>
+    <t>tracyandfamily-2008</t>
+  </si>
+  <si>
+    <t>tracy warner</t>
+  </si>
+  <si>
+    <t>FEE-7339115612711_11</t>
+  </si>
+  <si>
+    <t>middlewich</t>
+  </si>
+  <si>
+    <t>cw10 0dl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funds on hold. Estimated release on 3 Sep. </t>
+  </si>
+  <si>
+    <t>08-13473-43436</t>
+  </si>
+  <si>
+    <t>mcman58</t>
+  </si>
+  <si>
+    <t>I. McNulty</t>
+  </si>
+  <si>
+    <t>FEE-7338934206811_11</t>
+  </si>
+  <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Middlesex</t>
+  </si>
+  <si>
+    <t>TW15 3BY</t>
+  </si>
+  <si>
+    <t>20-13457-15364</t>
+  </si>
+  <si>
+    <t>squaddie1532</t>
+  </si>
+  <si>
+    <t>jason cook</t>
+  </si>
+  <si>
+    <t>FEE-7338784071411_11</t>
+  </si>
+  <si>
+    <t>barnsley</t>
+  </si>
+  <si>
+    <t>South Yorkshire</t>
+  </si>
+  <si>
+    <t>s755gr</t>
+  </si>
+  <si>
+    <t>FEE-7338685249111_11</t>
+  </si>
+  <si>
+    <t>10-13470-09876</t>
+  </si>
+  <si>
+    <t>geeza0709</t>
+  </si>
+  <si>
+    <t>Geoff London</t>
+  </si>
+  <si>
+    <t>FEE-7338591022811_11</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>M40 7WU</t>
+  </si>
+  <si>
+    <t>FEE-7338136153511_11</t>
+  </si>
+  <si>
+    <t>FEE-7338026089511_11</t>
+  </si>
+  <si>
+    <t>FEE-7338026087911_11</t>
+  </si>
+  <si>
+    <t>FEE-7338024539611_11</t>
+  </si>
+  <si>
+    <t>FEE-7337981974211_11</t>
+  </si>
+  <si>
+    <t>FEE-7337979447611_11</t>
+  </si>
+  <si>
+    <t>FEE-7337503973211_11</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1406,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL57"/>
+  <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,22 +3511,22 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45887</v>
+        <v>45886</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
         <v>0</v>
@@ -3431,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>-1.54</v>
+        <v>-1.67</v>
       </c>
       <c r="L28" t="s">
         <v>53</v>
@@ -3500,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>-1.54</v>
+        <v>-1.67</v>
       </c>
       <c r="AI28" t="s">
         <v>53</v>
@@ -3509,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="AK28" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="AL28" t="s">
         <v>107</v>
@@ -3517,37 +3627,37 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45887</v>
+        <v>45886</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="G29" t="s">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>13.28</v>
+        <v>-1.67</v>
       </c>
       <c r="L29" t="s">
         <v>53</v>
@@ -3565,27 +3675,27 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>406123550928</v>
       </c>
-      <c r="S29">
-        <v>10074878615812</v>
+      <c r="S29" t="s">
+        <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>15.99</v>
-      </c>
-      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
         <v>0</v>
       </c>
       <c r="Y29" t="s">
@@ -3597,14 +3707,14 @@
       <c r="AA29" s="2">
         <v>0</v>
       </c>
-      <c r="AB29">
-        <v>-0.36</v>
-      </c>
-      <c r="AC29">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="AD29">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>0</v>
       </c>
       <c r="AE29" t="s">
         <v>0</v>
@@ -3616,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>15.99</v>
+        <v>-1.67</v>
       </c>
       <c r="AI29" t="s">
         <v>53</v>
@@ -3625,30 +3735,30 @@
         <v>0</v>
       </c>
       <c r="AK29" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AL29" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45887</v>
+        <v>45886</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="G30" t="s">
         <v>0</v>
@@ -3663,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>-1.54</v>
+        <v>-1.67</v>
       </c>
       <c r="L30" t="s">
         <v>53</v>
@@ -3732,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>-1.54</v>
+        <v>-1.67</v>
       </c>
       <c r="AI30" t="s">
         <v>53</v>
@@ -3741,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="AL30" t="s">
         <v>107</v>
@@ -3749,37 +3859,37 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45887</v>
+        <v>45886</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>13.28</v>
+        <v>-11.77</v>
       </c>
       <c r="L31" t="s">
         <v>53</v>
@@ -3797,27 +3907,27 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>406123550928</v>
-      </c>
-      <c r="S31">
-        <v>10074728166404</v>
+        <v>406115942395</v>
+      </c>
+      <c r="S31" t="s">
+        <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>64</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>15.99</v>
-      </c>
-      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
         <v>0</v>
       </c>
       <c r="Y31" t="s">
@@ -3829,14 +3939,14 @@
       <c r="AA31" s="2">
         <v>0</v>
       </c>
-      <c r="AB31">
-        <v>-0.36</v>
-      </c>
-      <c r="AC31">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="AD31">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>0</v>
       </c>
       <c r="AE31" t="s">
         <v>0</v>
@@ -3848,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>15.99</v>
+        <v>-11.77</v>
       </c>
       <c r="AI31" t="s">
         <v>53</v>
@@ -3857,45 +3967,45 @@
         <v>0</v>
       </c>
       <c r="AK31" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AL31" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="I32" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="J32" t="s">
         <v>55</v>
       </c>
       <c r="K32">
-        <v>28.05</v>
+        <v>12.84</v>
       </c>
       <c r="L32" t="s">
         <v>53</v>
@@ -3913,25 +4023,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="R32">
-        <v>406137033081</v>
+        <v>406123550928</v>
       </c>
       <c r="S32">
-        <v>10074371795205</v>
+        <v>10073945619225</v>
       </c>
       <c r="T32" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="U32" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W32">
-        <v>33.299999999999997</v>
+        <v>15.47</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -3949,10 +4059,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC32">
-        <v>-4.75</v>
+        <v>-2.21</v>
       </c>
       <c r="AD32">
-        <v>-0.14000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="AE32" t="s">
         <v>0</v>
@@ -3964,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="AH32">
-        <v>33.299999999999997</v>
+        <v>15.47</v>
       </c>
       <c r="AI32" t="s">
         <v>53</v>
@@ -3981,94 +4091,94 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="H33" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="I33" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J33" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K33">
+        <v>66.58</v>
+      </c>
+      <c r="L33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>131</v>
+      </c>
+      <c r="R33">
+        <v>406115942395</v>
+      </c>
+      <c r="S33">
+        <v>10074777307115</v>
+      </c>
+      <c r="T33" t="s">
+        <v>135</v>
+      </c>
+      <c r="U33" t="s">
+        <v>136</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>78.47</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33">
         <v>-0.36</v>
       </c>
-      <c r="L33" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>406142479393</v>
-      </c>
-      <c r="S33" t="s">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
-        <v>0</v>
-      </c>
-      <c r="U33" t="s">
-        <v>0</v>
-      </c>
-      <c r="V33" t="s">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
-        <v>0</v>
-      </c>
-      <c r="X33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>0</v>
+      <c r="AC33">
+        <v>-11.21</v>
+      </c>
+      <c r="AD33">
+        <v>-0.32</v>
       </c>
       <c r="AE33" t="s">
         <v>0</v>
@@ -4080,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>-0.36</v>
+        <v>78.47</v>
       </c>
       <c r="AI33" t="s">
         <v>53</v>
@@ -4089,102 +4199,102 @@
         <v>0</v>
       </c>
       <c r="AK33" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="H34" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J34" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K34">
+        <v>12.84</v>
+      </c>
+      <c r="L34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>131</v>
+      </c>
+      <c r="R34">
+        <v>406123550928</v>
+      </c>
+      <c r="S34">
+        <v>10074322117105</v>
+      </c>
+      <c r="T34" t="s">
+        <v>63</v>
+      </c>
+      <c r="U34" t="s">
+        <v>64</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>15.47</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34">
         <v>-0.36</v>
       </c>
-      <c r="L34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P34" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>406142479393</v>
-      </c>
-      <c r="S34" t="s">
-        <v>0</v>
-      </c>
-      <c r="T34" t="s">
-        <v>0</v>
-      </c>
-      <c r="U34" t="s">
-        <v>0</v>
-      </c>
-      <c r="V34" t="s">
-        <v>0</v>
-      </c>
-      <c r="W34" t="s">
-        <v>0</v>
-      </c>
-      <c r="X34" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>0</v>
+      <c r="AC34">
+        <v>-2.21</v>
+      </c>
+      <c r="AD34">
+        <v>-0.06</v>
       </c>
       <c r="AE34" t="s">
         <v>0</v>
@@ -4196,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>-0.36</v>
+        <v>15.47</v>
       </c>
       <c r="AI34" t="s">
         <v>53</v>
@@ -4205,102 +4315,102 @@
         <v>0</v>
       </c>
       <c r="AK34" t="s">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G35" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="H35" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J35" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K35">
+        <v>12.84</v>
+      </c>
+      <c r="L35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>131</v>
+      </c>
+      <c r="R35">
+        <v>406123550928</v>
+      </c>
+      <c r="S35">
+        <v>10074853635711</v>
+      </c>
+      <c r="T35" t="s">
+        <v>63</v>
+      </c>
+      <c r="U35" t="s">
+        <v>64</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>15.47</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35">
         <v>-0.36</v>
       </c>
-      <c r="L35" t="s">
-        <v>53</v>
-      </c>
-      <c r="M35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>406142372232</v>
-      </c>
-      <c r="S35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>0</v>
+      <c r="AC35">
+        <v>-2.21</v>
+      </c>
+      <c r="AD35">
+        <v>-0.06</v>
       </c>
       <c r="AE35" t="s">
         <v>0</v>
@@ -4312,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>-0.36</v>
+        <v>15.47</v>
       </c>
       <c r="AI35" t="s">
         <v>53</v>
@@ -4321,15 +4431,15 @@
         <v>0</v>
       </c>
       <c r="AK35" t="s">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="B36" t="s">
         <v>52</v>
@@ -4380,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>406142372232</v>
+        <v>406137033081</v>
       </c>
       <c r="S36" t="s">
         <v>0</v>
@@ -4437,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="AK36" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="AL36" t="s">
         <v>66</v>
@@ -4445,7 +4555,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
@@ -4496,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>406142313893</v>
+        <v>406137004836</v>
       </c>
       <c r="S37" t="s">
         <v>0</v>
@@ -4553,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="AK37" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="AL37" t="s">
         <v>66</v>
@@ -4561,7 +4671,7 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
@@ -4612,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>406142170274</v>
+        <v>406136806041</v>
       </c>
       <c r="S38" t="s">
         <v>0</v>
@@ -4669,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="AK38" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="AL38" t="s">
         <v>66</v>
@@ -4677,22 +4787,22 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B39" t="s">
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="G39" t="s">
         <v>0</v>
@@ -4707,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>-0.36</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="L39" t="s">
         <v>53</v>
@@ -4728,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="R39">
-        <v>406142024065</v>
+        <v>406137033081</v>
       </c>
       <c r="S39" t="s">
         <v>0</v>
@@ -4776,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>-0.36</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="AI39" t="s">
         <v>53</v>
@@ -4785,102 +4895,102 @@
         <v>0</v>
       </c>
       <c r="AK39" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="AL39" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="E40" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F40" t="s">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="G40" t="s">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="H40" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J40" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K40">
+        <v>14.14</v>
+      </c>
+      <c r="L40" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>195</v>
+      </c>
+      <c r="R40">
+        <v>406137033081</v>
+      </c>
+      <c r="S40">
+        <v>10078372367827</v>
+      </c>
+      <c r="T40" t="s">
+        <v>163</v>
+      </c>
+      <c r="U40" t="s">
+        <v>164</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40">
         <v>-0.36</v>
       </c>
-      <c r="L40" t="s">
-        <v>53</v>
-      </c>
-      <c r="M40" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>406141928658</v>
-      </c>
-      <c r="S40" t="s">
-        <v>0</v>
-      </c>
-      <c r="T40" t="s">
-        <v>0</v>
-      </c>
-      <c r="U40" t="s">
-        <v>0</v>
-      </c>
-      <c r="V40" t="s">
-        <v>0</v>
-      </c>
-      <c r="W40" t="s">
-        <v>0</v>
-      </c>
-      <c r="X40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>0</v>
+      <c r="AC40">
+        <v>-2.42</v>
+      </c>
+      <c r="AD40">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE40" t="s">
         <v>0</v>
@@ -4892,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>-0.36</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="AI40" t="s">
         <v>53</v>
@@ -4901,45 +5011,45 @@
         <v>0</v>
       </c>
       <c r="AK40" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F41" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G41" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>12.75</v>
+        <v>-2.38</v>
       </c>
       <c r="L41" t="s">
         <v>53</v>
@@ -4957,27 +5067,27 @@
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>406136806041</v>
-      </c>
-      <c r="S41">
-        <v>10075024981703</v>
+        <v>406123550928</v>
+      </c>
+      <c r="S41" t="s">
+        <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>180</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>15.15</v>
-      </c>
-      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>0</v>
+      </c>
+      <c r="X41" t="s">
         <v>0</v>
       </c>
       <c r="Y41" t="s">
@@ -4989,14 +5099,14 @@
       <c r="AA41" s="2">
         <v>0</v>
       </c>
-      <c r="AB41">
-        <v>-0.36</v>
-      </c>
-      <c r="AC41">
-        <v>-1.98</v>
-      </c>
-      <c r="AD41">
-        <v>-0.06</v>
+      <c r="AB41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>0</v>
       </c>
       <c r="AE41" t="s">
         <v>0</v>
@@ -5008,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>15.15</v>
+        <v>-2.38</v>
       </c>
       <c r="AI41" t="s">
         <v>53</v>
@@ -5017,102 +5127,102 @@
         <v>0</v>
       </c>
       <c r="AK41" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="AL41" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="D42" t="s">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="E42" t="s">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="F42" t="s">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="G42" t="s">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="I42" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="J42" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K42">
+        <v>13.28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>53</v>
+      </c>
+      <c r="M42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>195</v>
+      </c>
+      <c r="R42">
+        <v>406123550928</v>
+      </c>
+      <c r="S42">
+        <v>10074238395508</v>
+      </c>
+      <c r="T42" t="s">
+        <v>63</v>
+      </c>
+      <c r="U42" t="s">
+        <v>64</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>15.99</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42">
         <v>-0.36</v>
       </c>
-      <c r="L42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M42" t="s">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
-        <v>0</v>
-      </c>
-      <c r="O42" t="s">
-        <v>0</v>
-      </c>
-      <c r="P42" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>406141891482</v>
-      </c>
-      <c r="S42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T42" t="s">
-        <v>0</v>
-      </c>
-      <c r="U42" t="s">
-        <v>0</v>
-      </c>
-      <c r="V42" t="s">
-        <v>0</v>
-      </c>
-      <c r="W42" t="s">
-        <v>0</v>
-      </c>
-      <c r="X42" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>0</v>
+      <c r="AC42">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD42">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE42" t="s">
         <v>0</v>
@@ -5124,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="AH42">
-        <v>-0.36</v>
+        <v>15.99</v>
       </c>
       <c r="AI42" t="s">
         <v>53</v>
@@ -5133,30 +5243,30 @@
         <v>0</v>
       </c>
       <c r="AK42" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G43" t="s">
         <v>0</v>
@@ -5171,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>-1.67</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="L43" t="s">
         <v>53</v>
@@ -5240,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>-1.67</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="AI43" t="s">
         <v>53</v>
@@ -5249,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AK43" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="AL43" t="s">
         <v>107</v>
@@ -5257,37 +5367,37 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F44" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="H44" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="I44" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J44" t="s">
         <v>55</v>
       </c>
       <c r="K44">
-        <v>12.84</v>
+        <v>12.6</v>
       </c>
       <c r="L44" t="s">
         <v>53</v>
@@ -5305,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="R44">
         <v>406123550928</v>
       </c>
       <c r="S44">
-        <v>10078330325327</v>
+        <v>10074173824220</v>
       </c>
       <c r="T44" t="s">
         <v>63</v>
@@ -5323,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="W44">
-        <v>15.47</v>
+        <v>15.19</v>
       </c>
       <c r="X44">
         <v>0</v>
@@ -5341,7 +5451,7 @@
         <v>-0.36</v>
       </c>
       <c r="AC44">
-        <v>-2.21</v>
+        <v>-2.17</v>
       </c>
       <c r="AD44">
         <v>-0.06</v>
@@ -5356,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>15.47</v>
+        <v>15.19</v>
       </c>
       <c r="AI44" t="s">
         <v>53</v>
@@ -5373,22 +5483,22 @@
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B45" t="s">
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="F45" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="G45" t="s">
         <v>0</v>
@@ -5403,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>-1.67</v>
+        <v>-4.96</v>
       </c>
       <c r="L45" t="s">
         <v>53</v>
@@ -5424,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>406123550928</v>
+        <v>406137033081</v>
       </c>
       <c r="S45" t="s">
         <v>0</v>
@@ -5472,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>-1.67</v>
+        <v>-4.96</v>
       </c>
       <c r="AI45" t="s">
         <v>53</v>
@@ -5481,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="AK45" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="AL45" t="s">
         <v>107</v>
@@ -5489,37 +5599,37 @@
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>12.84</v>
+        <v>-12.54</v>
       </c>
       <c r="L46" t="s">
         <v>53</v>
@@ -5537,27 +5647,27 @@
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>406123550928</v>
-      </c>
-      <c r="S46">
-        <v>10074424185602</v>
+        <v>406142372232</v>
+      </c>
+      <c r="S46" t="s">
+        <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>64</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>15.47</v>
-      </c>
-      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="V46" t="s">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>0</v>
+      </c>
+      <c r="X46" t="s">
         <v>0</v>
       </c>
       <c r="Y46" t="s">
@@ -5569,14 +5679,14 @@
       <c r="AA46" s="2">
         <v>0</v>
       </c>
-      <c r="AB46">
-        <v>-0.36</v>
-      </c>
-      <c r="AC46">
-        <v>-2.21</v>
-      </c>
-      <c r="AD46">
-        <v>-0.06</v>
+      <c r="AB46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>0</v>
       </c>
       <c r="AE46" t="s">
         <v>0</v>
@@ -5588,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>15.47</v>
+        <v>-12.54</v>
       </c>
       <c r="AI46" t="s">
         <v>53</v>
@@ -5597,45 +5707,45 @@
         <v>0</v>
       </c>
       <c r="AK46" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="AL46" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="G47" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="H47" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="I47" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="J47" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K47">
-        <v>-1.67</v>
+        <v>66.17</v>
       </c>
       <c r="L47" t="s">
         <v>53</v>
@@ -5653,27 +5763,27 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="R47">
-        <v>406123550928</v>
-      </c>
-      <c r="S47" t="s">
-        <v>0</v>
+        <v>406142372232</v>
+      </c>
+      <c r="S47">
+        <v>10074888146710</v>
       </c>
       <c r="T47" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="U47" t="s">
-        <v>0</v>
-      </c>
-      <c r="V47" t="s">
-        <v>0</v>
-      </c>
-      <c r="W47" t="s">
-        <v>0</v>
-      </c>
-      <c r="X47" t="s">
+        <v>136</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="X47">
         <v>0</v>
       </c>
       <c r="Y47" t="s">
@@ -5685,14 +5795,14 @@
       <c r="AA47" s="2">
         <v>0</v>
       </c>
-      <c r="AB47" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>0</v>
+      <c r="AB47">
+        <v>-0.36</v>
+      </c>
+      <c r="AC47">
+        <v>-11.14</v>
+      </c>
+      <c r="AD47">
+        <v>-0.32</v>
       </c>
       <c r="AE47" t="s">
         <v>0</v>
@@ -5704,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="AH47">
-        <v>-1.67</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="AI47" t="s">
         <v>53</v>
@@ -5713,30 +5823,30 @@
         <v>0</v>
       </c>
       <c r="AK47" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
         <v>0</v>
@@ -5751,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>-1.67</v>
+        <v>-0.36</v>
       </c>
       <c r="L48" t="s">
         <v>53</v>
@@ -5772,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>406123550928</v>
+        <v>406145083503</v>
       </c>
       <c r="S48" t="s">
         <v>0</v>
@@ -5820,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AH48">
-        <v>-1.67</v>
+        <v>-0.36</v>
       </c>
       <c r="AI48" t="s">
         <v>53</v>
@@ -5829,30 +5939,30 @@
         <v>0</v>
       </c>
       <c r="AK48" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="AL48" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
         <v>0</v>
@@ -5867,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>-1.67</v>
+        <v>-0.36</v>
       </c>
       <c r="L49" t="s">
         <v>53</v>
@@ -5888,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>406123550928</v>
+        <v>406144919691</v>
       </c>
       <c r="S49" t="s">
         <v>0</v>
@@ -5936,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="AH49">
-        <v>-1.67</v>
+        <v>-0.36</v>
       </c>
       <c r="AI49" t="s">
         <v>53</v>
@@ -5945,30 +6055,30 @@
         <v>0</v>
       </c>
       <c r="AK49" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="AL49" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
         <v>0</v>
@@ -5983,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>-11.77</v>
+        <v>-0.36</v>
       </c>
       <c r="L50" t="s">
         <v>53</v>
@@ -6004,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>406115942395</v>
+        <v>406144919691</v>
       </c>
       <c r="S50" t="s">
         <v>0</v>
@@ -6052,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="AH50">
-        <v>-11.77</v>
+        <v>-0.36</v>
       </c>
       <c r="AI50" t="s">
         <v>53</v>
@@ -6061,45 +6171,45 @@
         <v>0</v>
       </c>
       <c r="AK50" t="s">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="AL50" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45885</v>
+        <v>45888</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>12.84</v>
+        <v>-0.36</v>
       </c>
       <c r="L51" t="s">
         <v>53</v>
@@ -6117,27 +6227,27 @@
         <v>0</v>
       </c>
       <c r="Q51" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>406123550928</v>
-      </c>
-      <c r="S51">
-        <v>10073945619225</v>
+        <v>406144918827</v>
+      </c>
+      <c r="S51" t="s">
+        <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>64</v>
-      </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>15.47</v>
-      </c>
-      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>0</v>
+      </c>
+      <c r="X51" t="s">
         <v>0</v>
       </c>
       <c r="Y51" t="s">
@@ -6149,27 +6259,27 @@
       <c r="AA51" s="2">
         <v>0</v>
       </c>
-      <c r="AB51">
+      <c r="AB51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH51">
         <v>-0.36</v>
       </c>
-      <c r="AC51">
-        <v>-2.21</v>
-      </c>
-      <c r="AD51">
-        <v>-0.06</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>15.47</v>
-      </c>
       <c r="AI51" t="s">
         <v>53</v>
       </c>
@@ -6177,45 +6287,45 @@
         <v>0</v>
       </c>
       <c r="AK51" t="s">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AL51" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45885</v>
+        <v>45888</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>66.58</v>
+        <v>-0.36</v>
       </c>
       <c r="L52" t="s">
         <v>53</v>
@@ -6233,27 +6343,27 @@
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>406115942395</v>
-      </c>
-      <c r="S52">
-        <v>10074777307115</v>
+        <v>406144852286</v>
+      </c>
+      <c r="S52" t="s">
+        <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>136</v>
-      </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52">
-        <v>78.47</v>
-      </c>
-      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
         <v>0</v>
       </c>
       <c r="Y52" t="s">
@@ -6265,27 +6375,27 @@
       <c r="AA52" s="2">
         <v>0</v>
       </c>
-      <c r="AB52">
+      <c r="AB52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH52">
         <v>-0.36</v>
       </c>
-      <c r="AC52">
-        <v>-11.21</v>
-      </c>
-      <c r="AD52">
-        <v>-0.32</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>78.47</v>
-      </c>
       <c r="AI52" t="s">
         <v>53</v>
       </c>
@@ -6293,45 +6403,45 @@
         <v>0</v>
       </c>
       <c r="AK52" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="AL52" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45885</v>
+        <v>45888</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>12.84</v>
+        <v>-0.36</v>
       </c>
       <c r="L53" t="s">
         <v>53</v>
@@ -6349,27 +6459,27 @@
         <v>0</v>
       </c>
       <c r="Q53" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>406123550928</v>
-      </c>
-      <c r="S53">
-        <v>10074322117105</v>
+        <v>406144838249</v>
+      </c>
+      <c r="S53" t="s">
+        <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>64</v>
-      </c>
-      <c r="V53">
-        <v>1</v>
-      </c>
-      <c r="W53">
-        <v>15.47</v>
-      </c>
-      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="V53" t="s">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>0</v>
+      </c>
+      <c r="X53" t="s">
         <v>0</v>
       </c>
       <c r="Y53" t="s">
@@ -6381,27 +6491,27 @@
       <c r="AA53" s="2">
         <v>0</v>
       </c>
-      <c r="AB53">
+      <c r="AB53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH53">
         <v>-0.36</v>
       </c>
-      <c r="AC53">
-        <v>-2.21</v>
-      </c>
-      <c r="AD53">
-        <v>-0.06</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>15.47</v>
-      </c>
       <c r="AI53" t="s">
         <v>53</v>
       </c>
@@ -6409,45 +6519,45 @@
         <v>0</v>
       </c>
       <c r="AK53" t="s">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="AL53" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45885</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>12.84</v>
+        <v>-0.36</v>
       </c>
       <c r="L54" t="s">
         <v>53</v>
@@ -6465,27 +6575,27 @@
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>406123550928</v>
-      </c>
-      <c r="S54">
-        <v>10074853635711</v>
+        <v>406137004836</v>
+      </c>
+      <c r="S54" t="s">
+        <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>64</v>
-      </c>
-      <c r="V54">
-        <v>1</v>
-      </c>
-      <c r="W54">
-        <v>15.47</v>
-      </c>
-      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="V54" t="s">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>0</v>
+      </c>
+      <c r="X54" t="s">
         <v>0</v>
       </c>
       <c r="Y54" t="s">
@@ -6497,27 +6607,27 @@
       <c r="AA54" s="2">
         <v>0</v>
       </c>
-      <c r="AB54">
+      <c r="AB54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH54">
         <v>-0.36</v>
       </c>
-      <c r="AC54">
-        <v>-2.21</v>
-      </c>
-      <c r="AD54">
-        <v>-0.06</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>15.47</v>
-      </c>
       <c r="AI54" t="s">
         <v>53</v>
       </c>
@@ -6525,30 +6635,30 @@
         <v>0</v>
       </c>
       <c r="AK54" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="AL54" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B55" t="s">
         <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="F55" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="G55" t="s">
         <v>0</v>
@@ -6563,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>-0.36</v>
+        <v>-1.54</v>
       </c>
       <c r="L55" t="s">
         <v>53</v>
@@ -6584,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>406137033081</v>
+        <v>406123550928</v>
       </c>
       <c r="S55" t="s">
         <v>0</v>
@@ -6632,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <v>-0.36</v>
+        <v>-1.54</v>
       </c>
       <c r="AI55" t="s">
         <v>53</v>
@@ -6641,102 +6751,102 @@
         <v>0</v>
       </c>
       <c r="AK55" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AL55" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E56" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="F56" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="G56" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="H56" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I56" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="J56" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K56">
+        <v>13.28</v>
+      </c>
+      <c r="L56" t="s">
+        <v>53</v>
+      </c>
+      <c r="M56" t="s">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>111</v>
+      </c>
+      <c r="R56">
+        <v>406123550928</v>
+      </c>
+      <c r="S56">
+        <v>10074878615812</v>
+      </c>
+      <c r="T56" t="s">
+        <v>63</v>
+      </c>
+      <c r="U56" t="s">
+        <v>64</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>15.99</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB56">
         <v>-0.36</v>
       </c>
-      <c r="L56" t="s">
-        <v>53</v>
-      </c>
-      <c r="M56" t="s">
-        <v>0</v>
-      </c>
-      <c r="N56" t="s">
-        <v>0</v>
-      </c>
-      <c r="O56" t="s">
-        <v>0</v>
-      </c>
-      <c r="P56" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>406137004836</v>
-      </c>
-      <c r="S56" t="s">
-        <v>0</v>
-      </c>
-      <c r="T56" t="s">
-        <v>0</v>
-      </c>
-      <c r="U56" t="s">
-        <v>0</v>
-      </c>
-      <c r="V56" t="s">
-        <v>0</v>
-      </c>
-      <c r="W56" t="s">
-        <v>0</v>
-      </c>
-      <c r="X56" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>0</v>
+      <c r="AC56">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD56">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE56" t="s">
         <v>0</v>
@@ -6748,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="AH56">
-        <v>-0.36</v>
+        <v>15.99</v>
       </c>
       <c r="AI56" t="s">
         <v>53</v>
@@ -6757,30 +6867,30 @@
         <v>0</v>
       </c>
       <c r="AK56" t="s">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AL56" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B57" t="s">
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D57" t="s">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="E57" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F57" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="G57" t="s">
         <v>0</v>
@@ -6795,88 +6905,1944 @@
         <v>0</v>
       </c>
       <c r="K57">
+        <v>-1.54</v>
+      </c>
+      <c r="L57" t="s">
+        <v>53</v>
+      </c>
+      <c r="M57" t="s">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>406123550928</v>
+      </c>
+      <c r="S57" t="s">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>0</v>
+      </c>
+      <c r="U57" t="s">
+        <v>0</v>
+      </c>
+      <c r="V57" t="s">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>0</v>
+      </c>
+      <c r="X57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>-1.54</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s">
+        <v>157</v>
+      </c>
+      <c r="J58" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58">
+        <v>13.28</v>
+      </c>
+      <c r="L58" t="s">
+        <v>53</v>
+      </c>
+      <c r="M58" t="s">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>111</v>
+      </c>
+      <c r="R58">
+        <v>406123550928</v>
+      </c>
+      <c r="S58">
+        <v>10074728166404</v>
+      </c>
+      <c r="T58" t="s">
+        <v>63</v>
+      </c>
+      <c r="U58" t="s">
+        <v>64</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>15.99</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB58">
         <v>-0.36</v>
       </c>
-      <c r="L57" t="s">
-        <v>53</v>
-      </c>
-      <c r="M57" t="s">
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
-        <v>0</v>
-      </c>
-      <c r="O57" t="s">
-        <v>0</v>
-      </c>
-      <c r="P57" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>0</v>
-      </c>
-      <c r="R57">
+      <c r="AC58">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD58">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>15.99</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G59" t="s">
+        <v>161</v>
+      </c>
+      <c r="H59" t="s">
+        <v>101</v>
+      </c>
+      <c r="I59" t="s">
+        <v>162</v>
+      </c>
+      <c r="J59" t="s">
+        <v>55</v>
+      </c>
+      <c r="K59">
+        <v>28.05</v>
+      </c>
+      <c r="L59" t="s">
+        <v>53</v>
+      </c>
+      <c r="M59" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>111</v>
+      </c>
+      <c r="R59">
+        <v>406137033081</v>
+      </c>
+      <c r="S59">
+        <v>10074371795205</v>
+      </c>
+      <c r="T59" t="s">
+        <v>163</v>
+      </c>
+      <c r="U59" t="s">
+        <v>164</v>
+      </c>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>-0.36</v>
+      </c>
+      <c r="AC59">
+        <v>-4.75</v>
+      </c>
+      <c r="AD59">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>-0.36</v>
+      </c>
+      <c r="L60" t="s">
+        <v>53</v>
+      </c>
+      <c r="M60" t="s">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>406142479393</v>
+      </c>
+      <c r="S60" t="s">
+        <v>0</v>
+      </c>
+      <c r="T60" t="s">
+        <v>0</v>
+      </c>
+      <c r="U60" t="s">
+        <v>0</v>
+      </c>
+      <c r="V60" t="s">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>0</v>
+      </c>
+      <c r="X60" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>-0.36</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>-0.36</v>
+      </c>
+      <c r="L61" t="s">
+        <v>53</v>
+      </c>
+      <c r="M61" t="s">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>406142479393</v>
+      </c>
+      <c r="S61" t="s">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>0</v>
+      </c>
+      <c r="U61" t="s">
+        <v>0</v>
+      </c>
+      <c r="V61" t="s">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>0</v>
+      </c>
+      <c r="X61" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>-0.36</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>-0.36</v>
+      </c>
+      <c r="L62" t="s">
+        <v>53</v>
+      </c>
+      <c r="M62" t="s">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>406142372232</v>
+      </c>
+      <c r="S62" t="s">
+        <v>0</v>
+      </c>
+      <c r="T62" t="s">
+        <v>0</v>
+      </c>
+      <c r="U62" t="s">
+        <v>0</v>
+      </c>
+      <c r="V62" t="s">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>0</v>
+      </c>
+      <c r="X62" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>-0.36</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>-0.36</v>
+      </c>
+      <c r="L63" t="s">
+        <v>53</v>
+      </c>
+      <c r="M63" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>406142372232</v>
+      </c>
+      <c r="S63" t="s">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>0</v>
+      </c>
+      <c r="U63" t="s">
+        <v>0</v>
+      </c>
+      <c r="V63" t="s">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>0</v>
+      </c>
+      <c r="X63" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>-0.36</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>-0.36</v>
+      </c>
+      <c r="L64" t="s">
+        <v>53</v>
+      </c>
+      <c r="M64" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>406142313893</v>
+      </c>
+      <c r="S64" t="s">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>0</v>
+      </c>
+      <c r="U64" t="s">
+        <v>0</v>
+      </c>
+      <c r="V64" t="s">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>0</v>
+      </c>
+      <c r="X64" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>-0.36</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>-0.36</v>
+      </c>
+      <c r="L65" t="s">
+        <v>53</v>
+      </c>
+      <c r="M65" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>406142170274</v>
+      </c>
+      <c r="S65" t="s">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>0</v>
+      </c>
+      <c r="U65" t="s">
+        <v>0</v>
+      </c>
+      <c r="V65" t="s">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>0</v>
+      </c>
+      <c r="X65" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>-0.36</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>-0.36</v>
+      </c>
+      <c r="L66" t="s">
+        <v>53</v>
+      </c>
+      <c r="M66" t="s">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>406142024065</v>
+      </c>
+      <c r="S66" t="s">
+        <v>0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>0</v>
+      </c>
+      <c r="U66" t="s">
+        <v>0</v>
+      </c>
+      <c r="V66" t="s">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>0</v>
+      </c>
+      <c r="X66" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>-0.36</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>-0.36</v>
+      </c>
+      <c r="L67" t="s">
+        <v>53</v>
+      </c>
+      <c r="M67" t="s">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>406141928658</v>
+      </c>
+      <c r="S67" t="s">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>0</v>
+      </c>
+      <c r="U67" t="s">
+        <v>0</v>
+      </c>
+      <c r="V67" t="s">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>0</v>
+      </c>
+      <c r="X67" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>-0.36</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" t="s">
+        <v>174</v>
+      </c>
+      <c r="F68" t="s">
+        <v>175</v>
+      </c>
+      <c r="G68" t="s">
+        <v>176</v>
+      </c>
+      <c r="H68" t="s">
+        <v>177</v>
+      </c>
+      <c r="I68" t="s">
+        <v>178</v>
+      </c>
+      <c r="J68" t="s">
+        <v>55</v>
+      </c>
+      <c r="K68">
+        <v>12.75</v>
+      </c>
+      <c r="L68" t="s">
+        <v>53</v>
+      </c>
+      <c r="M68" t="s">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>111</v>
+      </c>
+      <c r="R68">
         <v>406136806041</v>
       </c>
-      <c r="S57" t="s">
-        <v>0</v>
-      </c>
-      <c r="T57" t="s">
-        <v>0</v>
-      </c>
-      <c r="U57" t="s">
-        <v>0</v>
-      </c>
-      <c r="V57" t="s">
-        <v>0</v>
-      </c>
-      <c r="W57" t="s">
-        <v>0</v>
-      </c>
-      <c r="X57" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH57">
+      <c r="S68">
+        <v>10075024981703</v>
+      </c>
+      <c r="T68" t="s">
+        <v>179</v>
+      </c>
+      <c r="U68" t="s">
+        <v>180</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>15.15</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB68">
         <v>-0.36</v>
       </c>
-      <c r="AI57" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL57" t="s">
+      <c r="AC68">
+        <v>-1.98</v>
+      </c>
+      <c r="AD68">
+        <v>-0.06</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>15.15</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>-0.36</v>
+      </c>
+      <c r="L69" t="s">
+        <v>53</v>
+      </c>
+      <c r="M69" t="s">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>406141891482</v>
+      </c>
+      <c r="S69" t="s">
+        <v>0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>0</v>
+      </c>
+      <c r="U69" t="s">
+        <v>0</v>
+      </c>
+      <c r="V69" t="s">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>0</v>
+      </c>
+      <c r="X69" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>-0.36</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL69" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70" t="s">
+        <v>184</v>
+      </c>
+      <c r="G70" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>-1.67</v>
+      </c>
+      <c r="L70" t="s">
+        <v>53</v>
+      </c>
+      <c r="M70" t="s">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>406123550928</v>
+      </c>
+      <c r="S70" t="s">
+        <v>0</v>
+      </c>
+      <c r="T70" t="s">
+        <v>0</v>
+      </c>
+      <c r="U70" t="s">
+        <v>0</v>
+      </c>
+      <c r="V70" t="s">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>0</v>
+      </c>
+      <c r="X70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>-1.67</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71" t="s">
+        <v>184</v>
+      </c>
+      <c r="G71" t="s">
+        <v>186</v>
+      </c>
+      <c r="H71" t="s">
+        <v>187</v>
+      </c>
+      <c r="I71" t="s">
+        <v>188</v>
+      </c>
+      <c r="J71" t="s">
+        <v>55</v>
+      </c>
+      <c r="K71">
+        <v>12.84</v>
+      </c>
+      <c r="L71" t="s">
+        <v>53</v>
+      </c>
+      <c r="M71" t="s">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>111</v>
+      </c>
+      <c r="R71">
+        <v>406123550928</v>
+      </c>
+      <c r="S71">
+        <v>10078330325327</v>
+      </c>
+      <c r="T71" t="s">
+        <v>63</v>
+      </c>
+      <c r="U71" t="s">
+        <v>64</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>15.47</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>-0.36</v>
+      </c>
+      <c r="AC71">
+        <v>-2.21</v>
+      </c>
+      <c r="AD71">
+        <v>-0.06</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>15.47</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" t="s">
+        <v>105</v>
+      </c>
+      <c r="G72" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>-1.67</v>
+      </c>
+      <c r="L72" t="s">
+        <v>53</v>
+      </c>
+      <c r="M72" t="s">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>406123550928</v>
+      </c>
+      <c r="S72" t="s">
+        <v>0</v>
+      </c>
+      <c r="T72" t="s">
+        <v>0</v>
+      </c>
+      <c r="U72" t="s">
+        <v>0</v>
+      </c>
+      <c r="V72" t="s">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>0</v>
+      </c>
+      <c r="X72" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>-1.67</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" t="s">
+        <v>109</v>
+      </c>
+      <c r="I73" t="s">
+        <v>110</v>
+      </c>
+      <c r="J73" t="s">
+        <v>55</v>
+      </c>
+      <c r="K73">
+        <v>12.84</v>
+      </c>
+      <c r="L73" t="s">
+        <v>53</v>
+      </c>
+      <c r="M73" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>111</v>
+      </c>
+      <c r="R73">
+        <v>406123550928</v>
+      </c>
+      <c r="S73">
+        <v>10074424185602</v>
+      </c>
+      <c r="T73" t="s">
+        <v>63</v>
+      </c>
+      <c r="U73" t="s">
+        <v>64</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="W73">
+        <v>15.47</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>-0.36</v>
+      </c>
+      <c r="AC73">
+        <v>-2.21</v>
+      </c>
+      <c r="AD73">
+        <v>-0.06</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>15.47</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Sales Data/Toonwear.xlsx
+++ b/Raw Sales Data/Toonwear.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="280">
   <si>
     <t>--</t>
   </si>
@@ -708,6 +708,174 @@
   </si>
   <si>
     <t>FEE-7337503973211_11</t>
+  </si>
+  <si>
+    <t>21-13461-68166</t>
+  </si>
+  <si>
+    <t>bgnlandscaper</t>
+  </si>
+  <si>
+    <t>Barrie Nobbs</t>
+  </si>
+  <si>
+    <t>FEE-7342223040711_11</t>
+  </si>
+  <si>
+    <t>Huntingdon</t>
+  </si>
+  <si>
+    <t>Cambridgeshire</t>
+  </si>
+  <si>
+    <t>Pe26 1eg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funds on hold. Estimated release on 5 Sep. </t>
+  </si>
+  <si>
+    <t>Top Handle Petrol Chainsaw 25cc 2 Stroke 12" Bar and 2 Chains Limbing Logs</t>
+  </si>
+  <si>
+    <t>Petrol Chainsaw 250601000004</t>
+  </si>
+  <si>
+    <t>09-13477-41687</t>
+  </si>
+  <si>
+    <t>grainnem1982</t>
+  </si>
+  <si>
+    <t>Grainne Marron</t>
+  </si>
+  <si>
+    <t>FEE-7341976317911_11</t>
+  </si>
+  <si>
+    <t>Newry</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>BT356FG</t>
+  </si>
+  <si>
+    <t>22-13459-83999</t>
+  </si>
+  <si>
+    <t>hosh1243</t>
+  </si>
+  <si>
+    <t>Hoshmand Zal</t>
+  </si>
+  <si>
+    <t>FEE-7341863248011_11</t>
+  </si>
+  <si>
+    <t>Nottingham</t>
+  </si>
+  <si>
+    <t>Nottinghamshire</t>
+  </si>
+  <si>
+    <t>NG8 1QB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funds on hold. Estimated release on 4 Sep. </t>
+  </si>
+  <si>
+    <t>01-13488-22891</t>
+  </si>
+  <si>
+    <t>terbus6216</t>
+  </si>
+  <si>
+    <t>Teresa Heslip</t>
+  </si>
+  <si>
+    <t>FEE-7341667270511_11</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>B44 0RN</t>
+  </si>
+  <si>
+    <t>08-13478-09386</t>
+  </si>
+  <si>
+    <t>bertyboy38</t>
+  </si>
+  <si>
+    <t>Wayne Church</t>
+  </si>
+  <si>
+    <t>FEE-7341624050411_11</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>BS4 1BN</t>
+  </si>
+  <si>
+    <t>26-13452-77731</t>
+  </si>
+  <si>
+    <t>anthonyh9711</t>
+  </si>
+  <si>
+    <t>R Hardman</t>
+  </si>
+  <si>
+    <t>FEE-7340988810211_11</t>
+  </si>
+  <si>
+    <t>B32 4LU</t>
+  </si>
+  <si>
+    <t>07-13478-01419</t>
+  </si>
+  <si>
+    <t>1971aoc</t>
+  </si>
+  <si>
+    <t>alan o'connor</t>
+  </si>
+  <si>
+    <t>FEE-7340649657011_11</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>Renfrewshire</t>
+  </si>
+  <si>
+    <t>pa2 0rx</t>
+  </si>
+  <si>
+    <t>05-13480-14748</t>
+  </si>
+  <si>
+    <t>fracl_3885</t>
+  </si>
+  <si>
+    <t>Frazer Clark</t>
+  </si>
+  <si>
+    <t>FEE-7340041381711_11</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>South Lanarkshire</t>
+  </si>
+  <si>
+    <t>G74 5NA</t>
   </si>
 </sst>
 </file>
@@ -1516,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL73"/>
+  <dimension ref="A1:AL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD73"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4787,22 +4955,22 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B39" t="s">
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="G39" t="s">
         <v>0</v>
@@ -4817,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>-2.4500000000000002</v>
+        <v>-1.54</v>
       </c>
       <c r="L39" t="s">
         <v>53</v>
@@ -4838,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="R39">
-        <v>406137033081</v>
+        <v>406123550928</v>
       </c>
       <c r="S39" t="s">
         <v>0</v>
@@ -4886,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>-2.4500000000000002</v>
+        <v>-1.54</v>
       </c>
       <c r="AI39" t="s">
         <v>53</v>
@@ -4895,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="AK39" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="AL39" t="s">
         <v>107</v>
@@ -4903,37 +5071,37 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="G40" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="H40" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="I40" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="J40" t="s">
         <v>55</v>
       </c>
       <c r="K40">
-        <v>14.14</v>
+        <v>13.28</v>
       </c>
       <c r="L40" t="s">
         <v>53</v>
@@ -4951,25 +5119,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="R40">
-        <v>406137033081</v>
+        <v>406123550928</v>
       </c>
       <c r="S40">
-        <v>10078372367827</v>
+        <v>10074878615812</v>
       </c>
       <c r="T40" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="U40" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="V40">
         <v>1</v>
       </c>
       <c r="W40">
-        <v>16.989999999999998</v>
+        <v>15.99</v>
       </c>
       <c r="X40">
         <v>0</v>
@@ -4987,7 +5155,7 @@
         <v>-0.36</v>
       </c>
       <c r="AC40">
-        <v>-2.42</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="AD40">
         <v>-7.0000000000000007E-2</v>
@@ -5002,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>16.989999999999998</v>
+        <v>15.99</v>
       </c>
       <c r="AI40" t="s">
         <v>53</v>
@@ -5019,22 +5187,22 @@
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B41" t="s">
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="F41" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="G41" t="s">
         <v>0</v>
@@ -5049,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>-2.38</v>
+        <v>-1.54</v>
       </c>
       <c r="L41" t="s">
         <v>53</v>
@@ -5118,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>-2.38</v>
+        <v>-1.54</v>
       </c>
       <c r="AI41" t="s">
         <v>53</v>
@@ -5127,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="AK41" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="AL41" t="s">
         <v>107</v>
@@ -5135,31 +5303,31 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B42" t="s">
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="G42" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="H42" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="J42" t="s">
         <v>55</v>
@@ -5183,13 +5351,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="R42">
         <v>406123550928</v>
       </c>
       <c r="S42">
-        <v>10074238395508</v>
+        <v>10074728166404</v>
       </c>
       <c r="T42" t="s">
         <v>63</v>
@@ -5251,37 +5419,37 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="F43" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="G43" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H43" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I43" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J43" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>-2.2599999999999998</v>
+        <v>28.05</v>
       </c>
       <c r="L43" t="s">
         <v>53</v>
@@ -5299,27 +5467,27 @@
         <v>0</v>
       </c>
       <c r="Q43" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="R43">
-        <v>406123550928</v>
-      </c>
-      <c r="S43" t="s">
-        <v>0</v>
+        <v>406137033081</v>
+      </c>
+      <c r="S43">
+        <v>10074371795205</v>
       </c>
       <c r="T43" t="s">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="U43" t="s">
-        <v>0</v>
-      </c>
-      <c r="V43" t="s">
-        <v>0</v>
-      </c>
-      <c r="W43" t="s">
-        <v>0</v>
-      </c>
-      <c r="X43" t="s">
+        <v>164</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="X43">
         <v>0</v>
       </c>
       <c r="Y43" t="s">
@@ -5331,14 +5499,14 @@
       <c r="AA43" s="2">
         <v>0</v>
       </c>
-      <c r="AB43" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>0</v>
+      <c r="AB43">
+        <v>-0.36</v>
+      </c>
+      <c r="AC43">
+        <v>-4.75</v>
+      </c>
+      <c r="AD43">
+        <v>-0.14000000000000001</v>
       </c>
       <c r="AE43" t="s">
         <v>0</v>
@@ -5350,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>-2.2599999999999998</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="AI43" t="s">
         <v>53</v>
@@ -5359,45 +5527,45 @@
         <v>0</v>
       </c>
       <c r="AK43" t="s">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>12.6</v>
+        <v>-0.36</v>
       </c>
       <c r="L44" t="s">
         <v>53</v>
@@ -5415,27 +5583,27 @@
         <v>0</v>
       </c>
       <c r="Q44" t="s">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>406123550928</v>
-      </c>
-      <c r="S44">
-        <v>10074173824220</v>
+        <v>406142479393</v>
+      </c>
+      <c r="S44" t="s">
+        <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>64</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>15.19</v>
-      </c>
-      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="V44" t="s">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
         <v>0</v>
       </c>
       <c r="Y44" t="s">
@@ -5447,27 +5615,27 @@
       <c r="AA44" s="2">
         <v>0</v>
       </c>
-      <c r="AB44">
+      <c r="AB44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH44">
         <v>-0.36</v>
       </c>
-      <c r="AC44">
-        <v>-2.17</v>
-      </c>
-      <c r="AD44">
-        <v>-0.06</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>15.19</v>
-      </c>
       <c r="AI44" t="s">
         <v>53</v>
       </c>
@@ -5475,30 +5643,30 @@
         <v>0</v>
       </c>
       <c r="AK44" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="AL44" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B45" t="s">
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
         <v>0</v>
@@ -5513,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>-4.96</v>
+        <v>-0.36</v>
       </c>
       <c r="L45" t="s">
         <v>53</v>
@@ -5534,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>406137033081</v>
+        <v>406142479393</v>
       </c>
       <c r="S45" t="s">
         <v>0</v>
@@ -5582,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>-4.96</v>
+        <v>-0.36</v>
       </c>
       <c r="AI45" t="s">
         <v>53</v>
@@ -5591,30 +5759,30 @@
         <v>0</v>
       </c>
       <c r="AK45" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="AL45" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>0</v>
@@ -5629,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>-12.54</v>
+        <v>-0.36</v>
       </c>
       <c r="L46" t="s">
         <v>53</v>
@@ -5698,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>-12.54</v>
+        <v>-0.36</v>
       </c>
       <c r="AI46" t="s">
         <v>53</v>
@@ -5707,45 +5875,45 @@
         <v>0</v>
       </c>
       <c r="AK46" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="AL46" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>66.17</v>
+        <v>-0.36</v>
       </c>
       <c r="L47" t="s">
         <v>53</v>
@@ -5763,27 +5931,27 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>406142372232</v>
       </c>
-      <c r="S47">
-        <v>10074888146710</v>
+      <c r="S47" t="s">
+        <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>136</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>77.989999999999995</v>
-      </c>
-      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
         <v>0</v>
       </c>
       <c r="Y47" t="s">
@@ -5795,27 +5963,27 @@
       <c r="AA47" s="2">
         <v>0</v>
       </c>
-      <c r="AB47">
+      <c r="AB47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH47">
         <v>-0.36</v>
       </c>
-      <c r="AC47">
-        <v>-11.14</v>
-      </c>
-      <c r="AD47">
-        <v>-0.32</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>77.989999999999995</v>
-      </c>
       <c r="AI47" t="s">
         <v>53</v>
       </c>
@@ -5823,15 +5991,15 @@
         <v>0</v>
       </c>
       <c r="AK47" t="s">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="AL47" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
@@ -5882,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>406145083503</v>
+        <v>406142313893</v>
       </c>
       <c r="S48" t="s">
         <v>0</v>
@@ -5939,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="AK48" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="AL48" t="s">
         <v>66</v>
@@ -5947,7 +6115,7 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
@@ -5998,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>406144919691</v>
+        <v>406142170274</v>
       </c>
       <c r="S49" t="s">
         <v>0</v>
@@ -6055,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="AK49" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="AL49" t="s">
         <v>66</v>
@@ -6063,7 +6231,7 @@
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
@@ -6114,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>406144919691</v>
+        <v>406142024065</v>
       </c>
       <c r="S50" t="s">
         <v>0</v>
@@ -6171,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="AK50" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="AL50" t="s">
         <v>66</v>
@@ -6179,7 +6347,7 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -6230,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <v>406144918827</v>
+        <v>406141928658</v>
       </c>
       <c r="S51" t="s">
         <v>0</v>
@@ -6287,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AK51" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="AL51" t="s">
         <v>66</v>
@@ -6295,94 +6463,94 @@
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="E52" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="F52" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G52" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="H52" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="I52" t="s">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="J52" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K52">
+        <v>12.75</v>
+      </c>
+      <c r="L52" t="s">
+        <v>53</v>
+      </c>
+      <c r="M52" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>111</v>
+      </c>
+      <c r="R52">
+        <v>406136806041</v>
+      </c>
+      <c r="S52">
+        <v>10075024981703</v>
+      </c>
+      <c r="T52" t="s">
+        <v>179</v>
+      </c>
+      <c r="U52" t="s">
+        <v>180</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>15.15</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB52">
         <v>-0.36</v>
       </c>
-      <c r="L52" t="s">
-        <v>53</v>
-      </c>
-      <c r="M52" t="s">
-        <v>0</v>
-      </c>
-      <c r="N52" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" t="s">
-        <v>0</v>
-      </c>
-      <c r="P52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>406144852286</v>
-      </c>
-      <c r="S52" t="s">
-        <v>0</v>
-      </c>
-      <c r="T52" t="s">
-        <v>0</v>
-      </c>
-      <c r="U52" t="s">
-        <v>0</v>
-      </c>
-      <c r="V52" t="s">
-        <v>0</v>
-      </c>
-      <c r="W52" t="s">
-        <v>0</v>
-      </c>
-      <c r="X52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>0</v>
+      <c r="AC52">
+        <v>-1.98</v>
+      </c>
+      <c r="AD52">
+        <v>-0.06</v>
       </c>
       <c r="AE52" t="s">
         <v>0</v>
@@ -6394,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="AH52">
-        <v>-0.36</v>
+        <v>15.15</v>
       </c>
       <c r="AI52" t="s">
         <v>53</v>
@@ -6403,15 +6571,15 @@
         <v>0</v>
       </c>
       <c r="AK52" t="s">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="AL52" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
@@ -6462,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>406144838249</v>
+        <v>406141891482</v>
       </c>
       <c r="S53" t="s">
         <v>0</v>
@@ -6519,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="AK53" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="AL53" t="s">
         <v>66</v>
@@ -6527,22 +6695,22 @@
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D54" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E54" t="s">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="F54" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="G54" t="s">
         <v>0</v>
@@ -6557,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>-0.36</v>
+        <v>-1.67</v>
       </c>
       <c r="L54" t="s">
         <v>53</v>
@@ -6578,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="R54">
-        <v>406137004836</v>
+        <v>406123550928</v>
       </c>
       <c r="S54" t="s">
         <v>0</v>
@@ -6626,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="AH54">
-        <v>-0.36</v>
+        <v>-1.67</v>
       </c>
       <c r="AI54" t="s">
         <v>53</v>
@@ -6635,10 +6803,10 @@
         <v>0</v>
       </c>
       <c r="AK54" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="AL54" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
@@ -6646,34 +6814,34 @@
         <v>45887</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="F55" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="G55" t="s">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="H55" t="s">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="I55" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="J55" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K55">
-        <v>-1.54</v>
+        <v>12.84</v>
       </c>
       <c r="L55" t="s">
         <v>53</v>
@@ -6691,27 +6859,27 @@
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="R55">
         <v>406123550928</v>
       </c>
-      <c r="S55" t="s">
-        <v>0</v>
+      <c r="S55">
+        <v>10078330325327</v>
       </c>
       <c r="T55" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U55" t="s">
-        <v>0</v>
-      </c>
-      <c r="V55" t="s">
-        <v>0</v>
-      </c>
-      <c r="W55" t="s">
-        <v>0</v>
-      </c>
-      <c r="X55" t="s">
+        <v>64</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>15.47</v>
+      </c>
+      <c r="X55">
         <v>0</v>
       </c>
       <c r="Y55" t="s">
@@ -6723,14 +6891,14 @@
       <c r="AA55" s="2">
         <v>0</v>
       </c>
-      <c r="AB55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>0</v>
+      <c r="AB55">
+        <v>-0.36</v>
+      </c>
+      <c r="AC55">
+        <v>-2.21</v>
+      </c>
+      <c r="AD55">
+        <v>-0.06</v>
       </c>
       <c r="AE55" t="s">
         <v>0</v>
@@ -6742,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <v>-1.54</v>
+        <v>15.47</v>
       </c>
       <c r="AI55" t="s">
         <v>53</v>
@@ -6751,10 +6919,10 @@
         <v>0</v>
       </c>
       <c r="AK55" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="AL55" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
@@ -6762,34 +6930,34 @@
         <v>45887</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="G56" t="s">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>13.28</v>
+        <v>-1.67</v>
       </c>
       <c r="L56" t="s">
         <v>53</v>
@@ -6807,27 +6975,27 @@
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <v>406123550928</v>
       </c>
-      <c r="S56">
-        <v>10074878615812</v>
+      <c r="S56" t="s">
+        <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>64</v>
-      </c>
-      <c r="V56">
-        <v>1</v>
-      </c>
-      <c r="W56">
-        <v>15.99</v>
-      </c>
-      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="V56" t="s">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
         <v>0</v>
       </c>
       <c r="Y56" t="s">
@@ -6839,14 +7007,14 @@
       <c r="AA56" s="2">
         <v>0</v>
       </c>
-      <c r="AB56">
-        <v>-0.36</v>
-      </c>
-      <c r="AC56">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="AD56">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>0</v>
       </c>
       <c r="AE56" t="s">
         <v>0</v>
@@ -6858,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="AH56">
-        <v>15.99</v>
+        <v>-1.67</v>
       </c>
       <c r="AI56" t="s">
         <v>53</v>
@@ -6867,10 +7035,10 @@
         <v>0</v>
       </c>
       <c r="AK56" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AL56" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
@@ -6878,34 +7046,34 @@
         <v>45887</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F57" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="G57" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H57" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="I57" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J57" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K57">
-        <v>-1.54</v>
+        <v>12.84</v>
       </c>
       <c r="L57" t="s">
         <v>53</v>
@@ -6923,27 +7091,27 @@
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="R57">
         <v>406123550928</v>
       </c>
-      <c r="S57" t="s">
-        <v>0</v>
+      <c r="S57">
+        <v>10074424185602</v>
       </c>
       <c r="T57" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U57" t="s">
-        <v>0</v>
-      </c>
-      <c r="V57" t="s">
-        <v>0</v>
-      </c>
-      <c r="W57" t="s">
-        <v>0</v>
-      </c>
-      <c r="X57" t="s">
+        <v>64</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>15.47</v>
+      </c>
+      <c r="X57">
         <v>0</v>
       </c>
       <c r="Y57" t="s">
@@ -6955,14 +7123,14 @@
       <c r="AA57" s="2">
         <v>0</v>
       </c>
-      <c r="AB57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>0</v>
+      <c r="AB57">
+        <v>-0.36</v>
+      </c>
+      <c r="AC57">
+        <v>-2.21</v>
+      </c>
+      <c r="AD57">
+        <v>-0.06</v>
       </c>
       <c r="AE57" t="s">
         <v>0</v>
@@ -6974,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="AH57">
-        <v>-1.54</v>
+        <v>15.47</v>
       </c>
       <c r="AI57" t="s">
         <v>53</v>
@@ -6983,45 +7151,45 @@
         <v>0</v>
       </c>
       <c r="AK57" t="s">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AL57" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="G58" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>13.28</v>
+        <v>-15.14</v>
       </c>
       <c r="L58" t="s">
         <v>53</v>
@@ -7039,27 +7207,27 @@
         <v>0</v>
       </c>
       <c r="Q58" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>406123550928</v>
-      </c>
-      <c r="S58">
-        <v>10074728166404</v>
+        <v>406141891482</v>
+      </c>
+      <c r="S58" t="s">
+        <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>64</v>
-      </c>
-      <c r="V58">
-        <v>1</v>
-      </c>
-      <c r="W58">
-        <v>15.99</v>
-      </c>
-      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="V58" t="s">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>0</v>
+      </c>
+      <c r="X58" t="s">
         <v>0</v>
       </c>
       <c r="Y58" t="s">
@@ -7071,14 +7239,14 @@
       <c r="AA58" s="2">
         <v>0</v>
       </c>
-      <c r="AB58">
-        <v>-0.36</v>
-      </c>
-      <c r="AC58">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="AD58">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>0</v>
       </c>
       <c r="AE58" t="s">
         <v>0</v>
@@ -7090,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="AH58">
-        <v>15.99</v>
+        <v>-15.14</v>
       </c>
       <c r="AI58" t="s">
         <v>53</v>
@@ -7099,45 +7267,45 @@
         <v>0</v>
       </c>
       <c r="AK58" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="AL58" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="B59" t="s">
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="F59" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="G59" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="H59" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="I59" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="J59" t="s">
         <v>55</v>
       </c>
       <c r="K59">
-        <v>28.05</v>
+        <v>94.57</v>
       </c>
       <c r="L59" t="s">
         <v>53</v>
@@ -7155,25 +7323,25 @@
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="R59">
-        <v>406137033081</v>
+        <v>406141891482</v>
       </c>
       <c r="S59">
-        <v>10074371795205</v>
+        <v>10079387786521</v>
       </c>
       <c r="T59" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="U59" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="V59">
         <v>2</v>
       </c>
       <c r="W59">
-        <v>33.299999999999997</v>
+        <v>109.74</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -7191,10 +7359,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC59">
-        <v>-4.75</v>
+        <v>-14.35</v>
       </c>
       <c r="AD59">
-        <v>-0.14000000000000001</v>
+        <v>-0.46</v>
       </c>
       <c r="AE59" t="s">
         <v>0</v>
@@ -7206,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="AH59">
-        <v>33.299999999999997</v>
+        <v>109.74</v>
       </c>
       <c r="AI59" t="s">
         <v>53</v>
@@ -7223,22 +7391,22 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="B60" t="s">
         <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="D60" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="E60" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="F60" t="s">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G60" t="s">
         <v>0</v>
@@ -7253,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>-0.36</v>
+        <v>-10.86</v>
       </c>
       <c r="L60" t="s">
         <v>53</v>
@@ -7274,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>406142479393</v>
+        <v>406142372232</v>
       </c>
       <c r="S60" t="s">
         <v>0</v>
@@ -7322,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="AH60">
-        <v>-0.36</v>
+        <v>-10.86</v>
       </c>
       <c r="AI60" t="s">
         <v>53</v>
@@ -7331,102 +7499,102 @@
         <v>0</v>
       </c>
       <c r="AK60" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="AL60" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="D61" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="E61" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="F61" t="s">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G61" t="s">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="H61" t="s">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="I61" t="s">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="J61" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K61">
+        <v>66.17</v>
+      </c>
+      <c r="L61" t="s">
+        <v>53</v>
+      </c>
+      <c r="M61" t="s">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>231</v>
+      </c>
+      <c r="R61">
+        <v>406142372232</v>
+      </c>
+      <c r="S61">
+        <v>10074198260809</v>
+      </c>
+      <c r="T61" t="s">
+        <v>135</v>
+      </c>
+      <c r="U61" t="s">
+        <v>136</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB61">
         <v>-0.36</v>
       </c>
-      <c r="L61" t="s">
-        <v>53</v>
-      </c>
-      <c r="M61" t="s">
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
-        <v>0</v>
-      </c>
-      <c r="O61" t="s">
-        <v>0</v>
-      </c>
-      <c r="P61" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>406142479393</v>
-      </c>
-      <c r="S61" t="s">
-        <v>0</v>
-      </c>
-      <c r="T61" t="s">
-        <v>0</v>
-      </c>
-      <c r="U61" t="s">
-        <v>0</v>
-      </c>
-      <c r="V61" t="s">
-        <v>0</v>
-      </c>
-      <c r="W61" t="s">
-        <v>0</v>
-      </c>
-      <c r="X61" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>0</v>
+      <c r="AC61">
+        <v>-11.14</v>
+      </c>
+      <c r="AD61">
+        <v>-0.32</v>
       </c>
       <c r="AE61" t="s">
         <v>0</v>
@@ -7438,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="AH61">
-        <v>-0.36</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="AI61" t="s">
         <v>53</v>
@@ -7447,30 +7615,30 @@
         <v>0</v>
       </c>
       <c r="AK61" t="s">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="AL61" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B62" t="s">
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="D62" t="s">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="E62" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="F62" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="G62" t="s">
         <v>0</v>
@@ -7485,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>-0.36</v>
+        <v>-2.38</v>
       </c>
       <c r="L62" t="s">
         <v>53</v>
@@ -7506,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <v>406142372232</v>
+        <v>406123550928</v>
       </c>
       <c r="S62" t="s">
         <v>0</v>
@@ -7554,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="AH62">
-        <v>-0.36</v>
+        <v>-2.38</v>
       </c>
       <c r="AI62" t="s">
         <v>53</v>
@@ -7563,102 +7731,102 @@
         <v>0</v>
       </c>
       <c r="AK62" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="AL62" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="D63" t="s">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="E63" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="F63" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="G63" t="s">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="H63" t="s">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I63" t="s">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="J63" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K63">
+        <v>13.28</v>
+      </c>
+      <c r="L63" t="s">
+        <v>53</v>
+      </c>
+      <c r="M63" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>248</v>
+      </c>
+      <c r="R63">
+        <v>406123550928</v>
+      </c>
+      <c r="S63">
+        <v>10074466932422</v>
+      </c>
+      <c r="T63" t="s">
+        <v>63</v>
+      </c>
+      <c r="U63" t="s">
+        <v>64</v>
+      </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <v>15.99</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB63">
         <v>-0.36</v>
       </c>
-      <c r="L63" t="s">
-        <v>53</v>
-      </c>
-      <c r="M63" t="s">
-        <v>0</v>
-      </c>
-      <c r="N63" t="s">
-        <v>0</v>
-      </c>
-      <c r="O63" t="s">
-        <v>0</v>
-      </c>
-      <c r="P63" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>406142372232</v>
-      </c>
-      <c r="S63" t="s">
-        <v>0</v>
-      </c>
-      <c r="T63" t="s">
-        <v>0</v>
-      </c>
-      <c r="U63" t="s">
-        <v>0</v>
-      </c>
-      <c r="V63" t="s">
-        <v>0</v>
-      </c>
-      <c r="W63" t="s">
-        <v>0</v>
-      </c>
-      <c r="X63" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>0</v>
+      <c r="AC63">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD63">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE63" t="s">
         <v>0</v>
@@ -7670,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="AH63">
-        <v>-0.36</v>
+        <v>15.99</v>
       </c>
       <c r="AI63" t="s">
         <v>53</v>
@@ -7679,30 +7847,30 @@
         <v>0</v>
       </c>
       <c r="AK63" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AL63" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B64" t="s">
         <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="D64" t="s">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="E64" t="s">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F64" t="s">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="G64" t="s">
         <v>0</v>
@@ -7717,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>-0.36</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="L64" t="s">
         <v>53</v>
@@ -7738,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="R64">
-        <v>406142313893</v>
+        <v>406137033081</v>
       </c>
       <c r="S64" t="s">
         <v>0</v>
@@ -7786,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="AH64">
-        <v>-0.36</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="AI64" t="s">
         <v>53</v>
@@ -7795,102 +7963,102 @@
         <v>0</v>
       </c>
       <c r="AK64" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="AL64" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="D65" t="s">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F65" t="s">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="G65" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="H65" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I65" t="s">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="J65" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K65">
+        <v>14.14</v>
+      </c>
+      <c r="L65" t="s">
+        <v>53</v>
+      </c>
+      <c r="M65" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>248</v>
+      </c>
+      <c r="R65">
+        <v>406137033081</v>
+      </c>
+      <c r="S65">
+        <v>10074295741601</v>
+      </c>
+      <c r="T65" t="s">
+        <v>163</v>
+      </c>
+      <c r="U65" t="s">
+        <v>164</v>
+      </c>
+      <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="W65">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB65">
         <v>-0.36</v>
       </c>
-      <c r="L65" t="s">
-        <v>53</v>
-      </c>
-      <c r="M65" t="s">
-        <v>0</v>
-      </c>
-      <c r="N65" t="s">
-        <v>0</v>
-      </c>
-      <c r="O65" t="s">
-        <v>0</v>
-      </c>
-      <c r="P65" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>406142170274</v>
-      </c>
-      <c r="S65" t="s">
-        <v>0</v>
-      </c>
-      <c r="T65" t="s">
-        <v>0</v>
-      </c>
-      <c r="U65" t="s">
-        <v>0</v>
-      </c>
-      <c r="V65" t="s">
-        <v>0</v>
-      </c>
-      <c r="W65" t="s">
-        <v>0</v>
-      </c>
-      <c r="X65" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>0</v>
+      <c r="AC65">
+        <v>-2.42</v>
+      </c>
+      <c r="AD65">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE65" t="s">
         <v>0</v>
@@ -7902,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="AH65">
-        <v>-0.36</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="AI65" t="s">
         <v>53</v>
@@ -7911,30 +8079,30 @@
         <v>0</v>
       </c>
       <c r="AK65" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AL65" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B66" t="s">
         <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="E66" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="F66" t="s">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="G66" t="s">
         <v>0</v>
@@ -7949,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>-0.36</v>
+        <v>-10.86</v>
       </c>
       <c r="L66" t="s">
         <v>53</v>
@@ -7970,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>406142024065</v>
+        <v>406142372232</v>
       </c>
       <c r="S66" t="s">
         <v>0</v>
@@ -8018,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="AH66">
-        <v>-0.36</v>
+        <v>-10.86</v>
       </c>
       <c r="AI66" t="s">
         <v>53</v>
@@ -8027,102 +8195,102 @@
         <v>0</v>
       </c>
       <c r="AK66" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="AL66" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D67" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="E67" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="F67" t="s">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="G67" t="s">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="H67" t="s">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J67" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K67">
+        <v>66.17</v>
+      </c>
+      <c r="L67" t="s">
+        <v>53</v>
+      </c>
+      <c r="M67" t="s">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>248</v>
+      </c>
+      <c r="R67">
+        <v>406142372232</v>
+      </c>
+      <c r="S67">
+        <v>10074264573908</v>
+      </c>
+      <c r="T67" t="s">
+        <v>135</v>
+      </c>
+      <c r="U67" t="s">
+        <v>136</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB67">
         <v>-0.36</v>
       </c>
-      <c r="L67" t="s">
-        <v>53</v>
-      </c>
-      <c r="M67" t="s">
-        <v>0</v>
-      </c>
-      <c r="N67" t="s">
-        <v>0</v>
-      </c>
-      <c r="O67" t="s">
-        <v>0</v>
-      </c>
-      <c r="P67" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>406141928658</v>
-      </c>
-      <c r="S67" t="s">
-        <v>0</v>
-      </c>
-      <c r="T67" t="s">
-        <v>0</v>
-      </c>
-      <c r="U67" t="s">
-        <v>0</v>
-      </c>
-      <c r="V67" t="s">
-        <v>0</v>
-      </c>
-      <c r="W67" t="s">
-        <v>0</v>
-      </c>
-      <c r="X67" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>0</v>
+      <c r="AC67">
+        <v>-11.14</v>
+      </c>
+      <c r="AD67">
+        <v>-0.32</v>
       </c>
       <c r="AE67" t="s">
         <v>0</v>
@@ -8134,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="AH67">
-        <v>-0.36</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="AI67" t="s">
         <v>53</v>
@@ -8143,45 +8311,45 @@
         <v>0</v>
       </c>
       <c r="AK67" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="AL67" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c r="F68" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="G68" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>12.75</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="L68" t="s">
         <v>53</v>
@@ -8199,27 +8367,27 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>406136806041</v>
-      </c>
-      <c r="S68">
-        <v>10075024981703</v>
+        <v>406137033081</v>
+      </c>
+      <c r="S68" t="s">
+        <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>180</v>
-      </c>
-      <c r="V68">
-        <v>1</v>
-      </c>
-      <c r="W68">
-        <v>15.15</v>
-      </c>
-      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="V68" t="s">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>0</v>
+      </c>
+      <c r="X68" t="s">
         <v>0</v>
       </c>
       <c r="Y68" t="s">
@@ -8231,14 +8399,14 @@
       <c r="AA68" s="2">
         <v>0</v>
       </c>
-      <c r="AB68">
-        <v>-0.36</v>
-      </c>
-      <c r="AC68">
-        <v>-1.98</v>
-      </c>
-      <c r="AD68">
-        <v>-0.06</v>
+      <c r="AB68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>0</v>
       </c>
       <c r="AE68" t="s">
         <v>0</v>
@@ -8250,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="AH68">
-        <v>15.15</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="AI68" t="s">
         <v>53</v>
@@ -8259,102 +8427,102 @@
         <v>0</v>
       </c>
       <c r="AK68" t="s">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="AL68" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="D69" t="s">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="E69" t="s">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="F69" t="s">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="G69" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="H69" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I69" t="s">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="J69" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K69">
+        <v>14.14</v>
+      </c>
+      <c r="L69" t="s">
+        <v>53</v>
+      </c>
+      <c r="M69" t="s">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>248</v>
+      </c>
+      <c r="R69">
+        <v>406137033081</v>
+      </c>
+      <c r="S69">
+        <v>10074035360026</v>
+      </c>
+      <c r="T69" t="s">
+        <v>163</v>
+      </c>
+      <c r="U69" t="s">
+        <v>164</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB69">
         <v>-0.36</v>
       </c>
-      <c r="L69" t="s">
-        <v>53</v>
-      </c>
-      <c r="M69" t="s">
-        <v>0</v>
-      </c>
-      <c r="N69" t="s">
-        <v>0</v>
-      </c>
-      <c r="O69" t="s">
-        <v>0</v>
-      </c>
-      <c r="P69" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>406141891482</v>
-      </c>
-      <c r="S69" t="s">
-        <v>0</v>
-      </c>
-      <c r="T69" t="s">
-        <v>0</v>
-      </c>
-      <c r="U69" t="s">
-        <v>0</v>
-      </c>
-      <c r="V69" t="s">
-        <v>0</v>
-      </c>
-      <c r="W69" t="s">
-        <v>0</v>
-      </c>
-      <c r="X69" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>0</v>
+      <c r="AC69">
+        <v>-2.42</v>
+      </c>
+      <c r="AD69">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE69" t="s">
         <v>0</v>
@@ -8366,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="AH69">
-        <v>-0.36</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="AI69" t="s">
         <v>53</v>
@@ -8375,30 +8543,30 @@
         <v>0</v>
       </c>
       <c r="AK69" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AL69" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B70" t="s">
         <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="E70" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="F70" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="G70" t="s">
         <v>0</v>
@@ -8413,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>-1.67</v>
+        <v>-10.86</v>
       </c>
       <c r="L70" t="s">
         <v>53</v>
@@ -8434,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>406123550928</v>
+        <v>406142372232</v>
       </c>
       <c r="S70" t="s">
         <v>0</v>
@@ -8482,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="AH70">
-        <v>-1.67</v>
+        <v>-10.86</v>
       </c>
       <c r="AI70" t="s">
         <v>53</v>
@@ -8491,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="AK70" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="AL70" t="s">
         <v>107</v>
@@ -8499,37 +8667,37 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B71" t="s">
         <v>54</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="E71" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="F71" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="G71" t="s">
-        <v>186</v>
+        <v>270</v>
       </c>
       <c r="H71" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="I71" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="J71" t="s">
         <v>55</v>
       </c>
       <c r="K71">
-        <v>12.84</v>
+        <v>66.17</v>
       </c>
       <c r="L71" t="s">
         <v>53</v>
@@ -8547,25 +8715,25 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c r="R71">
-        <v>406123550928</v>
+        <v>406142372232</v>
       </c>
       <c r="S71">
-        <v>10078330325327</v>
+        <v>10079299793207</v>
       </c>
       <c r="T71" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="U71" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="V71">
         <v>1</v>
       </c>
       <c r="W71">
-        <v>15.47</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="X71">
         <v>0</v>
@@ -8583,10 +8751,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC71">
-        <v>-2.21</v>
+        <v>-11.14</v>
       </c>
       <c r="AD71">
-        <v>-0.06</v>
+        <v>-0.32</v>
       </c>
       <c r="AE71" t="s">
         <v>0</v>
@@ -8598,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="AH71">
-        <v>15.47</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="AI71" t="s">
         <v>53</v>
@@ -8615,22 +8783,22 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B72" t="s">
         <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="E72" t="s">
-        <v>104</v>
+        <v>274</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="G72" t="s">
         <v>0</v>
@@ -8645,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>-1.67</v>
+        <v>-2.38</v>
       </c>
       <c r="L72" t="s">
         <v>53</v>
@@ -8714,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="AH72">
-        <v>-1.67</v>
+        <v>-2.38</v>
       </c>
       <c r="AI72" t="s">
         <v>53</v>
@@ -8723,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="AK72" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="AL72" t="s">
         <v>107</v>
@@ -8731,37 +8899,37 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B73" t="s">
         <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>274</v>
       </c>
       <c r="F73" t="s">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="G73" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="H73" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="I73" t="s">
-        <v>110</v>
+        <v>279</v>
       </c>
       <c r="J73" t="s">
         <v>55</v>
       </c>
       <c r="K73">
-        <v>12.84</v>
+        <v>13.28</v>
       </c>
       <c r="L73" t="s">
         <v>53</v>
@@ -8779,13 +8947,13 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c r="R73">
         <v>406123550928</v>
       </c>
       <c r="S73">
-        <v>10074424185602</v>
+        <v>10074416283105</v>
       </c>
       <c r="T73" t="s">
         <v>63</v>
@@ -8797,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="W73">
-        <v>15.47</v>
+        <v>15.99</v>
       </c>
       <c r="X73">
         <v>0</v>
@@ -8815,34 +8983,1890 @@
         <v>-0.36</v>
       </c>
       <c r="AC73">
-        <v>-2.21</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="AD73">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>15.99</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" t="s">
+        <v>190</v>
+      </c>
+      <c r="F74" t="s">
+        <v>191</v>
+      </c>
+      <c r="G74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="L74" t="s">
+        <v>53</v>
+      </c>
+      <c r="M74" t="s">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>406137033081</v>
+      </c>
+      <c r="S74" t="s">
+        <v>0</v>
+      </c>
+      <c r="T74" t="s">
+        <v>0</v>
+      </c>
+      <c r="U74" t="s">
+        <v>0</v>
+      </c>
+      <c r="V74" t="s">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>0</v>
+      </c>
+      <c r="X74" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" t="s">
+        <v>191</v>
+      </c>
+      <c r="G75" t="s">
+        <v>193</v>
+      </c>
+      <c r="H75" t="s">
+        <v>89</v>
+      </c>
+      <c r="I75" t="s">
+        <v>194</v>
+      </c>
+      <c r="J75" t="s">
+        <v>55</v>
+      </c>
+      <c r="K75">
+        <v>14.14</v>
+      </c>
+      <c r="L75" t="s">
+        <v>53</v>
+      </c>
+      <c r="M75" t="s">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>195</v>
+      </c>
+      <c r="R75">
+        <v>406137033081</v>
+      </c>
+      <c r="S75">
+        <v>10078372367827</v>
+      </c>
+      <c r="T75" t="s">
+        <v>163</v>
+      </c>
+      <c r="U75" t="s">
+        <v>164</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>-0.36</v>
+      </c>
+      <c r="AC75">
+        <v>-2.42</v>
+      </c>
+      <c r="AD75">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" t="s">
+        <v>198</v>
+      </c>
+      <c r="G76" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>-2.38</v>
+      </c>
+      <c r="L76" t="s">
+        <v>53</v>
+      </c>
+      <c r="M76" t="s">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>406123550928</v>
+      </c>
+      <c r="S76" t="s">
+        <v>0</v>
+      </c>
+      <c r="T76" t="s">
+        <v>0</v>
+      </c>
+      <c r="U76" t="s">
+        <v>0</v>
+      </c>
+      <c r="V76" t="s">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>0</v>
+      </c>
+      <c r="X76" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>-2.38</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" t="s">
+        <v>198</v>
+      </c>
+      <c r="G77" t="s">
+        <v>200</v>
+      </c>
+      <c r="H77" t="s">
+        <v>201</v>
+      </c>
+      <c r="I77" t="s">
+        <v>202</v>
+      </c>
+      <c r="J77" t="s">
+        <v>55</v>
+      </c>
+      <c r="K77">
+        <v>13.28</v>
+      </c>
+      <c r="L77" t="s">
+        <v>53</v>
+      </c>
+      <c r="M77" t="s">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>195</v>
+      </c>
+      <c r="R77">
+        <v>406123550928</v>
+      </c>
+      <c r="S77">
+        <v>10074238395508</v>
+      </c>
+      <c r="T77" t="s">
+        <v>63</v>
+      </c>
+      <c r="U77" t="s">
+        <v>64</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>15.99</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>-0.36</v>
+      </c>
+      <c r="AC77">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD77">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>15.99</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" t="s">
+        <v>204</v>
+      </c>
+      <c r="F78" t="s">
+        <v>205</v>
+      </c>
+      <c r="G78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="L78" t="s">
+        <v>53</v>
+      </c>
+      <c r="M78" t="s">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>406123550928</v>
+      </c>
+      <c r="S78" t="s">
+        <v>0</v>
+      </c>
+      <c r="T78" t="s">
+        <v>0</v>
+      </c>
+      <c r="U78" t="s">
+        <v>0</v>
+      </c>
+      <c r="V78" t="s">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>0</v>
+      </c>
+      <c r="X78" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" t="s">
+        <v>204</v>
+      </c>
+      <c r="F79" t="s">
+        <v>205</v>
+      </c>
+      <c r="G79" t="s">
+        <v>207</v>
+      </c>
+      <c r="H79" t="s">
+        <v>208</v>
+      </c>
+      <c r="I79" t="s">
+        <v>209</v>
+      </c>
+      <c r="J79" t="s">
+        <v>55</v>
+      </c>
+      <c r="K79">
+        <v>12.6</v>
+      </c>
+      <c r="L79" t="s">
+        <v>53</v>
+      </c>
+      <c r="M79" t="s">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>195</v>
+      </c>
+      <c r="R79">
+        <v>406123550928</v>
+      </c>
+      <c r="S79">
+        <v>10074173824220</v>
+      </c>
+      <c r="T79" t="s">
+        <v>63</v>
+      </c>
+      <c r="U79" t="s">
+        <v>64</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>15.19</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>-0.36</v>
+      </c>
+      <c r="AC79">
+        <v>-2.17</v>
+      </c>
+      <c r="AD79">
         <v>-0.06</v>
       </c>
-      <c r="AE73" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH73">
-        <v>15.47</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="s">
-        <v>0</v>
+      <c r="AE79" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>15.19</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" t="s">
+        <v>159</v>
+      </c>
+      <c r="F80" t="s">
+        <v>160</v>
+      </c>
+      <c r="G80" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>-4.96</v>
+      </c>
+      <c r="L80" t="s">
+        <v>53</v>
+      </c>
+      <c r="M80" t="s">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>406137033081</v>
+      </c>
+      <c r="S80" t="s">
+        <v>0</v>
+      </c>
+      <c r="T80" t="s">
+        <v>0</v>
+      </c>
+      <c r="U80" t="s">
+        <v>0</v>
+      </c>
+      <c r="V80" t="s">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>0</v>
+      </c>
+      <c r="X80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>-4.96</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" t="s">
+        <v>211</v>
+      </c>
+      <c r="E81" t="s">
+        <v>212</v>
+      </c>
+      <c r="F81" t="s">
+        <v>213</v>
+      </c>
+      <c r="G81" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>-12.54</v>
+      </c>
+      <c r="L81" t="s">
+        <v>53</v>
+      </c>
+      <c r="M81" t="s">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>406142372232</v>
+      </c>
+      <c r="S81" t="s">
+        <v>0</v>
+      </c>
+      <c r="T81" t="s">
+        <v>0</v>
+      </c>
+      <c r="U81" t="s">
+        <v>0</v>
+      </c>
+      <c r="V81" t="s">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>0</v>
+      </c>
+      <c r="X81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>-12.54</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" t="s">
+        <v>211</v>
+      </c>
+      <c r="E82" t="s">
+        <v>212</v>
+      </c>
+      <c r="F82" t="s">
+        <v>213</v>
+      </c>
+      <c r="G82" t="s">
+        <v>215</v>
+      </c>
+      <c r="H82" t="s">
+        <v>129</v>
+      </c>
+      <c r="I82" t="s">
+        <v>216</v>
+      </c>
+      <c r="J82" t="s">
+        <v>55</v>
+      </c>
+      <c r="K82">
+        <v>66.17</v>
+      </c>
+      <c r="L82" t="s">
+        <v>53</v>
+      </c>
+      <c r="M82" t="s">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>0</v>
+      </c>
+      <c r="P82" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>195</v>
+      </c>
+      <c r="R82">
+        <v>406142372232</v>
+      </c>
+      <c r="S82">
+        <v>10074888146710</v>
+      </c>
+      <c r="T82" t="s">
+        <v>135</v>
+      </c>
+      <c r="U82" t="s">
+        <v>136</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>-0.36</v>
+      </c>
+      <c r="AC82">
+        <v>-11.14</v>
+      </c>
+      <c r="AD82">
+        <v>-0.32</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>-0.36</v>
+      </c>
+      <c r="L83" t="s">
+        <v>53</v>
+      </c>
+      <c r="M83" t="s">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>0</v>
+      </c>
+      <c r="P83" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>406145083503</v>
+      </c>
+      <c r="S83" t="s">
+        <v>0</v>
+      </c>
+      <c r="T83" t="s">
+        <v>0</v>
+      </c>
+      <c r="U83" t="s">
+        <v>0</v>
+      </c>
+      <c r="V83" t="s">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>0</v>
+      </c>
+      <c r="X83" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>-0.36</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>-0.36</v>
+      </c>
+      <c r="L84" t="s">
+        <v>53</v>
+      </c>
+      <c r="M84" t="s">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
+        <v>0</v>
+      </c>
+      <c r="P84" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>406144919691</v>
+      </c>
+      <c r="S84" t="s">
+        <v>0</v>
+      </c>
+      <c r="T84" t="s">
+        <v>0</v>
+      </c>
+      <c r="U84" t="s">
+        <v>0</v>
+      </c>
+      <c r="V84" t="s">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>0</v>
+      </c>
+      <c r="X84" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>-0.36</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>-0.36</v>
+      </c>
+      <c r="L85" t="s">
+        <v>53</v>
+      </c>
+      <c r="M85" t="s">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>0</v>
+      </c>
+      <c r="P85" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>406144919691</v>
+      </c>
+      <c r="S85" t="s">
+        <v>0</v>
+      </c>
+      <c r="T85" t="s">
+        <v>0</v>
+      </c>
+      <c r="U85" t="s">
+        <v>0</v>
+      </c>
+      <c r="V85" t="s">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>0</v>
+      </c>
+      <c r="X85" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>-0.36</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>-0.36</v>
+      </c>
+      <c r="L86" t="s">
+        <v>53</v>
+      </c>
+      <c r="M86" t="s">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
+        <v>0</v>
+      </c>
+      <c r="P86" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>406144918827</v>
+      </c>
+      <c r="S86" t="s">
+        <v>0</v>
+      </c>
+      <c r="T86" t="s">
+        <v>0</v>
+      </c>
+      <c r="U86" t="s">
+        <v>0</v>
+      </c>
+      <c r="V86" t="s">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>0</v>
+      </c>
+      <c r="X86" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>-0.36</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>-0.36</v>
+      </c>
+      <c r="L87" t="s">
+        <v>53</v>
+      </c>
+      <c r="M87" t="s">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>406144852286</v>
+      </c>
+      <c r="S87" t="s">
+        <v>0</v>
+      </c>
+      <c r="T87" t="s">
+        <v>0</v>
+      </c>
+      <c r="U87" t="s">
+        <v>0</v>
+      </c>
+      <c r="V87" t="s">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>0</v>
+      </c>
+      <c r="X87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>-0.36</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>-0.36</v>
+      </c>
+      <c r="L88" t="s">
+        <v>53</v>
+      </c>
+      <c r="M88" t="s">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>0</v>
+      </c>
+      <c r="P88" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>406144838249</v>
+      </c>
+      <c r="S88" t="s">
+        <v>0</v>
+      </c>
+      <c r="T88" t="s">
+        <v>0</v>
+      </c>
+      <c r="U88" t="s">
+        <v>0</v>
+      </c>
+      <c r="V88" t="s">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>0</v>
+      </c>
+      <c r="X88" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>-0.36</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>-0.36</v>
+      </c>
+      <c r="L89" t="s">
+        <v>53</v>
+      </c>
+      <c r="M89" t="s">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>0</v>
+      </c>
+      <c r="O89" t="s">
+        <v>0</v>
+      </c>
+      <c r="P89" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>406137004836</v>
+      </c>
+      <c r="S89" t="s">
+        <v>0</v>
+      </c>
+      <c r="T89" t="s">
+        <v>0</v>
+      </c>
+      <c r="U89" t="s">
+        <v>0</v>
+      </c>
+      <c r="V89" t="s">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>0</v>
+      </c>
+      <c r="X89" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>-0.36</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Sales Data/Toonwear.xlsx
+++ b/Raw Sales Data/Toonwear.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="346">
   <si>
     <t>--</t>
   </si>
@@ -876,6 +876,204 @@
   </si>
   <si>
     <t>G74 5NA</t>
+  </si>
+  <si>
+    <t>19-13467-89363</t>
+  </si>
+  <si>
+    <t>melmostinky10</t>
+  </si>
+  <si>
+    <t>Melanie Swainson</t>
+  </si>
+  <si>
+    <t>FEE-7344409214811_11</t>
+  </si>
+  <si>
+    <t>Stockton on tees</t>
+  </si>
+  <si>
+    <t>ts21 4dt</t>
+  </si>
+  <si>
+    <t>03-13489-13275</t>
+  </si>
+  <si>
+    <t>stevienotoes</t>
+  </si>
+  <si>
+    <t>stephen wilkinson</t>
+  </si>
+  <si>
+    <t>FEE-7344313695111_11</t>
+  </si>
+  <si>
+    <t>northwich</t>
+  </si>
+  <si>
+    <t>cw9 6ls</t>
+  </si>
+  <si>
+    <t>20-13465-91096</t>
+  </si>
+  <si>
+    <t>kc.cam20012</t>
+  </si>
+  <si>
+    <t>Kc Campbell</t>
+  </si>
+  <si>
+    <t>FEE-7344053246311_11</t>
+  </si>
+  <si>
+    <t>Newham</t>
+  </si>
+  <si>
+    <t>E15 2AD</t>
+  </si>
+  <si>
+    <t>21-13464-10944</t>
+  </si>
+  <si>
+    <t>denise3434</t>
+  </si>
+  <si>
+    <t>denise dutton</t>
+  </si>
+  <si>
+    <t>FEE-7343903210111_11</t>
+  </si>
+  <si>
+    <t>grimsby</t>
+  </si>
+  <si>
+    <t>Lincolnshire</t>
+  </si>
+  <si>
+    <t>DN364LJ</t>
+  </si>
+  <si>
+    <t>Pendent Light White 250601000022 + 6pc Bulb</t>
+  </si>
+  <si>
+    <t>10-13478-19381</t>
+  </si>
+  <si>
+    <t>mazzie2878</t>
+  </si>
+  <si>
+    <t>Stefan Szuman</t>
+  </si>
+  <si>
+    <t>FEE-7343463655711_11</t>
+  </si>
+  <si>
+    <t>Leatherhead</t>
+  </si>
+  <si>
+    <t>Surrey</t>
+  </si>
+  <si>
+    <t>KT233NU</t>
+  </si>
+  <si>
+    <t>Highlander Products 4 Slice Folding Camping Toaster Stainless Steel</t>
+  </si>
+  <si>
+    <t>Folding Toaster 21</t>
+  </si>
+  <si>
+    <t>27-13455-48091</t>
+  </si>
+  <si>
+    <t>zyckel</t>
+  </si>
+  <si>
+    <t>Gerry Mullan</t>
+  </si>
+  <si>
+    <t>FEE-7343404300611_11</t>
+  </si>
+  <si>
+    <t>08-13480-67009</t>
+  </si>
+  <si>
+    <t>trog-100</t>
+  </si>
+  <si>
+    <t>mark rogers</t>
+  </si>
+  <si>
+    <t>FEE-7343395150611_11</t>
+  </si>
+  <si>
+    <t>Bangor</t>
+  </si>
+  <si>
+    <t>BT19 6XJ</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>NG242hw</t>
+  </si>
+  <si>
+    <t>FEE-7343157670711_11</t>
+  </si>
+  <si>
+    <t>FEE-7343137126911_11</t>
+  </si>
+  <si>
+    <t>FEE-7343137126211_11</t>
+  </si>
+  <si>
+    <t>FEE-7343024300111_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End auction-style listings early fee </t>
+  </si>
+  <si>
+    <t>06-13483-15708</t>
+  </si>
+  <si>
+    <t>leno18959</t>
+  </si>
+  <si>
+    <t>Leno Varva</t>
+  </si>
+  <si>
+    <t>FEE-7342949042611_11</t>
+  </si>
+  <si>
+    <t>Farnham, Badshot Lea</t>
+  </si>
+  <si>
+    <t>GU10 1PP</t>
+  </si>
+  <si>
+    <t>FEE-7342704913211_11</t>
+  </si>
+  <si>
+    <t>18-13466-59351</t>
+  </si>
+  <si>
+    <t>zelcalix</t>
+  </si>
+  <si>
+    <t>ronald  calixtro</t>
+  </si>
+  <si>
+    <t>FEE-7342687478711_11</t>
+  </si>
+  <si>
+    <t>nottingham</t>
+  </si>
+  <si>
+    <t>ng8 3dx</t>
+  </si>
+  <si>
+    <t>FEE-7342647715211_11</t>
   </si>
 </sst>
 </file>
@@ -1684,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL89"/>
+  <dimension ref="A1:AL113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD89"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7159,22 +7357,22 @@
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45890</v>
+        <v>45888</v>
       </c>
       <c r="B58" t="s">
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="D58" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="F58" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="G58" t="s">
         <v>0</v>
@@ -7189,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>-15.14</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="L58" t="s">
         <v>53</v>
@@ -7210,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>406141891482</v>
+        <v>406137033081</v>
       </c>
       <c r="S58" t="s">
         <v>0</v>
@@ -7258,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AH58">
-        <v>-15.14</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="AI58" t="s">
         <v>53</v>
@@ -7267,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="AK58" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="AL58" t="s">
         <v>107</v>
@@ -7275,37 +7473,37 @@
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45890</v>
+        <v>45888</v>
       </c>
       <c r="B59" t="s">
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="D59" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="F59" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="G59" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="H59" t="s">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="J59" t="s">
         <v>55</v>
       </c>
       <c r="K59">
-        <v>94.57</v>
+        <v>14.14</v>
       </c>
       <c r="L59" t="s">
         <v>53</v>
@@ -7323,25 +7521,25 @@
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="R59">
-        <v>406141891482</v>
+        <v>406137033081</v>
       </c>
       <c r="S59">
-        <v>10079387786521</v>
+        <v>10078372367827</v>
       </c>
       <c r="T59" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="U59" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W59">
-        <v>109.74</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -7359,10 +7557,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC59">
-        <v>-14.35</v>
+        <v>-2.42</v>
       </c>
       <c r="AD59">
-        <v>-0.46</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE59" t="s">
         <v>0</v>
@@ -7374,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="AH59">
-        <v>109.74</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="AI59" t="s">
         <v>53</v>
@@ -7391,22 +7589,22 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45890</v>
+        <v>45888</v>
       </c>
       <c r="B60" t="s">
         <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="E60" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="F60" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="G60" t="s">
         <v>0</v>
@@ -7421,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>-10.86</v>
+        <v>-2.38</v>
       </c>
       <c r="L60" t="s">
         <v>53</v>
@@ -7442,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>406142372232</v>
+        <v>406123550928</v>
       </c>
       <c r="S60" t="s">
         <v>0</v>
@@ -7490,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="AH60">
-        <v>-10.86</v>
+        <v>-2.38</v>
       </c>
       <c r="AI60" t="s">
         <v>53</v>
@@ -7499,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="AK60" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AL60" t="s">
         <v>107</v>
@@ -7507,37 +7705,37 @@
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45890</v>
+        <v>45888</v>
       </c>
       <c r="B61" t="s">
         <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="E61" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="F61" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="H61" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="I61" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="J61" t="s">
         <v>55</v>
       </c>
       <c r="K61">
-        <v>66.17</v>
+        <v>13.28</v>
       </c>
       <c r="L61" t="s">
         <v>53</v>
@@ -7555,25 +7753,25 @@
         <v>0</v>
       </c>
       <c r="Q61" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="R61">
-        <v>406142372232</v>
+        <v>406123550928</v>
       </c>
       <c r="S61">
-        <v>10074198260809</v>
+        <v>10074238395508</v>
       </c>
       <c r="T61" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="U61" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="V61">
         <v>1</v>
       </c>
       <c r="W61">
-        <v>77.989999999999995</v>
+        <v>15.99</v>
       </c>
       <c r="X61">
         <v>0</v>
@@ -7591,10 +7789,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC61">
-        <v>-11.14</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="AD61">
-        <v>-0.32</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE61" t="s">
         <v>0</v>
@@ -7606,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="AH61">
-        <v>77.989999999999995</v>
+        <v>15.99</v>
       </c>
       <c r="AI61" t="s">
         <v>53</v>
@@ -7623,22 +7821,22 @@
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B62" t="s">
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="D62" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="F62" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="G62" t="s">
         <v>0</v>
@@ -7653,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>-2.38</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="L62" t="s">
         <v>53</v>
@@ -7722,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="AH62">
-        <v>-2.38</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="AI62" t="s">
         <v>53</v>
@@ -7731,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="AK62" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="AL62" t="s">
         <v>107</v>
@@ -7739,37 +7937,37 @@
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B63" t="s">
         <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="D63" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="E63" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="F63" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="G63" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="H63" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="I63" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="J63" t="s">
         <v>55</v>
       </c>
       <c r="K63">
-        <v>13.28</v>
+        <v>12.6</v>
       </c>
       <c r="L63" t="s">
         <v>53</v>
@@ -7787,13 +7985,13 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="R63">
         <v>406123550928</v>
       </c>
       <c r="S63">
-        <v>10074466932422</v>
+        <v>10074173824220</v>
       </c>
       <c r="T63" t="s">
         <v>63</v>
@@ -7805,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="W63">
-        <v>15.99</v>
+        <v>15.19</v>
       </c>
       <c r="X63">
         <v>0</v>
@@ -7823,10 +8021,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC63">
-        <v>-2.2799999999999998</v>
+        <v>-2.17</v>
       </c>
       <c r="AD63">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="AE63" t="s">
         <v>0</v>
@@ -7838,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="AH63">
-        <v>15.99</v>
+        <v>15.19</v>
       </c>
       <c r="AI63" t="s">
         <v>53</v>
@@ -7855,22 +8053,22 @@
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B64" t="s">
         <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="F64" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="G64" t="s">
         <v>0</v>
@@ -7885,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>-2.4500000000000002</v>
+        <v>-4.96</v>
       </c>
       <c r="L64" t="s">
         <v>53</v>
@@ -7954,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="AH64">
-        <v>-2.4500000000000002</v>
+        <v>-4.96</v>
       </c>
       <c r="AI64" t="s">
         <v>53</v>
@@ -7963,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="AK64" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="AL64" t="s">
         <v>107</v>
@@ -7971,37 +8169,37 @@
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E65" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="F65" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="G65" t="s">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>14.14</v>
+        <v>-12.54</v>
       </c>
       <c r="L65" t="s">
         <v>53</v>
@@ -8019,27 +8217,27 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>406137033081</v>
-      </c>
-      <c r="S65">
-        <v>10074295741601</v>
+        <v>406142372232</v>
+      </c>
+      <c r="S65" t="s">
+        <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>164</v>
-      </c>
-      <c r="V65">
-        <v>1</v>
-      </c>
-      <c r="W65">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="V65" t="s">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>0</v>
+      </c>
+      <c r="X65" t="s">
         <v>0</v>
       </c>
       <c r="Y65" t="s">
@@ -8051,14 +8249,14 @@
       <c r="AA65" s="2">
         <v>0</v>
       </c>
-      <c r="AB65">
-        <v>-0.36</v>
-      </c>
-      <c r="AC65">
-        <v>-2.42</v>
-      </c>
-      <c r="AD65">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>0</v>
       </c>
       <c r="AE65" t="s">
         <v>0</v>
@@ -8070,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="AH65">
-        <v>16.989999999999998</v>
+        <v>-12.54</v>
       </c>
       <c r="AI65" t="s">
         <v>53</v>
@@ -8079,45 +8277,45 @@
         <v>0</v>
       </c>
       <c r="AK65" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="AL65" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="E66" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="F66" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="G66" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="H66" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="I66" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="J66" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K66">
-        <v>-10.86</v>
+        <v>66.17</v>
       </c>
       <c r="L66" t="s">
         <v>53</v>
@@ -8135,27 +8333,27 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="R66">
         <v>406142372232</v>
       </c>
-      <c r="S66" t="s">
-        <v>0</v>
+      <c r="S66">
+        <v>10074888146710</v>
       </c>
       <c r="T66" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="U66" t="s">
-        <v>0</v>
-      </c>
-      <c r="V66" t="s">
-        <v>0</v>
-      </c>
-      <c r="W66" t="s">
-        <v>0</v>
-      </c>
-      <c r="X66" t="s">
+        <v>136</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="X66">
         <v>0</v>
       </c>
       <c r="Y66" t="s">
@@ -8167,14 +8365,14 @@
       <c r="AA66" s="2">
         <v>0</v>
       </c>
-      <c r="AB66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>0</v>
+      <c r="AB66">
+        <v>-0.36</v>
+      </c>
+      <c r="AC66">
+        <v>-11.14</v>
+      </c>
+      <c r="AD66">
+        <v>-0.32</v>
       </c>
       <c r="AE66" t="s">
         <v>0</v>
@@ -8186,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="AH66">
-        <v>-10.86</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="AI66" t="s">
         <v>53</v>
@@ -8195,45 +8393,45 @@
         <v>0</v>
       </c>
       <c r="AK66" t="s">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="AL66" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="H67" t="s">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>66.17</v>
+        <v>-0.36</v>
       </c>
       <c r="L67" t="s">
         <v>53</v>
@@ -8251,27 +8449,27 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>406142372232</v>
-      </c>
-      <c r="S67">
-        <v>10074264573908</v>
+        <v>406145083503</v>
+      </c>
+      <c r="S67" t="s">
+        <v>0</v>
       </c>
       <c r="T67" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>136</v>
-      </c>
-      <c r="V67">
-        <v>1</v>
-      </c>
-      <c r="W67">
-        <v>77.989999999999995</v>
-      </c>
-      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="V67" t="s">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>0</v>
+      </c>
+      <c r="X67" t="s">
         <v>0</v>
       </c>
       <c r="Y67" t="s">
@@ -8283,27 +8481,27 @@
       <c r="AA67" s="2">
         <v>0</v>
       </c>
-      <c r="AB67">
+      <c r="AB67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH67">
         <v>-0.36</v>
       </c>
-      <c r="AC67">
-        <v>-11.14</v>
-      </c>
-      <c r="AD67">
-        <v>-0.32</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH67">
-        <v>77.989999999999995</v>
-      </c>
       <c r="AI67" t="s">
         <v>53</v>
       </c>
@@ -8311,30 +8509,30 @@
         <v>0</v>
       </c>
       <c r="AK67" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AL67" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B68" t="s">
         <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
         <v>0</v>
@@ -8349,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>-2.4500000000000002</v>
+        <v>-0.36</v>
       </c>
       <c r="L68" t="s">
         <v>53</v>
@@ -8370,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>406137033081</v>
+        <v>406144919691</v>
       </c>
       <c r="S68" t="s">
         <v>0</v>
@@ -8418,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="AH68">
-        <v>-2.4500000000000002</v>
+        <v>-0.36</v>
       </c>
       <c r="AI68" t="s">
         <v>53</v>
@@ -8427,45 +8625,45 @@
         <v>0</v>
       </c>
       <c r="AK68" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="AL68" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>14.14</v>
+        <v>-0.36</v>
       </c>
       <c r="L69" t="s">
         <v>53</v>
@@ -8483,27 +8681,27 @@
         <v>0</v>
       </c>
       <c r="Q69" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>406137033081</v>
-      </c>
-      <c r="S69">
-        <v>10074035360026</v>
+        <v>406144919691</v>
+      </c>
+      <c r="S69" t="s">
+        <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="U69" t="s">
-        <v>164</v>
-      </c>
-      <c r="V69">
-        <v>1</v>
-      </c>
-      <c r="W69">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="V69" t="s">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>0</v>
+      </c>
+      <c r="X69" t="s">
         <v>0</v>
       </c>
       <c r="Y69" t="s">
@@ -8515,27 +8713,27 @@
       <c r="AA69" s="2">
         <v>0</v>
       </c>
-      <c r="AB69">
+      <c r="AB69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH69">
         <v>-0.36</v>
       </c>
-      <c r="AC69">
-        <v>-2.42</v>
-      </c>
-      <c r="AD69">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH69">
-        <v>16.989999999999998</v>
-      </c>
       <c r="AI69" t="s">
         <v>53</v>
       </c>
@@ -8543,30 +8741,30 @@
         <v>0</v>
       </c>
       <c r="AK69" t="s">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AL69" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B70" t="s">
         <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
         <v>0</v>
@@ -8581,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>-10.86</v>
+        <v>-0.36</v>
       </c>
       <c r="L70" t="s">
         <v>53</v>
@@ -8602,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>406142372232</v>
+        <v>406144918827</v>
       </c>
       <c r="S70" t="s">
         <v>0</v>
@@ -8650,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="AH70">
-        <v>-10.86</v>
+        <v>-0.36</v>
       </c>
       <c r="AI70" t="s">
         <v>53</v>
@@ -8659,45 +8857,45 @@
         <v>0</v>
       </c>
       <c r="AK70" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="AL70" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>66.17</v>
+        <v>-0.36</v>
       </c>
       <c r="L71" t="s">
         <v>53</v>
@@ -8715,27 +8913,27 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>406142372232</v>
-      </c>
-      <c r="S71">
-        <v>10079299793207</v>
+        <v>406144852286</v>
+      </c>
+      <c r="S71" t="s">
+        <v>0</v>
       </c>
       <c r="T71" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="U71" t="s">
-        <v>136</v>
-      </c>
-      <c r="V71">
-        <v>1</v>
-      </c>
-      <c r="W71">
-        <v>77.989999999999995</v>
-      </c>
-      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="V71" t="s">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>0</v>
+      </c>
+      <c r="X71" t="s">
         <v>0</v>
       </c>
       <c r="Y71" t="s">
@@ -8747,27 +8945,27 @@
       <c r="AA71" s="2">
         <v>0</v>
       </c>
-      <c r="AB71">
+      <c r="AB71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH71">
         <v>-0.36</v>
       </c>
-      <c r="AC71">
-        <v>-11.14</v>
-      </c>
-      <c r="AD71">
-        <v>-0.32</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH71">
-        <v>77.989999999999995</v>
-      </c>
       <c r="AI71" t="s">
         <v>53</v>
       </c>
@@ -8775,30 +8973,30 @@
         <v>0</v>
       </c>
       <c r="AK71" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="AL71" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B72" t="s">
         <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
         <v>0</v>
@@ -8813,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>-2.38</v>
+        <v>-0.36</v>
       </c>
       <c r="L72" t="s">
         <v>53</v>
@@ -8834,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>406123550928</v>
+        <v>406144838249</v>
       </c>
       <c r="S72" t="s">
         <v>0</v>
@@ -8882,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="AH72">
-        <v>-2.38</v>
+        <v>-0.36</v>
       </c>
       <c r="AI72" t="s">
         <v>53</v>
@@ -8891,45 +9089,45 @@
         <v>0</v>
       </c>
       <c r="AK72" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="AL72" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>13.28</v>
+        <v>-0.36</v>
       </c>
       <c r="L73" t="s">
         <v>53</v>
@@ -8947,27 +9145,27 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>406123550928</v>
-      </c>
-      <c r="S73">
-        <v>10074416283105</v>
+        <v>406137004836</v>
+      </c>
+      <c r="S73" t="s">
+        <v>0</v>
       </c>
       <c r="T73" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U73" t="s">
-        <v>64</v>
-      </c>
-      <c r="V73">
-        <v>1</v>
-      </c>
-      <c r="W73">
-        <v>15.99</v>
-      </c>
-      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="V73" t="s">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>0</v>
+      </c>
+      <c r="X73" t="s">
         <v>0</v>
       </c>
       <c r="Y73" t="s">
@@ -8979,27 +9177,27 @@
       <c r="AA73" s="2">
         <v>0</v>
       </c>
-      <c r="AB73">
+      <c r="AB73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH73">
         <v>-0.36</v>
       </c>
-      <c r="AC73">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="AD73">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH73">
-        <v>15.99</v>
-      </c>
       <c r="AI73" t="s">
         <v>53</v>
       </c>
@@ -9007,30 +9205,30 @@
         <v>0</v>
       </c>
       <c r="AK73" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="AL73" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B74" t="s">
         <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="F74" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="G74" t="s">
         <v>0</v>
@@ -9045,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>-2.4500000000000002</v>
+        <v>-7.39</v>
       </c>
       <c r="L74" t="s">
         <v>53</v>
@@ -9066,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <v>406137033081</v>
+        <v>406141891482</v>
       </c>
       <c r="S74" t="s">
         <v>0</v>
@@ -9114,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="AH74">
-        <v>-2.4500000000000002</v>
+        <v>-7.39</v>
       </c>
       <c r="AI74" t="s">
         <v>53</v>
@@ -9123,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AK74" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="AL74" t="s">
         <v>107</v>
@@ -9131,37 +9329,37 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B75" t="s">
         <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="E75" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="F75" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="G75" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="J75" t="s">
         <v>55</v>
       </c>
       <c r="K75">
-        <v>14.14</v>
+        <v>48.07</v>
       </c>
       <c r="L75" t="s">
         <v>53</v>
@@ -9179,25 +9377,25 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="R75">
-        <v>406137033081</v>
+        <v>406141891482</v>
       </c>
       <c r="S75">
-        <v>10078372367827</v>
+        <v>10074874105119</v>
       </c>
       <c r="T75" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="U75" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="V75">
         <v>1</v>
       </c>
       <c r="W75">
-        <v>16.989999999999998</v>
+        <v>55.99</v>
       </c>
       <c r="X75">
         <v>0</v>
@@ -9215,10 +9413,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC75">
-        <v>-2.42</v>
+        <v>-7.32</v>
       </c>
       <c r="AD75">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="AE75" t="s">
         <v>0</v>
@@ -9230,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="AH75">
-        <v>16.989999999999998</v>
+        <v>55.99</v>
       </c>
       <c r="AI75" t="s">
         <v>53</v>
@@ -9247,22 +9445,22 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B76" t="s">
         <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="D76" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F76" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="G76" t="s">
         <v>0</v>
@@ -9277,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>-2.38</v>
+        <v>-7.39</v>
       </c>
       <c r="L76" t="s">
         <v>53</v>
@@ -9298,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="R76">
-        <v>406123550928</v>
+        <v>406141891482</v>
       </c>
       <c r="S76" t="s">
         <v>0</v>
@@ -9346,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="AH76">
-        <v>-2.38</v>
+        <v>-7.39</v>
       </c>
       <c r="AI76" t="s">
         <v>53</v>
@@ -9355,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="AK76" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="AL76" t="s">
         <v>107</v>
@@ -9363,37 +9561,37 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B77" t="s">
         <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F77" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="G77" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="H77" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="J77" t="s">
         <v>55</v>
       </c>
       <c r="K77">
-        <v>13.28</v>
+        <v>48.07</v>
       </c>
       <c r="L77" t="s">
         <v>53</v>
@@ -9411,25 +9609,25 @@
         <v>0</v>
       </c>
       <c r="Q77" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="R77">
-        <v>406123550928</v>
+        <v>406141891482</v>
       </c>
       <c r="S77">
-        <v>10074238395508</v>
+        <v>10075114385203</v>
       </c>
       <c r="T77" t="s">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="U77" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="V77">
         <v>1</v>
       </c>
       <c r="W77">
-        <v>15.99</v>
+        <v>55.99</v>
       </c>
       <c r="X77">
         <v>0</v>
@@ -9447,10 +9645,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC77">
-        <v>-2.2799999999999998</v>
+        <v>-7.32</v>
       </c>
       <c r="AD77">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="AE77" t="s">
         <v>0</v>
@@ -9462,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="AH77">
-        <v>15.99</v>
+        <v>55.99</v>
       </c>
       <c r="AI77" t="s">
         <v>53</v>
@@ -9479,22 +9677,22 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B78" t="s">
         <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="E78" t="s">
-        <v>204</v>
+        <v>293</v>
       </c>
       <c r="F78" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="G78" t="s">
         <v>0</v>
@@ -9509,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>-2.2599999999999998</v>
+        <v>-1.85</v>
       </c>
       <c r="L78" t="s">
         <v>53</v>
@@ -9578,7 +9776,7 @@
         <v>0</v>
       </c>
       <c r="AH78">
-        <v>-2.2599999999999998</v>
+        <v>-1.85</v>
       </c>
       <c r="AI78" t="s">
         <v>53</v>
@@ -9587,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="AK78" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="AL78" t="s">
         <v>107</v>
@@ -9595,37 +9793,37 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B79" t="s">
         <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="D79" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="E79" t="s">
-        <v>204</v>
+        <v>293</v>
       </c>
       <c r="F79" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="G79" t="s">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="H79" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="I79" t="s">
-        <v>209</v>
+        <v>297</v>
       </c>
       <c r="J79" t="s">
         <v>55</v>
       </c>
       <c r="K79">
-        <v>12.6</v>
+        <v>13.28</v>
       </c>
       <c r="L79" t="s">
         <v>53</v>
@@ -9643,13 +9841,13 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="R79">
         <v>406123550928</v>
       </c>
       <c r="S79">
-        <v>10074173824220</v>
+        <v>10074223009620</v>
       </c>
       <c r="T79" t="s">
         <v>63</v>
@@ -9661,7 +9859,7 @@
         <v>1</v>
       </c>
       <c r="W79">
-        <v>15.19</v>
+        <v>15.99</v>
       </c>
       <c r="X79">
         <v>0</v>
@@ -9679,10 +9877,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC79">
-        <v>-2.17</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="AD79">
-        <v>-0.06</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE79" t="s">
         <v>0</v>
@@ -9694,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="AH79">
-        <v>15.19</v>
+        <v>15.99</v>
       </c>
       <c r="AI79" t="s">
         <v>53</v>
@@ -9711,22 +9909,22 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B80" t="s">
         <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="G80" t="s">
         <v>0</v>
@@ -9741,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>-4.96</v>
+        <v>-1.84</v>
       </c>
       <c r="L80" t="s">
         <v>53</v>
@@ -9810,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="AH80">
-        <v>-4.96</v>
+        <v>-1.84</v>
       </c>
       <c r="AI80" t="s">
         <v>53</v>
@@ -9819,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="AK80" t="s">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="AL80" t="s">
         <v>107</v>
@@ -9827,37 +10025,37 @@
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>211</v>
+        <v>298</v>
       </c>
       <c r="D81" t="s">
-        <v>211</v>
+        <v>298</v>
       </c>
       <c r="E81" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="F81" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="G81" t="s">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="H81" t="s">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="I81" t="s">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="J81" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K81">
-        <v>-12.54</v>
+        <v>14.14</v>
       </c>
       <c r="L81" t="s">
         <v>53</v>
@@ -9875,27 +10073,27 @@
         <v>0</v>
       </c>
       <c r="Q81" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="R81">
-        <v>406142372232</v>
-      </c>
-      <c r="S81" t="s">
-        <v>0</v>
+        <v>406137033081</v>
+      </c>
+      <c r="S81">
+        <v>10079401561821</v>
       </c>
       <c r="T81" t="s">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="U81" t="s">
-        <v>0</v>
-      </c>
-      <c r="V81" t="s">
-        <v>0</v>
-      </c>
-      <c r="W81" t="s">
-        <v>0</v>
-      </c>
-      <c r="X81" t="s">
+        <v>305</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="X81">
         <v>0</v>
       </c>
       <c r="Y81" t="s">
@@ -9907,14 +10105,14 @@
       <c r="AA81" s="2">
         <v>0</v>
       </c>
-      <c r="AB81" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD81" t="s">
-        <v>0</v>
+      <c r="AB81">
+        <v>-0.36</v>
+      </c>
+      <c r="AC81">
+        <v>-2.42</v>
+      </c>
+      <c r="AD81">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE81" t="s">
         <v>0</v>
@@ -9926,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="AH81">
-        <v>-12.54</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="AI81" t="s">
         <v>53</v>
@@ -9935,45 +10133,45 @@
         <v>0</v>
       </c>
       <c r="AK81" t="s">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="AL81" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="D82" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="E82" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="F82" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="G82" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>66.17</v>
+        <v>-0.76</v>
       </c>
       <c r="L82" t="s">
         <v>53</v>
@@ -9991,27 +10189,27 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>406142372232</v>
-      </c>
-      <c r="S82">
-        <v>10074888146710</v>
+        <v>406145083503</v>
+      </c>
+      <c r="S82" t="s">
+        <v>0</v>
       </c>
       <c r="T82" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>136</v>
-      </c>
-      <c r="V82">
-        <v>1</v>
-      </c>
-      <c r="W82">
-        <v>77.989999999999995</v>
-      </c>
-      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="V82" t="s">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>0</v>
+      </c>
+      <c r="X82" t="s">
         <v>0</v>
       </c>
       <c r="Y82" t="s">
@@ -10023,14 +10221,14 @@
       <c r="AA82" s="2">
         <v>0</v>
       </c>
-      <c r="AB82">
-        <v>-0.36</v>
-      </c>
-      <c r="AC82">
-        <v>-11.14</v>
-      </c>
-      <c r="AD82">
-        <v>-0.32</v>
+      <c r="AB82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>0</v>
       </c>
       <c r="AE82" t="s">
         <v>0</v>
@@ -10042,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="AH82">
-        <v>77.989999999999995</v>
+        <v>-0.76</v>
       </c>
       <c r="AI82" t="s">
         <v>53</v>
@@ -10051,45 +10249,45 @@
         <v>0</v>
       </c>
       <c r="AK82" t="s">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="AL82" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="D83" t="s">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="E83" t="s">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="F83" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G83" t="s">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="H83" t="s">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="I83" t="s">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="J83" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K83">
-        <v>-0.36</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="L83" t="s">
         <v>53</v>
@@ -10107,27 +10305,27 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="R83">
         <v>406145083503</v>
       </c>
-      <c r="S83" t="s">
-        <v>0</v>
+      <c r="S83">
+        <v>10074937301710</v>
       </c>
       <c r="T83" t="s">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="U83" t="s">
-        <v>0</v>
-      </c>
-      <c r="V83" t="s">
-        <v>0</v>
-      </c>
-      <c r="W83" t="s">
-        <v>0</v>
-      </c>
-      <c r="X83" t="s">
+        <v>314</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
+      <c r="W83">
+        <v>5.45</v>
+      </c>
+      <c r="X83">
         <v>0</v>
       </c>
       <c r="Y83" t="s">
@@ -10139,14 +10337,14 @@
       <c r="AA83" s="2">
         <v>0</v>
       </c>
-      <c r="AB83" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>0</v>
+      <c r="AB83">
+        <v>-0.36</v>
+      </c>
+      <c r="AC83">
+        <v>-0.71</v>
+      </c>
+      <c r="AD83">
+        <v>-0.02</v>
       </c>
       <c r="AE83" t="s">
         <v>0</v>
@@ -10158,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="AH83">
-        <v>-0.36</v>
+        <v>5.45</v>
       </c>
       <c r="AI83" t="s">
         <v>53</v>
@@ -10167,30 +10365,30 @@
         <v>0</v>
       </c>
       <c r="AK83" t="s">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="AL83" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B84" t="s">
         <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D84" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="E84" t="s">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="F84" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="G84" t="s">
         <v>0</v>
@@ -10205,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>-0.36</v>
+        <v>-1.85</v>
       </c>
       <c r="L84" t="s">
         <v>53</v>
@@ -10226,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>406144919691</v>
+        <v>406123550928</v>
       </c>
       <c r="S84" t="s">
         <v>0</v>
@@ -10274,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="AH84">
-        <v>-0.36</v>
+        <v>-1.85</v>
       </c>
       <c r="AI84" t="s">
         <v>53</v>
@@ -10283,30 +10481,30 @@
         <v>0</v>
       </c>
       <c r="AK84" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="AL84" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B85" t="s">
         <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="D85" t="s">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="E85" t="s">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="F85" t="s">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="G85" t="s">
         <v>0</v>
@@ -10321,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>-0.36</v>
+        <v>-1.85</v>
       </c>
       <c r="L85" t="s">
         <v>53</v>
@@ -10342,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="R85">
-        <v>406144919691</v>
+        <v>406123550928</v>
       </c>
       <c r="S85" t="s">
         <v>0</v>
@@ -10390,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="AH85">
-        <v>-0.36</v>
+        <v>-1.85</v>
       </c>
       <c r="AI85" t="s">
         <v>53</v>
@@ -10399,102 +10597,102 @@
         <v>0</v>
       </c>
       <c r="AK85" t="s">
-        <v>219</v>
+        <v>322</v>
       </c>
       <c r="AL85" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D86" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="E86" t="s">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="F86" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="G86" t="s">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="H86" t="s">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="I86" t="s">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J86" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K86">
+        <v>13.28</v>
+      </c>
+      <c r="L86" t="s">
+        <v>53</v>
+      </c>
+      <c r="M86" t="s">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
+        <v>0</v>
+      </c>
+      <c r="P86" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>231</v>
+      </c>
+      <c r="R86">
+        <v>406123550928</v>
+      </c>
+      <c r="S86">
+        <v>10078410597327</v>
+      </c>
+      <c r="T86" t="s">
+        <v>63</v>
+      </c>
+      <c r="U86" t="s">
+        <v>64</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>15.99</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB86">
         <v>-0.36</v>
       </c>
-      <c r="L86" t="s">
-        <v>53</v>
-      </c>
-      <c r="M86" t="s">
-        <v>0</v>
-      </c>
-      <c r="N86" t="s">
-        <v>0</v>
-      </c>
-      <c r="O86" t="s">
-        <v>0</v>
-      </c>
-      <c r="P86" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>406144918827</v>
-      </c>
-      <c r="S86" t="s">
-        <v>0</v>
-      </c>
-      <c r="T86" t="s">
-        <v>0</v>
-      </c>
-      <c r="U86" t="s">
-        <v>0</v>
-      </c>
-      <c r="V86" t="s">
-        <v>0</v>
-      </c>
-      <c r="W86" t="s">
-        <v>0</v>
-      </c>
-      <c r="X86" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>0</v>
+      <c r="AC86">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD86">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE86" t="s">
         <v>0</v>
@@ -10506,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="AH86">
-        <v>-0.36</v>
+        <v>15.99</v>
       </c>
       <c r="AI86" t="s">
         <v>53</v>
@@ -10515,102 +10713,102 @@
         <v>0</v>
       </c>
       <c r="AK86" t="s">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AL86" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C87" t="s">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="D87" t="s">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="E87" t="s">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="F87" t="s">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="G87" t="s">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="H87" t="s">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I87" t="s">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="J87" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K87">
+        <v>13.28</v>
+      </c>
+      <c r="L87" t="s">
+        <v>53</v>
+      </c>
+      <c r="M87" t="s">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>231</v>
+      </c>
+      <c r="R87">
+        <v>406123550928</v>
+      </c>
+      <c r="S87">
+        <v>10074279260108</v>
+      </c>
+      <c r="T87" t="s">
+        <v>63</v>
+      </c>
+      <c r="U87" t="s">
+        <v>64</v>
+      </c>
+      <c r="V87">
+        <v>1</v>
+      </c>
+      <c r="W87">
+        <v>15.99</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB87">
         <v>-0.36</v>
       </c>
-      <c r="L87" t="s">
-        <v>53</v>
-      </c>
-      <c r="M87" t="s">
-        <v>0</v>
-      </c>
-      <c r="N87" t="s">
-        <v>0</v>
-      </c>
-      <c r="O87" t="s">
-        <v>0</v>
-      </c>
-      <c r="P87" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>406144852286</v>
-      </c>
-      <c r="S87" t="s">
-        <v>0</v>
-      </c>
-      <c r="T87" t="s">
-        <v>0</v>
-      </c>
-      <c r="U87" t="s">
-        <v>0</v>
-      </c>
-      <c r="V87" t="s">
-        <v>0</v>
-      </c>
-      <c r="W87" t="s">
-        <v>0</v>
-      </c>
-      <c r="X87" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA87" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB87" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC87" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD87" t="s">
-        <v>0</v>
+      <c r="AC87">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD87">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE87" t="s">
         <v>0</v>
@@ -10622,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="AH87">
-        <v>-0.36</v>
+        <v>15.99</v>
       </c>
       <c r="AI87" t="s">
         <v>53</v>
@@ -10631,15 +10829,15 @@
         <v>0</v>
       </c>
       <c r="AK87" t="s">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="AL87" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B88" t="s">
         <v>52</v>
@@ -10690,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <v>406144838249</v>
+        <v>406150707028</v>
       </c>
       <c r="S88" t="s">
         <v>0</v>
@@ -10747,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="AK88" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="AL88" t="s">
         <v>66</v>
@@ -10755,7 +10953,7 @@
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B89" t="s">
         <v>52</v>
@@ -10806,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="R89">
-        <v>406137004836</v>
+        <v>406150688920</v>
       </c>
       <c r="S89" t="s">
         <v>0</v>
@@ -10863,10 +11061,2794 @@
         <v>0</v>
       </c>
       <c r="AK89" t="s">
-        <v>223</v>
+        <v>328</v>
       </c>
       <c r="AL89" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>-0.36</v>
+      </c>
+      <c r="L90" t="s">
+        <v>53</v>
+      </c>
+      <c r="M90" t="s">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>0</v>
+      </c>
+      <c r="O90" t="s">
+        <v>0</v>
+      </c>
+      <c r="P90" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>406150688920</v>
+      </c>
+      <c r="S90" t="s">
+        <v>0</v>
+      </c>
+      <c r="T90" t="s">
+        <v>0</v>
+      </c>
+      <c r="U90" t="s">
+        <v>0</v>
+      </c>
+      <c r="V90" t="s">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>0</v>
+      </c>
+      <c r="X90" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>-0.36</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B91" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>-0.35</v>
+      </c>
+      <c r="L91" t="s">
+        <v>53</v>
+      </c>
+      <c r="M91" t="s">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>0</v>
+      </c>
+      <c r="O91" t="s">
+        <v>0</v>
+      </c>
+      <c r="P91" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>406144852286</v>
+      </c>
+      <c r="S91" t="s">
+        <v>0</v>
+      </c>
+      <c r="T91" t="s">
+        <v>0</v>
+      </c>
+      <c r="U91" t="s">
+        <v>0</v>
+      </c>
+      <c r="V91" t="s">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>0</v>
+      </c>
+      <c r="X91" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>-0.35</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" t="s">
+        <v>332</v>
+      </c>
+      <c r="D92" t="s">
+        <v>332</v>
+      </c>
+      <c r="E92" t="s">
+        <v>333</v>
+      </c>
+      <c r="F92" t="s">
+        <v>334</v>
+      </c>
+      <c r="G92" t="s">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>-7.39</v>
+      </c>
+      <c r="L92" t="s">
+        <v>53</v>
+      </c>
+      <c r="M92" t="s">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>0</v>
+      </c>
+      <c r="O92" t="s">
+        <v>0</v>
+      </c>
+      <c r="P92" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>406141891482</v>
+      </c>
+      <c r="S92" t="s">
+        <v>0</v>
+      </c>
+      <c r="T92" t="s">
+        <v>0</v>
+      </c>
+      <c r="U92" t="s">
+        <v>0</v>
+      </c>
+      <c r="V92" t="s">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>0</v>
+      </c>
+      <c r="X92" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>-7.39</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" t="s">
+        <v>332</v>
+      </c>
+      <c r="D93" t="s">
+        <v>332</v>
+      </c>
+      <c r="E93" t="s">
+        <v>333</v>
+      </c>
+      <c r="F93" t="s">
+        <v>334</v>
+      </c>
+      <c r="G93" t="s">
+        <v>336</v>
+      </c>
+      <c r="H93" t="s">
+        <v>311</v>
+      </c>
+      <c r="I93" t="s">
+        <v>337</v>
+      </c>
+      <c r="J93" t="s">
+        <v>55</v>
+      </c>
+      <c r="K93">
+        <v>48.07</v>
+      </c>
+      <c r="L93" t="s">
+        <v>53</v>
+      </c>
+      <c r="M93" t="s">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>0</v>
+      </c>
+      <c r="O93" t="s">
+        <v>0</v>
+      </c>
+      <c r="P93" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>231</v>
+      </c>
+      <c r="R93">
+        <v>406141891482</v>
+      </c>
+      <c r="S93">
+        <v>10075122007206</v>
+      </c>
+      <c r="T93" t="s">
+        <v>232</v>
+      </c>
+      <c r="U93" t="s">
+        <v>233</v>
+      </c>
+      <c r="V93">
+        <v>1</v>
+      </c>
+      <c r="W93">
+        <v>55.99</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>-0.36</v>
+      </c>
+      <c r="AC93">
+        <v>-7.32</v>
+      </c>
+      <c r="AD93">
+        <v>-0.24</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>55.99</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>-0.36</v>
+      </c>
+      <c r="L94" t="s">
+        <v>53</v>
+      </c>
+      <c r="M94" t="s">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>0</v>
+      </c>
+      <c r="P94" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>406150211733</v>
+      </c>
+      <c r="S94" t="s">
+        <v>0</v>
+      </c>
+      <c r="T94" t="s">
+        <v>0</v>
+      </c>
+      <c r="U94" t="s">
+        <v>0</v>
+      </c>
+      <c r="V94" t="s">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>0</v>
+      </c>
+      <c r="X94" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>-0.36</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B95" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" t="s">
+        <v>339</v>
+      </c>
+      <c r="D95" t="s">
+        <v>339</v>
+      </c>
+      <c r="E95" t="s">
+        <v>340</v>
+      </c>
+      <c r="F95" t="s">
+        <v>341</v>
+      </c>
+      <c r="G95" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>-1.85</v>
+      </c>
+      <c r="L95" t="s">
+        <v>53</v>
+      </c>
+      <c r="M95" t="s">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
+        <v>0</v>
+      </c>
+      <c r="O95" t="s">
+        <v>0</v>
+      </c>
+      <c r="P95" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>406123550928</v>
+      </c>
+      <c r="S95" t="s">
+        <v>0</v>
+      </c>
+      <c r="T95" t="s">
+        <v>0</v>
+      </c>
+      <c r="U95" t="s">
+        <v>0</v>
+      </c>
+      <c r="V95" t="s">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>0</v>
+      </c>
+      <c r="X95" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>-1.85</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B96" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" t="s">
+        <v>339</v>
+      </c>
+      <c r="D96" t="s">
+        <v>339</v>
+      </c>
+      <c r="E96" t="s">
+        <v>340</v>
+      </c>
+      <c r="F96" t="s">
+        <v>341</v>
+      </c>
+      <c r="G96" t="s">
+        <v>343</v>
+      </c>
+      <c r="H96" t="s">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>344</v>
+      </c>
+      <c r="J96" t="s">
+        <v>55</v>
+      </c>
+      <c r="K96">
+        <v>13.28</v>
+      </c>
+      <c r="L96" t="s">
+        <v>53</v>
+      </c>
+      <c r="M96" t="s">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
+        <v>0</v>
+      </c>
+      <c r="O96" t="s">
+        <v>0</v>
+      </c>
+      <c r="P96" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>231</v>
+      </c>
+      <c r="R96">
+        <v>406123550928</v>
+      </c>
+      <c r="S96">
+        <v>10077902289018</v>
+      </c>
+      <c r="T96" t="s">
+        <v>63</v>
+      </c>
+      <c r="U96" t="s">
+        <v>64</v>
+      </c>
+      <c r="V96">
+        <v>1</v>
+      </c>
+      <c r="W96">
+        <v>15.99</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>-0.36</v>
+      </c>
+      <c r="AC96">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD96">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>15.99</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK96" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>-0.36</v>
+      </c>
+      <c r="L97" t="s">
+        <v>53</v>
+      </c>
+      <c r="M97" t="s">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>0</v>
+      </c>
+      <c r="O97" t="s">
+        <v>0</v>
+      </c>
+      <c r="P97" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>406150127730</v>
+      </c>
+      <c r="S97" t="s">
+        <v>0</v>
+      </c>
+      <c r="T97" t="s">
+        <v>0</v>
+      </c>
+      <c r="U97" t="s">
+        <v>0</v>
+      </c>
+      <c r="V97" t="s">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>0</v>
+      </c>
+      <c r="X97" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH97">
+        <v>-0.36</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK97" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B98" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" t="s">
+        <v>224</v>
+      </c>
+      <c r="E98" t="s">
+        <v>225</v>
+      </c>
+      <c r="F98" t="s">
+        <v>226</v>
+      </c>
+      <c r="G98" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>-15.14</v>
+      </c>
+      <c r="L98" t="s">
+        <v>53</v>
+      </c>
+      <c r="M98" t="s">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
+        <v>0</v>
+      </c>
+      <c r="P98" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>406141891482</v>
+      </c>
+      <c r="S98" t="s">
+        <v>0</v>
+      </c>
+      <c r="T98" t="s">
+        <v>0</v>
+      </c>
+      <c r="U98" t="s">
+        <v>0</v>
+      </c>
+      <c r="V98" t="s">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>0</v>
+      </c>
+      <c r="X98" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>-15.14</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B99" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" t="s">
+        <v>224</v>
+      </c>
+      <c r="D99" t="s">
+        <v>224</v>
+      </c>
+      <c r="E99" t="s">
+        <v>225</v>
+      </c>
+      <c r="F99" t="s">
+        <v>226</v>
+      </c>
+      <c r="G99" t="s">
+        <v>228</v>
+      </c>
+      <c r="H99" t="s">
+        <v>229</v>
+      </c>
+      <c r="I99" t="s">
+        <v>230</v>
+      </c>
+      <c r="J99" t="s">
+        <v>55</v>
+      </c>
+      <c r="K99">
+        <v>94.57</v>
+      </c>
+      <c r="L99" t="s">
+        <v>53</v>
+      </c>
+      <c r="M99" t="s">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>0</v>
+      </c>
+      <c r="O99" t="s">
+        <v>0</v>
+      </c>
+      <c r="P99" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>231</v>
+      </c>
+      <c r="R99">
+        <v>406141891482</v>
+      </c>
+      <c r="S99">
+        <v>10079387786521</v>
+      </c>
+      <c r="T99" t="s">
+        <v>232</v>
+      </c>
+      <c r="U99" t="s">
+        <v>233</v>
+      </c>
+      <c r="V99">
+        <v>2</v>
+      </c>
+      <c r="W99">
+        <v>109.74</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>-0.36</v>
+      </c>
+      <c r="AC99">
+        <v>-14.35</v>
+      </c>
+      <c r="AD99">
+        <v>-0.46</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>109.74</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK99" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B100" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" t="s">
+        <v>234</v>
+      </c>
+      <c r="E100" t="s">
+        <v>235</v>
+      </c>
+      <c r="F100" t="s">
+        <v>236</v>
+      </c>
+      <c r="G100" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>-10.86</v>
+      </c>
+      <c r="L100" t="s">
+        <v>53</v>
+      </c>
+      <c r="M100" t="s">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>0</v>
+      </c>
+      <c r="O100" t="s">
+        <v>0</v>
+      </c>
+      <c r="P100" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>406142372232</v>
+      </c>
+      <c r="S100" t="s">
+        <v>0</v>
+      </c>
+      <c r="T100" t="s">
+        <v>0</v>
+      </c>
+      <c r="U100" t="s">
+        <v>0</v>
+      </c>
+      <c r="V100" t="s">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>0</v>
+      </c>
+      <c r="X100" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>-10.86</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B101" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" t="s">
+        <v>234</v>
+      </c>
+      <c r="E101" t="s">
+        <v>235</v>
+      </c>
+      <c r="F101" t="s">
+        <v>236</v>
+      </c>
+      <c r="G101" t="s">
+        <v>238</v>
+      </c>
+      <c r="H101" t="s">
+        <v>239</v>
+      </c>
+      <c r="I101" t="s">
+        <v>240</v>
+      </c>
+      <c r="J101" t="s">
+        <v>55</v>
+      </c>
+      <c r="K101">
+        <v>66.17</v>
+      </c>
+      <c r="L101" t="s">
+        <v>53</v>
+      </c>
+      <c r="M101" t="s">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
+        <v>0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>0</v>
+      </c>
+      <c r="P101" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>231</v>
+      </c>
+      <c r="R101">
+        <v>406142372232</v>
+      </c>
+      <c r="S101">
+        <v>10074198260809</v>
+      </c>
+      <c r="T101" t="s">
+        <v>135</v>
+      </c>
+      <c r="U101" t="s">
+        <v>136</v>
+      </c>
+      <c r="V101">
+        <v>1</v>
+      </c>
+      <c r="W101">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>-0.36</v>
+      </c>
+      <c r="AC101">
+        <v>-11.14</v>
+      </c>
+      <c r="AD101">
+        <v>-0.32</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK101" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" t="s">
+        <v>241</v>
+      </c>
+      <c r="D102" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" t="s">
+        <v>242</v>
+      </c>
+      <c r="F102" t="s">
+        <v>243</v>
+      </c>
+      <c r="G102" t="s">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>-2.38</v>
+      </c>
+      <c r="L102" t="s">
+        <v>53</v>
+      </c>
+      <c r="M102" t="s">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>0</v>
+      </c>
+      <c r="P102" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>406123550928</v>
+      </c>
+      <c r="S102" t="s">
+        <v>0</v>
+      </c>
+      <c r="T102" t="s">
+        <v>0</v>
+      </c>
+      <c r="U102" t="s">
+        <v>0</v>
+      </c>
+      <c r="V102" t="s">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>0</v>
+      </c>
+      <c r="X102" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>-2.38</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK102" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B103" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" t="s">
+        <v>241</v>
+      </c>
+      <c r="D103" t="s">
+        <v>241</v>
+      </c>
+      <c r="E103" t="s">
+        <v>242</v>
+      </c>
+      <c r="F103" t="s">
+        <v>243</v>
+      </c>
+      <c r="G103" t="s">
+        <v>245</v>
+      </c>
+      <c r="H103" t="s">
+        <v>246</v>
+      </c>
+      <c r="I103" t="s">
+        <v>247</v>
+      </c>
+      <c r="J103" t="s">
+        <v>55</v>
+      </c>
+      <c r="K103">
+        <v>13.28</v>
+      </c>
+      <c r="L103" t="s">
+        <v>53</v>
+      </c>
+      <c r="M103" t="s">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
+        <v>0</v>
+      </c>
+      <c r="O103" t="s">
+        <v>0</v>
+      </c>
+      <c r="P103" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>248</v>
+      </c>
+      <c r="R103">
+        <v>406123550928</v>
+      </c>
+      <c r="S103">
+        <v>10074466932422</v>
+      </c>
+      <c r="T103" t="s">
+        <v>63</v>
+      </c>
+      <c r="U103" t="s">
+        <v>64</v>
+      </c>
+      <c r="V103">
+        <v>1</v>
+      </c>
+      <c r="W103">
+        <v>15.99</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>-0.36</v>
+      </c>
+      <c r="AC103">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD103">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <v>15.99</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B104" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" t="s">
+        <v>249</v>
+      </c>
+      <c r="D104" t="s">
+        <v>249</v>
+      </c>
+      <c r="E104" t="s">
+        <v>250</v>
+      </c>
+      <c r="F104" t="s">
+        <v>251</v>
+      </c>
+      <c r="G104" t="s">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="L104" t="s">
+        <v>53</v>
+      </c>
+      <c r="M104" t="s">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
+        <v>0</v>
+      </c>
+      <c r="O104" t="s">
+        <v>0</v>
+      </c>
+      <c r="P104" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>406137033081</v>
+      </c>
+      <c r="S104" t="s">
+        <v>0</v>
+      </c>
+      <c r="T104" t="s">
+        <v>0</v>
+      </c>
+      <c r="U104" t="s">
+        <v>0</v>
+      </c>
+      <c r="V104" t="s">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>0</v>
+      </c>
+      <c r="X104" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ104" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK104" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B105" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" t="s">
+        <v>249</v>
+      </c>
+      <c r="D105" t="s">
+        <v>249</v>
+      </c>
+      <c r="E105" t="s">
+        <v>250</v>
+      </c>
+      <c r="F105" t="s">
+        <v>251</v>
+      </c>
+      <c r="G105" t="s">
+        <v>253</v>
+      </c>
+      <c r="H105" t="s">
+        <v>140</v>
+      </c>
+      <c r="I105" t="s">
+        <v>254</v>
+      </c>
+      <c r="J105" t="s">
+        <v>55</v>
+      </c>
+      <c r="K105">
+        <v>14.14</v>
+      </c>
+      <c r="L105" t="s">
+        <v>53</v>
+      </c>
+      <c r="M105" t="s">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
+        <v>0</v>
+      </c>
+      <c r="O105" t="s">
+        <v>0</v>
+      </c>
+      <c r="P105" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>248</v>
+      </c>
+      <c r="R105">
+        <v>406137033081</v>
+      </c>
+      <c r="S105">
+        <v>10074295741601</v>
+      </c>
+      <c r="T105" t="s">
+        <v>163</v>
+      </c>
+      <c r="U105" t="s">
+        <v>164</v>
+      </c>
+      <c r="V105">
+        <v>1</v>
+      </c>
+      <c r="W105">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>-0.36</v>
+      </c>
+      <c r="AC105">
+        <v>-2.42</v>
+      </c>
+      <c r="AD105">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK105" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" t="s">
+        <v>255</v>
+      </c>
+      <c r="D106" t="s">
+        <v>255</v>
+      </c>
+      <c r="E106" t="s">
+        <v>256</v>
+      </c>
+      <c r="F106" t="s">
+        <v>257</v>
+      </c>
+      <c r="G106" t="s">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>-10.86</v>
+      </c>
+      <c r="L106" t="s">
+        <v>53</v>
+      </c>
+      <c r="M106" t="s">
+        <v>0</v>
+      </c>
+      <c r="N106" t="s">
+        <v>0</v>
+      </c>
+      <c r="O106" t="s">
+        <v>0</v>
+      </c>
+      <c r="P106" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>406142372232</v>
+      </c>
+      <c r="S106" t="s">
+        <v>0</v>
+      </c>
+      <c r="T106" t="s">
+        <v>0</v>
+      </c>
+      <c r="U106" t="s">
+        <v>0</v>
+      </c>
+      <c r="V106" t="s">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>0</v>
+      </c>
+      <c r="X106" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH106">
+        <v>-10.86</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK106" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" t="s">
+        <v>255</v>
+      </c>
+      <c r="D107" t="s">
+        <v>255</v>
+      </c>
+      <c r="E107" t="s">
+        <v>256</v>
+      </c>
+      <c r="F107" t="s">
+        <v>257</v>
+      </c>
+      <c r="G107" t="s">
+        <v>259</v>
+      </c>
+      <c r="H107" t="s">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>260</v>
+      </c>
+      <c r="J107" t="s">
+        <v>55</v>
+      </c>
+      <c r="K107">
+        <v>66.17</v>
+      </c>
+      <c r="L107" t="s">
+        <v>53</v>
+      </c>
+      <c r="M107" t="s">
+        <v>0</v>
+      </c>
+      <c r="N107" t="s">
+        <v>0</v>
+      </c>
+      <c r="O107" t="s">
+        <v>0</v>
+      </c>
+      <c r="P107" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>248</v>
+      </c>
+      <c r="R107">
+        <v>406142372232</v>
+      </c>
+      <c r="S107">
+        <v>10074264573908</v>
+      </c>
+      <c r="T107" t="s">
+        <v>135</v>
+      </c>
+      <c r="U107" t="s">
+        <v>136</v>
+      </c>
+      <c r="V107">
+        <v>1</v>
+      </c>
+      <c r="W107">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>-0.36</v>
+      </c>
+      <c r="AC107">
+        <v>-11.14</v>
+      </c>
+      <c r="AD107">
+        <v>-0.32</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF107" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH107">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ107" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK107" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" t="s">
+        <v>261</v>
+      </c>
+      <c r="D108" t="s">
+        <v>261</v>
+      </c>
+      <c r="E108" t="s">
+        <v>262</v>
+      </c>
+      <c r="F108" t="s">
+        <v>263</v>
+      </c>
+      <c r="G108" t="s">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="L108" t="s">
+        <v>53</v>
+      </c>
+      <c r="M108" t="s">
+        <v>0</v>
+      </c>
+      <c r="N108" t="s">
+        <v>0</v>
+      </c>
+      <c r="O108" t="s">
+        <v>0</v>
+      </c>
+      <c r="P108" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>406137033081</v>
+      </c>
+      <c r="S108" t="s">
+        <v>0</v>
+      </c>
+      <c r="T108" t="s">
+        <v>0</v>
+      </c>
+      <c r="U108" t="s">
+        <v>0</v>
+      </c>
+      <c r="V108" t="s">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>0</v>
+      </c>
+      <c r="X108" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK108" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B109" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" t="s">
+        <v>261</v>
+      </c>
+      <c r="D109" t="s">
+        <v>261</v>
+      </c>
+      <c r="E109" t="s">
+        <v>262</v>
+      </c>
+      <c r="F109" t="s">
+        <v>263</v>
+      </c>
+      <c r="G109" t="s">
+        <v>253</v>
+      </c>
+      <c r="H109" t="s">
+        <v>140</v>
+      </c>
+      <c r="I109" t="s">
+        <v>265</v>
+      </c>
+      <c r="J109" t="s">
+        <v>55</v>
+      </c>
+      <c r="K109">
+        <v>14.14</v>
+      </c>
+      <c r="L109" t="s">
+        <v>53</v>
+      </c>
+      <c r="M109" t="s">
+        <v>0</v>
+      </c>
+      <c r="N109" t="s">
+        <v>0</v>
+      </c>
+      <c r="O109" t="s">
+        <v>0</v>
+      </c>
+      <c r="P109" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>248</v>
+      </c>
+      <c r="R109">
+        <v>406137033081</v>
+      </c>
+      <c r="S109">
+        <v>10074035360026</v>
+      </c>
+      <c r="T109" t="s">
+        <v>163</v>
+      </c>
+      <c r="U109" t="s">
+        <v>164</v>
+      </c>
+      <c r="V109">
+        <v>1</v>
+      </c>
+      <c r="W109">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>-0.36</v>
+      </c>
+      <c r="AC109">
+        <v>-2.42</v>
+      </c>
+      <c r="AD109">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH109">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK109" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B110" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" t="s">
+        <v>266</v>
+      </c>
+      <c r="D110" t="s">
+        <v>266</v>
+      </c>
+      <c r="E110" t="s">
+        <v>267</v>
+      </c>
+      <c r="F110" t="s">
+        <v>268</v>
+      </c>
+      <c r="G110" t="s">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>-10.86</v>
+      </c>
+      <c r="L110" t="s">
+        <v>53</v>
+      </c>
+      <c r="M110" t="s">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
+        <v>0</v>
+      </c>
+      <c r="O110" t="s">
+        <v>0</v>
+      </c>
+      <c r="P110" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>406142372232</v>
+      </c>
+      <c r="S110" t="s">
+        <v>0</v>
+      </c>
+      <c r="T110" t="s">
+        <v>0</v>
+      </c>
+      <c r="U110" t="s">
+        <v>0</v>
+      </c>
+      <c r="V110" t="s">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>0</v>
+      </c>
+      <c r="X110" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>-10.86</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK110" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B111" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" t="s">
+        <v>266</v>
+      </c>
+      <c r="D111" t="s">
+        <v>266</v>
+      </c>
+      <c r="E111" t="s">
+        <v>267</v>
+      </c>
+      <c r="F111" t="s">
+        <v>268</v>
+      </c>
+      <c r="G111" t="s">
+        <v>270</v>
+      </c>
+      <c r="H111" t="s">
+        <v>271</v>
+      </c>
+      <c r="I111" t="s">
+        <v>272</v>
+      </c>
+      <c r="J111" t="s">
+        <v>55</v>
+      </c>
+      <c r="K111">
+        <v>66.17</v>
+      </c>
+      <c r="L111" t="s">
+        <v>53</v>
+      </c>
+      <c r="M111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N111" t="s">
+        <v>0</v>
+      </c>
+      <c r="O111" t="s">
+        <v>0</v>
+      </c>
+      <c r="P111" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>248</v>
+      </c>
+      <c r="R111">
+        <v>406142372232</v>
+      </c>
+      <c r="S111">
+        <v>10079299793207</v>
+      </c>
+      <c r="T111" t="s">
+        <v>135</v>
+      </c>
+      <c r="U111" t="s">
+        <v>136</v>
+      </c>
+      <c r="V111">
+        <v>1</v>
+      </c>
+      <c r="W111">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>-0.36</v>
+      </c>
+      <c r="AC111">
+        <v>-11.14</v>
+      </c>
+      <c r="AD111">
+        <v>-0.32</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B112" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" t="s">
+        <v>273</v>
+      </c>
+      <c r="D112" t="s">
+        <v>273</v>
+      </c>
+      <c r="E112" t="s">
+        <v>274</v>
+      </c>
+      <c r="F112" t="s">
+        <v>275</v>
+      </c>
+      <c r="G112" t="s">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>-2.38</v>
+      </c>
+      <c r="L112" t="s">
+        <v>53</v>
+      </c>
+      <c r="M112" t="s">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
+        <v>0</v>
+      </c>
+      <c r="O112" t="s">
+        <v>0</v>
+      </c>
+      <c r="P112" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>406123550928</v>
+      </c>
+      <c r="S112" t="s">
+        <v>0</v>
+      </c>
+      <c r="T112" t="s">
+        <v>0</v>
+      </c>
+      <c r="U112" t="s">
+        <v>0</v>
+      </c>
+      <c r="V112" t="s">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>0</v>
+      </c>
+      <c r="X112" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH112">
+        <v>-2.38</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK112" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" t="s">
+        <v>273</v>
+      </c>
+      <c r="D113" t="s">
+        <v>273</v>
+      </c>
+      <c r="E113" t="s">
+        <v>274</v>
+      </c>
+      <c r="F113" t="s">
+        <v>275</v>
+      </c>
+      <c r="G113" t="s">
+        <v>277</v>
+      </c>
+      <c r="H113" t="s">
+        <v>278</v>
+      </c>
+      <c r="I113" t="s">
+        <v>279</v>
+      </c>
+      <c r="J113" t="s">
+        <v>55</v>
+      </c>
+      <c r="K113">
+        <v>13.28</v>
+      </c>
+      <c r="L113" t="s">
+        <v>53</v>
+      </c>
+      <c r="M113" t="s">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
+        <v>0</v>
+      </c>
+      <c r="O113" t="s">
+        <v>0</v>
+      </c>
+      <c r="P113" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>248</v>
+      </c>
+      <c r="R113">
+        <v>406123550928</v>
+      </c>
+      <c r="S113">
+        <v>10074416283105</v>
+      </c>
+      <c r="T113" t="s">
+        <v>63</v>
+      </c>
+      <c r="U113" t="s">
+        <v>64</v>
+      </c>
+      <c r="V113">
+        <v>1</v>
+      </c>
+      <c r="W113">
+        <v>15.99</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>-0.36</v>
+      </c>
+      <c r="AC113">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD113">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <v>15.99</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Sales Data/Toonwear.xlsx
+++ b/Raw Sales Data/Toonwear.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="405">
   <si>
     <t>--</t>
   </si>
@@ -1074,6 +1074,183 @@
   </si>
   <si>
     <t>FEE-7342647715211_11</t>
+  </si>
+  <si>
+    <t>26-13461-88632</t>
+  </si>
+  <si>
+    <t>mmmgzt</t>
+  </si>
+  <si>
+    <t>Mike Milward</t>
+  </si>
+  <si>
+    <t>FEE-7346825354511_11</t>
+  </si>
+  <si>
+    <t>B301PJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funds on hold. Estimated release on 6 Sep. </t>
+  </si>
+  <si>
+    <t>01-13495-56212</t>
+  </si>
+  <si>
+    <t>charleconro_0</t>
+  </si>
+  <si>
+    <t>charles conroy</t>
+  </si>
+  <si>
+    <t>FEE-7346524617411_11</t>
+  </si>
+  <si>
+    <t>alexandria</t>
+  </si>
+  <si>
+    <t>West Dunbartonshire</t>
+  </si>
+  <si>
+    <t>G83 0LQ</t>
+  </si>
+  <si>
+    <t>13-13479-12469</t>
+  </si>
+  <si>
+    <t>soulboyboothy</t>
+  </si>
+  <si>
+    <t>Martin Booth</t>
+  </si>
+  <si>
+    <t>FEE-7346468743311_11</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>Shropshire</t>
+  </si>
+  <si>
+    <t>TF10 7LA</t>
+  </si>
+  <si>
+    <t>LED Motion Sensor Light USB Wireless PIR Battery Wall Cabinet Stair Night Lamp</t>
+  </si>
+  <si>
+    <t>8Led Usb Light Warm 250601000010</t>
+  </si>
+  <si>
+    <t>05-13489-27240</t>
+  </si>
+  <si>
+    <t>adria.carac</t>
+  </si>
+  <si>
+    <t>Adrian Caraccio</t>
+  </si>
+  <si>
+    <t>FEE-7345979213911_11</t>
+  </si>
+  <si>
+    <t>ramsgate</t>
+  </si>
+  <si>
+    <t>ct12 5aw</t>
+  </si>
+  <si>
+    <t>26-13460-24942</t>
+  </si>
+  <si>
+    <t>22amm</t>
+  </si>
+  <si>
+    <t>Alison Morey</t>
+  </si>
+  <si>
+    <t>FEE-7345740277411_11</t>
+  </si>
+  <si>
+    <t>Isle of Wight</t>
+  </si>
+  <si>
+    <t>Hampshire</t>
+  </si>
+  <si>
+    <t>PO32 6NZ</t>
+  </si>
+  <si>
+    <t>19-13469-70227</t>
+  </si>
+  <si>
+    <t>ianjhowarth1943</t>
+  </si>
+  <si>
+    <t>Ian Howarth</t>
+  </si>
+  <si>
+    <t>W9 3TA</t>
+  </si>
+  <si>
+    <t>8Led Usb Light Cool 250601000009</t>
+  </si>
+  <si>
+    <t>16-13473-39655</t>
+  </si>
+  <si>
+    <t>mobione2013</t>
+  </si>
+  <si>
+    <t>John Langford Mee</t>
+  </si>
+  <si>
+    <t>FEE-7345444559711_11</t>
+  </si>
+  <si>
+    <t>Littleborough</t>
+  </si>
+  <si>
+    <t>OL150DL</t>
+  </si>
+  <si>
+    <t>11-13480-11812</t>
+  </si>
+  <si>
+    <t>al-781253</t>
+  </si>
+  <si>
+    <t>Alan Lewis</t>
+  </si>
+  <si>
+    <t>FEE-7345422381611_11</t>
+  </si>
+  <si>
+    <t>Northampton, Upton</t>
+  </si>
+  <si>
+    <t>Northamptonshire</t>
+  </si>
+  <si>
+    <t>NN5 4GG</t>
+  </si>
+  <si>
+    <t>02-13492-22048</t>
+  </si>
+  <si>
+    <t>stopthathorse</t>
+  </si>
+  <si>
+    <t>lesley robinson</t>
+  </si>
+  <si>
+    <t>FEE-7345140576211_11</t>
+  </si>
+  <si>
+    <t>holme upon spaldingmoor york</t>
+  </si>
+  <si>
+    <t>yo434bu</t>
   </si>
 </sst>
 </file>
@@ -1882,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL113"/>
+  <dimension ref="A1:AL130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD113"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9213,22 +9390,22 @@
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B74" t="s">
         <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="E74" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="F74" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="G74" t="s">
         <v>0</v>
@@ -9243,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>-7.39</v>
+        <v>-2.38</v>
       </c>
       <c r="L74" t="s">
         <v>53</v>
@@ -9264,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <v>406141891482</v>
+        <v>406123550928</v>
       </c>
       <c r="S74" t="s">
         <v>0</v>
@@ -9312,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="AH74">
-        <v>-7.39</v>
+        <v>-2.38</v>
       </c>
       <c r="AI74" t="s">
         <v>53</v>
@@ -9321,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="AK74" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="AL74" t="s">
         <v>107</v>
@@ -9329,37 +9506,37 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B75" t="s">
         <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="D75" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="E75" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="F75" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="G75" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="H75" t="s">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I75" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="J75" t="s">
         <v>55</v>
       </c>
       <c r="K75">
-        <v>48.07</v>
+        <v>13.28</v>
       </c>
       <c r="L75" t="s">
         <v>53</v>
@@ -9377,25 +9554,25 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="R75">
-        <v>406141891482</v>
+        <v>406123550928</v>
       </c>
       <c r="S75">
-        <v>10074874105119</v>
+        <v>10074466932422</v>
       </c>
       <c r="T75" t="s">
-        <v>232</v>
+        <v>63</v>
       </c>
       <c r="U75" t="s">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="V75">
         <v>1</v>
       </c>
       <c r="W75">
-        <v>55.99</v>
+        <v>15.99</v>
       </c>
       <c r="X75">
         <v>0</v>
@@ -9413,10 +9590,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC75">
-        <v>-7.32</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="AD75">
-        <v>-0.24</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE75" t="s">
         <v>0</v>
@@ -9428,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="AH75">
-        <v>55.99</v>
+        <v>15.99</v>
       </c>
       <c r="AI75" t="s">
         <v>53</v>
@@ -9445,22 +9622,22 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B76" t="s">
         <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="D76" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="F76" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="G76" t="s">
         <v>0</v>
@@ -9475,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>-7.39</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="L76" t="s">
         <v>53</v>
@@ -9496,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="R76">
-        <v>406141891482</v>
+        <v>406137033081</v>
       </c>
       <c r="S76" t="s">
         <v>0</v>
@@ -9544,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="AH76">
-        <v>-7.39</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="AI76" t="s">
         <v>53</v>
@@ -9553,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="AK76" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="AL76" t="s">
         <v>107</v>
@@ -9561,37 +9738,37 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B77" t="s">
         <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="F77" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="G77" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="H77" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="I77" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="J77" t="s">
         <v>55</v>
       </c>
       <c r="K77">
-        <v>48.07</v>
+        <v>14.14</v>
       </c>
       <c r="L77" t="s">
         <v>53</v>
@@ -9609,25 +9786,25 @@
         <v>0</v>
       </c>
       <c r="Q77" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="R77">
-        <v>406141891482</v>
+        <v>406137033081</v>
       </c>
       <c r="S77">
-        <v>10075114385203</v>
+        <v>10074295741601</v>
       </c>
       <c r="T77" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="U77" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="V77">
         <v>1</v>
       </c>
       <c r="W77">
-        <v>55.99</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="X77">
         <v>0</v>
@@ -9645,10 +9822,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC77">
-        <v>-7.32</v>
+        <v>-2.42</v>
       </c>
       <c r="AD77">
-        <v>-0.24</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE77" t="s">
         <v>0</v>
@@ -9660,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="AH77">
-        <v>55.99</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="AI77" t="s">
         <v>53</v>
@@ -9677,22 +9854,22 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B78" t="s">
         <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="D78" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="E78" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="F78" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="G78" t="s">
         <v>0</v>
@@ -9707,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>-1.85</v>
+        <v>-10.86</v>
       </c>
       <c r="L78" t="s">
         <v>53</v>
@@ -9728,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="R78">
-        <v>406123550928</v>
+        <v>406142372232</v>
       </c>
       <c r="S78" t="s">
         <v>0</v>
@@ -9776,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="AH78">
-        <v>-1.85</v>
+        <v>-10.86</v>
       </c>
       <c r="AI78" t="s">
         <v>53</v>
@@ -9785,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="AK78" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="AL78" t="s">
         <v>107</v>
@@ -9793,37 +9970,37 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B79" t="s">
         <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="D79" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="F79" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="G79" t="s">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="H79" t="s">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="J79" t="s">
         <v>55</v>
       </c>
       <c r="K79">
-        <v>13.28</v>
+        <v>66.17</v>
       </c>
       <c r="L79" t="s">
         <v>53</v>
@@ -9841,25 +10018,25 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="R79">
-        <v>406123550928</v>
+        <v>406142372232</v>
       </c>
       <c r="S79">
-        <v>10074223009620</v>
+        <v>10074264573908</v>
       </c>
       <c r="T79" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="U79" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="V79">
         <v>1</v>
       </c>
       <c r="W79">
-        <v>15.99</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="X79">
         <v>0</v>
@@ -9877,10 +10054,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC79">
-        <v>-2.2799999999999998</v>
+        <v>-11.14</v>
       </c>
       <c r="AD79">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.32</v>
       </c>
       <c r="AE79" t="s">
         <v>0</v>
@@ -9892,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="AH79">
-        <v>15.99</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="AI79" t="s">
         <v>53</v>
@@ -9909,22 +10086,22 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B80" t="s">
         <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="D80" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="E80" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="F80" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="G80" t="s">
         <v>0</v>
@@ -9939,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>-1.84</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="L80" t="s">
         <v>53</v>
@@ -10008,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="AH80">
-        <v>-1.84</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="AI80" t="s">
         <v>53</v>
@@ -10017,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="AK80" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="AL80" t="s">
         <v>107</v>
@@ -10025,31 +10202,31 @@
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B81" t="s">
         <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="D81" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="E81" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="F81" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="G81" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="H81" t="s">
-        <v>303</v>
+        <v>140</v>
       </c>
       <c r="I81" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="J81" t="s">
         <v>55</v>
@@ -10073,19 +10250,19 @@
         <v>0</v>
       </c>
       <c r="Q81" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="R81">
         <v>406137033081</v>
       </c>
       <c r="S81">
-        <v>10079401561821</v>
+        <v>10074035360026</v>
       </c>
       <c r="T81" t="s">
         <v>163</v>
       </c>
       <c r="U81" t="s">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="V81">
         <v>1</v>
@@ -10141,22 +10318,22 @@
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B82" t="s">
         <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="D82" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="E82" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="F82" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="G82" t="s">
         <v>0</v>
@@ -10171,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>-0.76</v>
+        <v>-10.86</v>
       </c>
       <c r="L82" t="s">
         <v>53</v>
@@ -10192,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="R82">
-        <v>406145083503</v>
+        <v>406142372232</v>
       </c>
       <c r="S82" t="s">
         <v>0</v>
@@ -10240,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="AH82">
-        <v>-0.76</v>
+        <v>-10.86</v>
       </c>
       <c r="AI82" t="s">
         <v>53</v>
@@ -10249,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="AK82" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="AL82" t="s">
         <v>107</v>
@@ -10257,37 +10434,37 @@
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B83" t="s">
         <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="D83" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="E83" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="F83" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="G83" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="H83" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="I83" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="J83" t="s">
         <v>55</v>
       </c>
       <c r="K83">
-        <v>4.3600000000000003</v>
+        <v>66.17</v>
       </c>
       <c r="L83" t="s">
         <v>53</v>
@@ -10305,25 +10482,25 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="R83">
-        <v>406145083503</v>
+        <v>406142372232</v>
       </c>
       <c r="S83">
-        <v>10074937301710</v>
+        <v>10079299793207</v>
       </c>
       <c r="T83" t="s">
-        <v>313</v>
+        <v>135</v>
       </c>
       <c r="U83" t="s">
-        <v>314</v>
+        <v>136</v>
       </c>
       <c r="V83">
         <v>1</v>
       </c>
       <c r="W83">
-        <v>5.45</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="X83">
         <v>0</v>
@@ -10341,10 +10518,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC83">
-        <v>-0.71</v>
+        <v>-11.14</v>
       </c>
       <c r="AD83">
-        <v>-0.02</v>
+        <v>-0.32</v>
       </c>
       <c r="AE83" t="s">
         <v>0</v>
@@ -10356,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AH83">
-        <v>5.45</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="AI83" t="s">
         <v>53</v>
@@ -10373,22 +10550,22 @@
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B84" t="s">
         <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="D84" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="E84" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="F84" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="G84" t="s">
         <v>0</v>
@@ -10403,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>-1.85</v>
+        <v>-2.38</v>
       </c>
       <c r="L84" t="s">
         <v>53</v>
@@ -10472,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="AH84">
-        <v>-1.85</v>
+        <v>-2.38</v>
       </c>
       <c r="AI84" t="s">
         <v>53</v>
@@ -10481,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="AK84" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="AL84" t="s">
         <v>107</v>
@@ -10489,37 +10666,37 @@
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="D85" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="E85" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="F85" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="G85" t="s">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="H85" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="I85" t="s">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="J85" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K85">
-        <v>-1.85</v>
+        <v>13.28</v>
       </c>
       <c r="L85" t="s">
         <v>53</v>
@@ -10537,27 +10714,27 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="R85">
         <v>406123550928</v>
       </c>
-      <c r="S85" t="s">
-        <v>0</v>
+      <c r="S85">
+        <v>10074416283105</v>
       </c>
       <c r="T85" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U85" t="s">
-        <v>0</v>
-      </c>
-      <c r="V85" t="s">
-        <v>0</v>
-      </c>
-      <c r="W85" t="s">
-        <v>0</v>
-      </c>
-      <c r="X85" t="s">
+        <v>64</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
+      <c r="W85">
+        <v>15.99</v>
+      </c>
+      <c r="X85">
         <v>0</v>
       </c>
       <c r="Y85" t="s">
@@ -10569,14 +10746,14 @@
       <c r="AA85" s="2">
         <v>0</v>
       </c>
-      <c r="AB85" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>0</v>
+      <c r="AB85">
+        <v>-0.36</v>
+      </c>
+      <c r="AC85">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD85">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE85" t="s">
         <v>0</v>
@@ -10588,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="AH85">
-        <v>-1.85</v>
+        <v>15.99</v>
       </c>
       <c r="AI85" t="s">
         <v>53</v>
@@ -10597,45 +10774,45 @@
         <v>0</v>
       </c>
       <c r="AK85" t="s">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="AL85" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="D86" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="E86" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="F86" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="G86" t="s">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>13.28</v>
+        <v>-1.58</v>
       </c>
       <c r="L86" t="s">
         <v>53</v>
@@ -10653,27 +10830,27 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="R86">
         <v>406123550928</v>
       </c>
-      <c r="S86">
-        <v>10078410597327</v>
+      <c r="S86" t="s">
+        <v>0</v>
       </c>
       <c r="T86" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U86" t="s">
-        <v>64</v>
-      </c>
-      <c r="V86">
-        <v>1</v>
-      </c>
-      <c r="W86">
-        <v>15.99</v>
-      </c>
-      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="V86" t="s">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>0</v>
+      </c>
+      <c r="X86" t="s">
         <v>0</v>
       </c>
       <c r="Y86" t="s">
@@ -10685,14 +10862,14 @@
       <c r="AA86" s="2">
         <v>0</v>
       </c>
-      <c r="AB86">
-        <v>-0.36</v>
-      </c>
-      <c r="AC86">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="AD86">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>0</v>
       </c>
       <c r="AE86" t="s">
         <v>0</v>
@@ -10704,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="AH86">
-        <v>15.99</v>
+        <v>-1.58</v>
       </c>
       <c r="AI86" t="s">
         <v>53</v>
@@ -10713,45 +10890,45 @@
         <v>0</v>
       </c>
       <c r="AK86" t="s">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AL86" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B87" t="s">
         <v>54</v>
       </c>
       <c r="C87" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="D87" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="E87" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="F87" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="G87" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="H87" t="s">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="I87" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="J87" t="s">
         <v>55</v>
       </c>
       <c r="K87">
-        <v>13.28</v>
+        <v>13.71</v>
       </c>
       <c r="L87" t="s">
         <v>53</v>
@@ -10769,13 +10946,13 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="R87">
         <v>406123550928</v>
       </c>
       <c r="S87">
-        <v>10074279260108</v>
+        <v>10074086754226</v>
       </c>
       <c r="T87" t="s">
         <v>63</v>
@@ -10787,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="W87">
-        <v>15.99</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="X87">
         <v>0</v>
@@ -10805,7 +10982,7 @@
         <v>-0.36</v>
       </c>
       <c r="AC87">
-        <v>-2.2799999999999998</v>
+        <v>-2.35</v>
       </c>
       <c r="AD87">
         <v>-7.0000000000000007E-2</v>
@@ -10820,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="AH87">
-        <v>15.99</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="AI87" t="s">
         <v>53</v>
@@ -10837,22 +11014,22 @@
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B88" t="s">
         <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="D88" t="s">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="E88" t="s">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F88" t="s">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="G88" t="s">
         <v>0</v>
@@ -10867,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>-0.36</v>
+        <v>-1.46</v>
       </c>
       <c r="L88" t="s">
         <v>53</v>
@@ -10888,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <v>406150707028</v>
+        <v>406123550928</v>
       </c>
       <c r="S88" t="s">
         <v>0</v>
@@ -10936,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="AH88">
-        <v>-0.36</v>
+        <v>-1.46</v>
       </c>
       <c r="AI88" t="s">
         <v>53</v>
@@ -10945,102 +11122,102 @@
         <v>0</v>
       </c>
       <c r="AK88" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="AL88" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C89" t="s">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="D89" t="s">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="E89" t="s">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F89" t="s">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="G89" t="s">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="H89" t="s">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="I89" t="s">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="J89" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K89">
+        <v>12.6</v>
+      </c>
+      <c r="L89" t="s">
+        <v>53</v>
+      </c>
+      <c r="M89" t="s">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>0</v>
+      </c>
+      <c r="O89" t="s">
+        <v>0</v>
+      </c>
+      <c r="P89" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>351</v>
+      </c>
+      <c r="R89">
+        <v>406123550928</v>
+      </c>
+      <c r="S89">
+        <v>10074337205901</v>
+      </c>
+      <c r="T89" t="s">
+        <v>63</v>
+      </c>
+      <c r="U89" t="s">
+        <v>64</v>
+      </c>
+      <c r="V89">
+        <v>1</v>
+      </c>
+      <c r="W89">
+        <v>15.19</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB89">
         <v>-0.36</v>
       </c>
-      <c r="L89" t="s">
-        <v>53</v>
-      </c>
-      <c r="M89" t="s">
-        <v>0</v>
-      </c>
-      <c r="N89" t="s">
-        <v>0</v>
-      </c>
-      <c r="O89" t="s">
-        <v>0</v>
-      </c>
-      <c r="P89" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>406150688920</v>
-      </c>
-      <c r="S89" t="s">
-        <v>0</v>
-      </c>
-      <c r="T89" t="s">
-        <v>0</v>
-      </c>
-      <c r="U89" t="s">
-        <v>0</v>
-      </c>
-      <c r="V89" t="s">
-        <v>0</v>
-      </c>
-      <c r="W89" t="s">
-        <v>0</v>
-      </c>
-      <c r="X89" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB89" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC89" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD89" t="s">
-        <v>0</v>
+      <c r="AC89">
+        <v>-2.17</v>
+      </c>
+      <c r="AD89">
+        <v>-0.06</v>
       </c>
       <c r="AE89" t="s">
         <v>0</v>
@@ -11052,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="AH89">
-        <v>-0.36</v>
+        <v>15.19</v>
       </c>
       <c r="AI89" t="s">
         <v>53</v>
@@ -11061,30 +11238,30 @@
         <v>0</v>
       </c>
       <c r="AK89" t="s">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="AL89" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B90" t="s">
         <v>52</v>
       </c>
       <c r="C90" t="s">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="D90" t="s">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="E90" t="s">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F90" t="s">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="G90" t="s">
         <v>0</v>
@@ -11099,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>-0.36</v>
+        <v>-0.47</v>
       </c>
       <c r="L90" t="s">
         <v>53</v>
@@ -11120,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="R90">
-        <v>406150688920</v>
+        <v>406150127730</v>
       </c>
       <c r="S90" t="s">
         <v>0</v>
@@ -11168,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="AH90">
-        <v>-0.36</v>
+        <v>-0.47</v>
       </c>
       <c r="AI90" t="s">
         <v>53</v>
@@ -11177,45 +11354,45 @@
         <v>0</v>
       </c>
       <c r="AK90" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AL90" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C91" t="s">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="D91" t="s">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="E91" t="s">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F91" t="s">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="G91" t="s">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="H91" t="s">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="I91" t="s">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="J91" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K91">
-        <v>-0.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="L91" t="s">
         <v>53</v>
@@ -11233,27 +11410,27 @@
         <v>0</v>
       </c>
       <c r="Q91" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="R91">
-        <v>406144852286</v>
-      </c>
-      <c r="S91" t="s">
-        <v>0</v>
+        <v>406150127730</v>
+      </c>
+      <c r="S91">
+        <v>10076239275713</v>
       </c>
       <c r="T91" t="s">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="U91" t="s">
-        <v>0</v>
-      </c>
-      <c r="V91" t="s">
-        <v>0</v>
-      </c>
-      <c r="W91" t="s">
-        <v>0</v>
-      </c>
-      <c r="X91" t="s">
+        <v>367</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
+      <c r="W91">
+        <v>2.99</v>
+      </c>
+      <c r="X91">
         <v>0</v>
       </c>
       <c r="Y91" t="s">
@@ -11265,14 +11442,14 @@
       <c r="AA91" s="2">
         <v>0</v>
       </c>
-      <c r="AB91" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD91" t="s">
-        <v>0</v>
+      <c r="AB91">
+        <v>-0.12</v>
+      </c>
+      <c r="AC91">
+        <v>-0.43</v>
+      </c>
+      <c r="AD91">
+        <v>-0.01</v>
       </c>
       <c r="AE91" t="s">
         <v>0</v>
@@ -11284,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="AH91">
-        <v>-0.35</v>
+        <v>2.99</v>
       </c>
       <c r="AI91" t="s">
         <v>53</v>
@@ -11293,30 +11470,30 @@
         <v>0</v>
       </c>
       <c r="AK91" t="s">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AL91" t="s">
-        <v>331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B92" t="s">
         <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="D92" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="E92" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="F92" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="G92" t="s">
         <v>0</v>
@@ -11331,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>-7.39</v>
+        <v>-1.73</v>
       </c>
       <c r="L92" t="s">
         <v>53</v>
@@ -11352,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="R92">
-        <v>406141891482</v>
+        <v>406136806041</v>
       </c>
       <c r="S92" t="s">
         <v>0</v>
@@ -11400,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="AH92">
-        <v>-7.39</v>
+        <v>-1.73</v>
       </c>
       <c r="AI92" t="s">
         <v>53</v>
@@ -11409,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="AK92" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="AL92" t="s">
         <v>107</v>
@@ -11417,37 +11594,37 @@
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B93" t="s">
         <v>54</v>
       </c>
       <c r="C93" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="D93" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="E93" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="F93" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="G93" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="H93" t="s">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="I93" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="J93" t="s">
         <v>55</v>
       </c>
       <c r="K93">
-        <v>48.07</v>
+        <v>13.43</v>
       </c>
       <c r="L93" t="s">
         <v>53</v>
@@ -11465,25 +11642,25 @@
         <v>0</v>
       </c>
       <c r="Q93" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="R93">
-        <v>406141891482</v>
+        <v>406136806041</v>
       </c>
       <c r="S93">
-        <v>10075122007206</v>
+        <v>10074467672505</v>
       </c>
       <c r="T93" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="U93" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="V93">
         <v>1</v>
       </c>
       <c r="W93">
-        <v>55.99</v>
+        <v>15.95</v>
       </c>
       <c r="X93">
         <v>0</v>
@@ -11501,10 +11678,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC93">
-        <v>-7.32</v>
+        <v>-2.09</v>
       </c>
       <c r="AD93">
-        <v>-0.24</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE93" t="s">
         <v>0</v>
@@ -11516,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="AH93">
-        <v>55.99</v>
+        <v>15.95</v>
       </c>
       <c r="AI93" t="s">
         <v>53</v>
@@ -11533,22 +11710,22 @@
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B94" t="s">
         <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="D94" t="s">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="E94" t="s">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="F94" t="s">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="G94" t="s">
         <v>0</v>
@@ -11563,7 +11740,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>-0.36</v>
+        <v>-0.76</v>
       </c>
       <c r="L94" t="s">
         <v>53</v>
@@ -11584,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>406150211733</v>
+        <v>406145083503</v>
       </c>
       <c r="S94" t="s">
         <v>0</v>
@@ -11632,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="AH94">
-        <v>-0.36</v>
+        <v>-0.76</v>
       </c>
       <c r="AI94" t="s">
         <v>53</v>
@@ -11641,45 +11818,45 @@
         <v>0</v>
       </c>
       <c r="AK94" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="AL94" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C95" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="D95" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="E95" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="F95" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="G95" t="s">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="H95" t="s">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="I95" t="s">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="J95" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K95">
-        <v>-1.85</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="L95" t="s">
         <v>53</v>
@@ -11697,27 +11874,27 @@
         <v>0</v>
       </c>
       <c r="Q95" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="R95">
-        <v>406123550928</v>
-      </c>
-      <c r="S95" t="s">
-        <v>0</v>
+        <v>406145083503</v>
+      </c>
+      <c r="S95">
+        <v>10074077537926</v>
       </c>
       <c r="T95" t="s">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="U95" t="s">
-        <v>0</v>
-      </c>
-      <c r="V95" t="s">
-        <v>0</v>
-      </c>
-      <c r="W95" t="s">
-        <v>0</v>
-      </c>
-      <c r="X95" t="s">
+        <v>314</v>
+      </c>
+      <c r="V95">
+        <v>1</v>
+      </c>
+      <c r="W95">
+        <v>5.45</v>
+      </c>
+      <c r="X95">
         <v>0</v>
       </c>
       <c r="Y95" t="s">
@@ -11729,14 +11906,14 @@
       <c r="AA95" s="2">
         <v>0</v>
       </c>
-      <c r="AB95" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>0</v>
+      <c r="AB95">
+        <v>-0.36</v>
+      </c>
+      <c r="AC95">
+        <v>-0.71</v>
+      </c>
+      <c r="AD95">
+        <v>-0.02</v>
       </c>
       <c r="AE95" t="s">
         <v>0</v>
@@ -11748,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="AH95">
-        <v>-1.85</v>
+        <v>5.45</v>
       </c>
       <c r="AI95" t="s">
         <v>53</v>
@@ -11757,45 +11934,45 @@
         <v>0</v>
       </c>
       <c r="AK95" t="s">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="AL95" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B96" t="s">
         <v>54</v>
       </c>
       <c r="C96" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="D96" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="E96" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="F96" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="G96" t="s">
-        <v>343</v>
+        <v>74</v>
       </c>
       <c r="H96" t="s">
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="J96" t="s">
         <v>55</v>
       </c>
       <c r="K96">
-        <v>13.28</v>
+        <v>2.6</v>
       </c>
       <c r="L96" t="s">
         <v>53</v>
@@ -11813,25 +11990,25 @@
         <v>0</v>
       </c>
       <c r="Q96" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="R96">
-        <v>406123550928</v>
+        <v>406150127730</v>
       </c>
       <c r="S96">
-        <v>10077902289018</v>
+        <v>10074885342119</v>
       </c>
       <c r="T96" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="U96" t="s">
-        <v>64</v>
+        <v>385</v>
       </c>
       <c r="V96">
         <v>1</v>
       </c>
       <c r="W96">
-        <v>15.99</v>
+        <v>3.19</v>
       </c>
       <c r="X96">
         <v>0</v>
@@ -11846,13 +12023,13 @@
         <v>0</v>
       </c>
       <c r="AB96">
-        <v>-0.36</v>
+        <v>-0.12</v>
       </c>
       <c r="AC96">
-        <v>-2.2799999999999998</v>
+        <v>-0.46</v>
       </c>
       <c r="AD96">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="AE96" t="s">
         <v>0</v>
@@ -11864,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="AH96">
-        <v>15.99</v>
+        <v>3.19</v>
       </c>
       <c r="AI96" t="s">
         <v>53</v>
@@ -11881,22 +12058,22 @@
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B97" t="s">
         <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="D97" t="s">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="E97" t="s">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="F97" t="s">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="G97" t="s">
         <v>0</v>
@@ -11911,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>-0.36</v>
+        <v>-1.73</v>
       </c>
       <c r="L97" t="s">
         <v>53</v>
@@ -11932,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>406150127730</v>
+        <v>406136806041</v>
       </c>
       <c r="S97" t="s">
         <v>0</v>
@@ -11980,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="AH97">
-        <v>-0.36</v>
+        <v>-1.73</v>
       </c>
       <c r="AI97" t="s">
         <v>53</v>
@@ -11989,45 +12166,45 @@
         <v>0</v>
       </c>
       <c r="AK97" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="AL97" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C98" t="s">
-        <v>224</v>
+        <v>386</v>
       </c>
       <c r="D98" t="s">
-        <v>224</v>
+        <v>386</v>
       </c>
       <c r="E98" t="s">
-        <v>225</v>
+        <v>387</v>
       </c>
       <c r="F98" t="s">
-        <v>226</v>
+        <v>388</v>
       </c>
       <c r="G98" t="s">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="H98" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I98" t="s">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="J98" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K98">
-        <v>-15.14</v>
+        <v>13.43</v>
       </c>
       <c r="L98" t="s">
         <v>53</v>
@@ -12045,27 +12222,27 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="R98">
-        <v>406141891482</v>
-      </c>
-      <c r="S98" t="s">
-        <v>0</v>
+        <v>406136806041</v>
+      </c>
+      <c r="S98">
+        <v>10074924965516</v>
       </c>
       <c r="T98" t="s">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="U98" t="s">
-        <v>0</v>
-      </c>
-      <c r="V98" t="s">
-        <v>0</v>
-      </c>
-      <c r="W98" t="s">
-        <v>0</v>
-      </c>
-      <c r="X98" t="s">
+        <v>180</v>
+      </c>
+      <c r="V98">
+        <v>1</v>
+      </c>
+      <c r="W98">
+        <v>15.95</v>
+      </c>
+      <c r="X98">
         <v>0</v>
       </c>
       <c r="Y98" t="s">
@@ -12077,14 +12254,14 @@
       <c r="AA98" s="2">
         <v>0</v>
       </c>
-      <c r="AB98" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC98" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD98" t="s">
-        <v>0</v>
+      <c r="AB98">
+        <v>-0.36</v>
+      </c>
+      <c r="AC98">
+        <v>-2.09</v>
+      </c>
+      <c r="AD98">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE98" t="s">
         <v>0</v>
@@ -12096,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="AH98">
-        <v>-15.14</v>
+        <v>15.95</v>
       </c>
       <c r="AI98" t="s">
         <v>53</v>
@@ -12105,45 +12282,45 @@
         <v>0</v>
       </c>
       <c r="AK98" t="s">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="AL98" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>224</v>
+        <v>392</v>
       </c>
       <c r="D99" t="s">
-        <v>224</v>
+        <v>392</v>
       </c>
       <c r="E99" t="s">
-        <v>225</v>
+        <v>393</v>
       </c>
       <c r="F99" t="s">
-        <v>226</v>
+        <v>394</v>
       </c>
       <c r="G99" t="s">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>94.57</v>
+        <v>-1.75</v>
       </c>
       <c r="L99" t="s">
         <v>53</v>
@@ -12161,27 +12338,27 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>406141891482</v>
-      </c>
-      <c r="S99">
-        <v>10079387786521</v>
+        <v>406123550928</v>
+      </c>
+      <c r="S99" t="s">
+        <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="U99" t="s">
-        <v>233</v>
-      </c>
-      <c r="V99">
-        <v>2</v>
-      </c>
-      <c r="W99">
-        <v>109.74</v>
-      </c>
-      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="V99" t="s">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>0</v>
+      </c>
+      <c r="X99" t="s">
         <v>0</v>
       </c>
       <c r="Y99" t="s">
@@ -12193,14 +12370,14 @@
       <c r="AA99" s="2">
         <v>0</v>
       </c>
-      <c r="AB99">
-        <v>-0.36</v>
-      </c>
-      <c r="AC99">
-        <v>-14.35</v>
-      </c>
-      <c r="AD99">
-        <v>-0.46</v>
+      <c r="AB99" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>0</v>
       </c>
       <c r="AE99" t="s">
         <v>0</v>
@@ -12212,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="AH99">
-        <v>109.74</v>
+        <v>-1.75</v>
       </c>
       <c r="AI99" t="s">
         <v>53</v>
@@ -12221,45 +12398,45 @@
         <v>0</v>
       </c>
       <c r="AK99" t="s">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="AL99" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C100" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
       <c r="D100" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>235</v>
+        <v>393</v>
       </c>
       <c r="F100" t="s">
-        <v>236</v>
+        <v>394</v>
       </c>
       <c r="G100" t="s">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="H100" t="s">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="I100" t="s">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="J100" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K100">
-        <v>-10.86</v>
+        <v>12.6</v>
       </c>
       <c r="L100" t="s">
         <v>53</v>
@@ -12277,27 +12454,27 @@
         <v>0</v>
       </c>
       <c r="Q100" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="R100">
-        <v>406142372232</v>
-      </c>
-      <c r="S100" t="s">
-        <v>0</v>
+        <v>406123550928</v>
+      </c>
+      <c r="S100">
+        <v>10075007821311</v>
       </c>
       <c r="T100" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U100" t="s">
-        <v>0</v>
-      </c>
-      <c r="V100" t="s">
-        <v>0</v>
-      </c>
-      <c r="W100" t="s">
-        <v>0</v>
-      </c>
-      <c r="X100" t="s">
+        <v>64</v>
+      </c>
+      <c r="V100">
+        <v>1</v>
+      </c>
+      <c r="W100">
+        <v>15.19</v>
+      </c>
+      <c r="X100">
         <v>0</v>
       </c>
       <c r="Y100" t="s">
@@ -12309,14 +12486,14 @@
       <c r="AA100" s="2">
         <v>0</v>
       </c>
-      <c r="AB100" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC100" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD100" t="s">
-        <v>0</v>
+      <c r="AB100">
+        <v>-0.36</v>
+      </c>
+      <c r="AC100">
+        <v>-2.17</v>
+      </c>
+      <c r="AD100">
+        <v>-0.06</v>
       </c>
       <c r="AE100" t="s">
         <v>0</v>
@@ -12328,7 +12505,7 @@
         <v>0</v>
       </c>
       <c r="AH100">
-        <v>-10.86</v>
+        <v>15.19</v>
       </c>
       <c r="AI100" t="s">
         <v>53</v>
@@ -12337,45 +12514,45 @@
         <v>0</v>
       </c>
       <c r="AK100" t="s">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="AL100" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C101" t="s">
-        <v>234</v>
+        <v>399</v>
       </c>
       <c r="D101" t="s">
-        <v>234</v>
+        <v>399</v>
       </c>
       <c r="E101" t="s">
-        <v>235</v>
+        <v>400</v>
       </c>
       <c r="F101" t="s">
-        <v>236</v>
+        <v>401</v>
       </c>
       <c r="G101" t="s">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>66.17</v>
+        <v>-1.85</v>
       </c>
       <c r="L101" t="s">
         <v>53</v>
@@ -12393,27 +12570,27 @@
         <v>0</v>
       </c>
       <c r="Q101" t="s">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>406142372232</v>
-      </c>
-      <c r="S101">
-        <v>10074198260809</v>
+        <v>406123550928</v>
+      </c>
+      <c r="S101" t="s">
+        <v>0</v>
       </c>
       <c r="T101" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="U101" t="s">
-        <v>136</v>
-      </c>
-      <c r="V101">
-        <v>1</v>
-      </c>
-      <c r="W101">
-        <v>77.989999999999995</v>
-      </c>
-      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="V101" t="s">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>0</v>
+      </c>
+      <c r="X101" t="s">
         <v>0</v>
       </c>
       <c r="Y101" t="s">
@@ -12425,14 +12602,14 @@
       <c r="AA101" s="2">
         <v>0</v>
       </c>
-      <c r="AB101">
-        <v>-0.36</v>
-      </c>
-      <c r="AC101">
-        <v>-11.14</v>
-      </c>
-      <c r="AD101">
-        <v>-0.32</v>
+      <c r="AB101" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>0</v>
       </c>
       <c r="AE101" t="s">
         <v>0</v>
@@ -12444,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="AH101">
-        <v>77.989999999999995</v>
+        <v>-1.85</v>
       </c>
       <c r="AI101" t="s">
         <v>53</v>
@@ -12453,45 +12630,45 @@
         <v>0</v>
       </c>
       <c r="AK101" t="s">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="AL101" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C102" t="s">
-        <v>241</v>
+        <v>399</v>
       </c>
       <c r="D102" t="s">
-        <v>241</v>
+        <v>399</v>
       </c>
       <c r="E102" t="s">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="F102" t="s">
-        <v>243</v>
+        <v>401</v>
       </c>
       <c r="G102" t="s">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="H102" t="s">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="I102" t="s">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="J102" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K102">
-        <v>-2.38</v>
+        <v>13.28</v>
       </c>
       <c r="L102" t="s">
         <v>53</v>
@@ -12509,27 +12686,27 @@
         <v>0</v>
       </c>
       <c r="Q102" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="R102">
         <v>406123550928</v>
       </c>
-      <c r="S102" t="s">
-        <v>0</v>
+      <c r="S102">
+        <v>10074525600802</v>
       </c>
       <c r="T102" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U102" t="s">
-        <v>0</v>
-      </c>
-      <c r="V102" t="s">
-        <v>0</v>
-      </c>
-      <c r="W102" t="s">
-        <v>0</v>
-      </c>
-      <c r="X102" t="s">
+        <v>64</v>
+      </c>
+      <c r="V102">
+        <v>1</v>
+      </c>
+      <c r="W102">
+        <v>15.99</v>
+      </c>
+      <c r="X102">
         <v>0</v>
       </c>
       <c r="Y102" t="s">
@@ -12541,14 +12718,14 @@
       <c r="AA102" s="2">
         <v>0</v>
       </c>
-      <c r="AB102" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC102" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD102" t="s">
-        <v>0</v>
+      <c r="AB102">
+        <v>-0.36</v>
+      </c>
+      <c r="AC102">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD102">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE102" t="s">
         <v>0</v>
@@ -12560,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="AH102">
-        <v>-2.38</v>
+        <v>15.99</v>
       </c>
       <c r="AI102" t="s">
         <v>53</v>
@@ -12569,45 +12746,45 @@
         <v>0</v>
       </c>
       <c r="AK102" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="AL102" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C103" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="D103" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="E103" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="F103" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="G103" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>13.28</v>
+        <v>-7.39</v>
       </c>
       <c r="L103" t="s">
         <v>53</v>
@@ -12625,27 +12802,27 @@
         <v>0</v>
       </c>
       <c r="Q103" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>406123550928</v>
-      </c>
-      <c r="S103">
-        <v>10074466932422</v>
+        <v>406141891482</v>
+      </c>
+      <c r="S103" t="s">
+        <v>0</v>
       </c>
       <c r="T103" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>64</v>
-      </c>
-      <c r="V103">
-        <v>1</v>
-      </c>
-      <c r="W103">
-        <v>15.99</v>
-      </c>
-      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="V103" t="s">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>0</v>
+      </c>
+      <c r="X103" t="s">
         <v>0</v>
       </c>
       <c r="Y103" t="s">
@@ -12657,14 +12834,14 @@
       <c r="AA103" s="2">
         <v>0</v>
       </c>
-      <c r="AB103">
-        <v>-0.36</v>
-      </c>
-      <c r="AC103">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="AD103">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>0</v>
       </c>
       <c r="AE103" t="s">
         <v>0</v>
@@ -12676,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="AH103">
-        <v>15.99</v>
+        <v>-7.39</v>
       </c>
       <c r="AI103" t="s">
         <v>53</v>
@@ -12685,45 +12862,45 @@
         <v>0</v>
       </c>
       <c r="AK103" t="s">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="AL103" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C104" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D104" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="E104" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="F104" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="G104" t="s">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="H104" t="s">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="J104" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K104">
-        <v>-2.4500000000000002</v>
+        <v>48.07</v>
       </c>
       <c r="L104" t="s">
         <v>53</v>
@@ -12741,27 +12918,27 @@
         <v>0</v>
       </c>
       <c r="Q104" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="R104">
-        <v>406137033081</v>
-      </c>
-      <c r="S104" t="s">
-        <v>0</v>
+        <v>406141891482</v>
+      </c>
+      <c r="S104">
+        <v>10074874105119</v>
       </c>
       <c r="T104" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="U104" t="s">
-        <v>0</v>
-      </c>
-      <c r="V104" t="s">
-        <v>0</v>
-      </c>
-      <c r="W104" t="s">
-        <v>0</v>
-      </c>
-      <c r="X104" t="s">
+        <v>233</v>
+      </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
+      <c r="W104">
+        <v>55.99</v>
+      </c>
+      <c r="X104">
         <v>0</v>
       </c>
       <c r="Y104" t="s">
@@ -12773,14 +12950,14 @@
       <c r="AA104" s="2">
         <v>0</v>
       </c>
-      <c r="AB104" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC104" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD104" t="s">
-        <v>0</v>
+      <c r="AB104">
+        <v>-0.36</v>
+      </c>
+      <c r="AC104">
+        <v>-7.32</v>
+      </c>
+      <c r="AD104">
+        <v>-0.24</v>
       </c>
       <c r="AE104" t="s">
         <v>0</v>
@@ -12792,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="AH104">
-        <v>-2.4500000000000002</v>
+        <v>55.99</v>
       </c>
       <c r="AI104" t="s">
         <v>53</v>
@@ -12801,45 +12978,45 @@
         <v>0</v>
       </c>
       <c r="AK104" t="s">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="AL104" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C105" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="D105" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="E105" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="F105" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="G105" t="s">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>14.14</v>
+        <v>-7.39</v>
       </c>
       <c r="L105" t="s">
         <v>53</v>
@@ -12857,27 +13034,27 @@
         <v>0</v>
       </c>
       <c r="Q105" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>406137033081</v>
-      </c>
-      <c r="S105">
-        <v>10074295741601</v>
+        <v>406141891482</v>
+      </c>
+      <c r="S105" t="s">
+        <v>0</v>
       </c>
       <c r="T105" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="U105" t="s">
-        <v>164</v>
-      </c>
-      <c r="V105">
-        <v>1</v>
-      </c>
-      <c r="W105">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="V105" t="s">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>0</v>
+      </c>
+      <c r="X105" t="s">
         <v>0</v>
       </c>
       <c r="Y105" t="s">
@@ -12889,14 +13066,14 @@
       <c r="AA105" s="2">
         <v>0</v>
       </c>
-      <c r="AB105">
-        <v>-0.36</v>
-      </c>
-      <c r="AC105">
-        <v>-2.42</v>
-      </c>
-      <c r="AD105">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB105" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>0</v>
       </c>
       <c r="AE105" t="s">
         <v>0</v>
@@ -12908,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="AH105">
-        <v>16.989999999999998</v>
+        <v>-7.39</v>
       </c>
       <c r="AI105" t="s">
         <v>53</v>
@@ -12917,45 +13094,45 @@
         <v>0</v>
       </c>
       <c r="AK105" t="s">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="AL105" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C106" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="D106" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="E106" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="F106" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="G106" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="H106" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I106" t="s">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="J106" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K106">
-        <v>-10.86</v>
+        <v>48.07</v>
       </c>
       <c r="L106" t="s">
         <v>53</v>
@@ -12973,27 +13150,27 @@
         <v>0</v>
       </c>
       <c r="Q106" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="R106">
-        <v>406142372232</v>
-      </c>
-      <c r="S106" t="s">
-        <v>0</v>
+        <v>406141891482</v>
+      </c>
+      <c r="S106">
+        <v>10075114385203</v>
       </c>
       <c r="T106" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="U106" t="s">
-        <v>0</v>
-      </c>
-      <c r="V106" t="s">
-        <v>0</v>
-      </c>
-      <c r="W106" t="s">
-        <v>0</v>
-      </c>
-      <c r="X106" t="s">
+        <v>233</v>
+      </c>
+      <c r="V106">
+        <v>1</v>
+      </c>
+      <c r="W106">
+        <v>55.99</v>
+      </c>
+      <c r="X106">
         <v>0</v>
       </c>
       <c r="Y106" t="s">
@@ -13005,14 +13182,14 @@
       <c r="AA106" s="2">
         <v>0</v>
       </c>
-      <c r="AB106" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC106" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD106" t="s">
-        <v>0</v>
+      <c r="AB106">
+        <v>-0.36</v>
+      </c>
+      <c r="AC106">
+        <v>-7.32</v>
+      </c>
+      <c r="AD106">
+        <v>-0.24</v>
       </c>
       <c r="AE106" t="s">
         <v>0</v>
@@ -13024,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="AH106">
-        <v>-10.86</v>
+        <v>55.99</v>
       </c>
       <c r="AI106" t="s">
         <v>53</v>
@@ -13033,45 +13210,45 @@
         <v>0</v>
       </c>
       <c r="AK106" t="s">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="AL106" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="D107" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="E107" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="F107" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="G107" t="s">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="H107" t="s">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>66.17</v>
+        <v>-1.85</v>
       </c>
       <c r="L107" t="s">
         <v>53</v>
@@ -13089,27 +13266,27 @@
         <v>0</v>
       </c>
       <c r="Q107" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>406142372232</v>
-      </c>
-      <c r="S107">
-        <v>10074264573908</v>
+        <v>406123550928</v>
+      </c>
+      <c r="S107" t="s">
+        <v>0</v>
       </c>
       <c r="T107" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="U107" t="s">
-        <v>136</v>
-      </c>
-      <c r="V107">
-        <v>1</v>
-      </c>
-      <c r="W107">
-        <v>77.989999999999995</v>
-      </c>
-      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="V107" t="s">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>0</v>
+      </c>
+      <c r="X107" t="s">
         <v>0</v>
       </c>
       <c r="Y107" t="s">
@@ -13121,14 +13298,14 @@
       <c r="AA107" s="2">
         <v>0</v>
       </c>
-      <c r="AB107">
-        <v>-0.36</v>
-      </c>
-      <c r="AC107">
-        <v>-11.14</v>
-      </c>
-      <c r="AD107">
-        <v>-0.32</v>
+      <c r="AB107" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>0</v>
       </c>
       <c r="AE107" t="s">
         <v>0</v>
@@ -13140,7 +13317,7 @@
         <v>0</v>
       </c>
       <c r="AH107">
-        <v>77.989999999999995</v>
+        <v>-1.85</v>
       </c>
       <c r="AI107" t="s">
         <v>53</v>
@@ -13149,45 +13326,45 @@
         <v>0</v>
       </c>
       <c r="AK107" t="s">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="AL107" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C108" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="D108" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="E108" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="F108" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="G108" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H108" t="s">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="I108" t="s">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="J108" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K108">
-        <v>-2.4500000000000002</v>
+        <v>13.28</v>
       </c>
       <c r="L108" t="s">
         <v>53</v>
@@ -13205,27 +13382,27 @@
         <v>0</v>
       </c>
       <c r="Q108" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="R108">
-        <v>406137033081</v>
-      </c>
-      <c r="S108" t="s">
-        <v>0</v>
+        <v>406123550928</v>
+      </c>
+      <c r="S108">
+        <v>10074223009620</v>
       </c>
       <c r="T108" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U108" t="s">
-        <v>0</v>
-      </c>
-      <c r="V108" t="s">
-        <v>0</v>
-      </c>
-      <c r="W108" t="s">
-        <v>0</v>
-      </c>
-      <c r="X108" t="s">
+        <v>64</v>
+      </c>
+      <c r="V108">
+        <v>1</v>
+      </c>
+      <c r="W108">
+        <v>15.99</v>
+      </c>
+      <c r="X108">
         <v>0</v>
       </c>
       <c r="Y108" t="s">
@@ -13237,14 +13414,14 @@
       <c r="AA108" s="2">
         <v>0</v>
       </c>
-      <c r="AB108" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC108" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD108" t="s">
-        <v>0</v>
+      <c r="AB108">
+        <v>-0.36</v>
+      </c>
+      <c r="AC108">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD108">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE108" t="s">
         <v>0</v>
@@ -13256,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="AH108">
-        <v>-2.4500000000000002</v>
+        <v>15.99</v>
       </c>
       <c r="AI108" t="s">
         <v>53</v>
@@ -13265,45 +13442,45 @@
         <v>0</v>
       </c>
       <c r="AK108" t="s">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="AL108" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C109" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="D109" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="E109" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="F109" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="G109" t="s">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>14.14</v>
+        <v>-1.84</v>
       </c>
       <c r="L109" t="s">
         <v>53</v>
@@ -13321,27 +13498,27 @@
         <v>0</v>
       </c>
       <c r="Q109" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="R109">
         <v>406137033081</v>
       </c>
-      <c r="S109">
-        <v>10074035360026</v>
+      <c r="S109" t="s">
+        <v>0</v>
       </c>
       <c r="T109" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="U109" t="s">
-        <v>164</v>
-      </c>
-      <c r="V109">
-        <v>1</v>
-      </c>
-      <c r="W109">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="V109" t="s">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>0</v>
+      </c>
+      <c r="X109" t="s">
         <v>0</v>
       </c>
       <c r="Y109" t="s">
@@ -13353,14 +13530,14 @@
       <c r="AA109" s="2">
         <v>0</v>
       </c>
-      <c r="AB109">
-        <v>-0.36</v>
-      </c>
-      <c r="AC109">
-        <v>-2.42</v>
-      </c>
-      <c r="AD109">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB109" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>0</v>
       </c>
       <c r="AE109" t="s">
         <v>0</v>
@@ -13372,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="AH109">
-        <v>16.989999999999998</v>
+        <v>-1.84</v>
       </c>
       <c r="AI109" t="s">
         <v>53</v>
@@ -13381,45 +13558,45 @@
         <v>0</v>
       </c>
       <c r="AK109" t="s">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="AL109" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C110" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="D110" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="E110" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="F110" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="G110" t="s">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="H110" t="s">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="I110" t="s">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="J110" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K110">
-        <v>-10.86</v>
+        <v>14.14</v>
       </c>
       <c r="L110" t="s">
         <v>53</v>
@@ -13437,27 +13614,27 @@
         <v>0</v>
       </c>
       <c r="Q110" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="R110">
-        <v>406142372232</v>
-      </c>
-      <c r="S110" t="s">
-        <v>0</v>
+        <v>406137033081</v>
+      </c>
+      <c r="S110">
+        <v>10079401561821</v>
       </c>
       <c r="T110" t="s">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="U110" t="s">
-        <v>0</v>
-      </c>
-      <c r="V110" t="s">
-        <v>0</v>
-      </c>
-      <c r="W110" t="s">
-        <v>0</v>
-      </c>
-      <c r="X110" t="s">
+        <v>305</v>
+      </c>
+      <c r="V110">
+        <v>1</v>
+      </c>
+      <c r="W110">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="X110">
         <v>0</v>
       </c>
       <c r="Y110" t="s">
@@ -13469,14 +13646,14 @@
       <c r="AA110" s="2">
         <v>0</v>
       </c>
-      <c r="AB110" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC110" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD110" t="s">
-        <v>0</v>
+      <c r="AB110">
+        <v>-0.36</v>
+      </c>
+      <c r="AC110">
+        <v>-2.42</v>
+      </c>
+      <c r="AD110">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE110" t="s">
         <v>0</v>
@@ -13488,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="AH110">
-        <v>-10.86</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="AI110" t="s">
         <v>53</v>
@@ -13497,45 +13674,45 @@
         <v>0</v>
       </c>
       <c r="AK110" t="s">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="AL110" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="D111" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="E111" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="F111" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="G111" t="s">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>66.17</v>
+        <v>-0.76</v>
       </c>
       <c r="L111" t="s">
         <v>53</v>
@@ -13553,27 +13730,27 @@
         <v>0</v>
       </c>
       <c r="Q111" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>406142372232</v>
-      </c>
-      <c r="S111">
-        <v>10079299793207</v>
+        <v>406145083503</v>
+      </c>
+      <c r="S111" t="s">
+        <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="U111" t="s">
-        <v>136</v>
-      </c>
-      <c r="V111">
-        <v>1</v>
-      </c>
-      <c r="W111">
-        <v>77.989999999999995</v>
-      </c>
-      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="V111" t="s">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>0</v>
+      </c>
+      <c r="X111" t="s">
         <v>0</v>
       </c>
       <c r="Y111" t="s">
@@ -13585,14 +13762,14 @@
       <c r="AA111" s="2">
         <v>0</v>
       </c>
-      <c r="AB111">
-        <v>-0.36</v>
-      </c>
-      <c r="AC111">
-        <v>-11.14</v>
-      </c>
-      <c r="AD111">
-        <v>-0.32</v>
+      <c r="AB111" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>0</v>
       </c>
       <c r="AE111" t="s">
         <v>0</v>
@@ -13604,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="AH111">
-        <v>77.989999999999995</v>
+        <v>-0.76</v>
       </c>
       <c r="AI111" t="s">
         <v>53</v>
@@ -13613,45 +13790,45 @@
         <v>0</v>
       </c>
       <c r="AK111" t="s">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="AL111" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C112" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="D112" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="E112" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="F112" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="G112" t="s">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="H112" t="s">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="I112" t="s">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="J112" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K112">
-        <v>-2.38</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="L112" t="s">
         <v>53</v>
@@ -13669,27 +13846,27 @@
         <v>0</v>
       </c>
       <c r="Q112" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="R112">
-        <v>406123550928</v>
-      </c>
-      <c r="S112" t="s">
-        <v>0</v>
+        <v>406145083503</v>
+      </c>
+      <c r="S112">
+        <v>10074937301710</v>
       </c>
       <c r="T112" t="s">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="U112" t="s">
-        <v>0</v>
-      </c>
-      <c r="V112" t="s">
-        <v>0</v>
-      </c>
-      <c r="W112" t="s">
-        <v>0</v>
-      </c>
-      <c r="X112" t="s">
+        <v>314</v>
+      </c>
+      <c r="V112">
+        <v>1</v>
+      </c>
+      <c r="W112">
+        <v>5.45</v>
+      </c>
+      <c r="X112">
         <v>0</v>
       </c>
       <c r="Y112" t="s">
@@ -13701,14 +13878,14 @@
       <c r="AA112" s="2">
         <v>0</v>
       </c>
-      <c r="AB112" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC112" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD112" t="s">
-        <v>0</v>
+      <c r="AB112">
+        <v>-0.36</v>
+      </c>
+      <c r="AC112">
+        <v>-0.71</v>
+      </c>
+      <c r="AD112">
+        <v>-0.02</v>
       </c>
       <c r="AE112" t="s">
         <v>0</v>
@@ -13720,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="AH112">
-        <v>-2.38</v>
+        <v>5.45</v>
       </c>
       <c r="AI112" t="s">
         <v>53</v>
@@ -13729,45 +13906,45 @@
         <v>0</v>
       </c>
       <c r="AK112" t="s">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="AL112" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B113" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C113" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="D113" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="E113" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="F113" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="G113" t="s">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>13.28</v>
+        <v>-1.85</v>
       </c>
       <c r="L113" t="s">
         <v>53</v>
@@ -13785,69 +13962,2041 @@
         <v>0</v>
       </c>
       <c r="Q113" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="R113">
         <v>406123550928</v>
       </c>
-      <c r="S113">
-        <v>10074416283105</v>
+      <c r="S113" t="s">
+        <v>0</v>
       </c>
       <c r="T113" t="s">
+        <v>0</v>
+      </c>
+      <c r="U113" t="s">
+        <v>0</v>
+      </c>
+      <c r="V113" t="s">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>0</v>
+      </c>
+      <c r="X113" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <v>-1.85</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK113" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B114" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" t="s">
+        <v>319</v>
+      </c>
+      <c r="D114" t="s">
+        <v>319</v>
+      </c>
+      <c r="E114" t="s">
+        <v>320</v>
+      </c>
+      <c r="F114" t="s">
+        <v>321</v>
+      </c>
+      <c r="G114" t="s">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>-1.85</v>
+      </c>
+      <c r="L114" t="s">
+        <v>53</v>
+      </c>
+      <c r="M114" t="s">
+        <v>0</v>
+      </c>
+      <c r="N114" t="s">
+        <v>0</v>
+      </c>
+      <c r="O114" t="s">
+        <v>0</v>
+      </c>
+      <c r="P114" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>406123550928</v>
+      </c>
+      <c r="S114" t="s">
+        <v>0</v>
+      </c>
+      <c r="T114" t="s">
+        <v>0</v>
+      </c>
+      <c r="U114" t="s">
+        <v>0</v>
+      </c>
+      <c r="V114" t="s">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>0</v>
+      </c>
+      <c r="X114" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH114">
+        <v>-1.85</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK114" t="s">
+        <v>322</v>
+      </c>
+      <c r="AL114" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B115" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" t="s">
+        <v>315</v>
+      </c>
+      <c r="D115" t="s">
+        <v>315</v>
+      </c>
+      <c r="E115" t="s">
+        <v>316</v>
+      </c>
+      <c r="F115" t="s">
+        <v>317</v>
+      </c>
+      <c r="G115" t="s">
+        <v>323</v>
+      </c>
+      <c r="H115" t="s">
+        <v>239</v>
+      </c>
+      <c r="I115" t="s">
+        <v>324</v>
+      </c>
+      <c r="J115" t="s">
+        <v>55</v>
+      </c>
+      <c r="K115">
+        <v>13.28</v>
+      </c>
+      <c r="L115" t="s">
+        <v>53</v>
+      </c>
+      <c r="M115" t="s">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
+        <v>0</v>
+      </c>
+      <c r="O115" t="s">
+        <v>0</v>
+      </c>
+      <c r="P115" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>231</v>
+      </c>
+      <c r="R115">
+        <v>406123550928</v>
+      </c>
+      <c r="S115">
+        <v>10078410597327</v>
+      </c>
+      <c r="T115" t="s">
         <v>63</v>
       </c>
-      <c r="U113" t="s">
+      <c r="U115" t="s">
         <v>64</v>
       </c>
-      <c r="V113">
+      <c r="V115">
         <v>1</v>
       </c>
-      <c r="W113">
+      <c r="W115">
         <v>15.99</v>
       </c>
-      <c r="X113">
-        <v>0</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z113" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB113">
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB115">
         <v>-0.36</v>
       </c>
-      <c r="AC113">
+      <c r="AC115">
         <v>-2.2799999999999998</v>
       </c>
-      <c r="AD113">
+      <c r="AD115">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="AE113" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF113" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG113" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH113">
+      <c r="AE115" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF115" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH115">
         <v>15.99</v>
       </c>
-      <c r="AI113" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ113" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK113" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL113" t="s">
+      <c r="AI115" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK115" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B116" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" t="s">
+        <v>319</v>
+      </c>
+      <c r="D116" t="s">
+        <v>319</v>
+      </c>
+      <c r="E116" t="s">
+        <v>320</v>
+      </c>
+      <c r="F116" t="s">
+        <v>321</v>
+      </c>
+      <c r="G116" t="s">
+        <v>325</v>
+      </c>
+      <c r="H116" t="s">
+        <v>246</v>
+      </c>
+      <c r="I116" t="s">
+        <v>326</v>
+      </c>
+      <c r="J116" t="s">
+        <v>55</v>
+      </c>
+      <c r="K116">
+        <v>13.28</v>
+      </c>
+      <c r="L116" t="s">
+        <v>53</v>
+      </c>
+      <c r="M116" t="s">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
+        <v>0</v>
+      </c>
+      <c r="O116" t="s">
+        <v>0</v>
+      </c>
+      <c r="P116" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>231</v>
+      </c>
+      <c r="R116">
+        <v>406123550928</v>
+      </c>
+      <c r="S116">
+        <v>10074279260108</v>
+      </c>
+      <c r="T116" t="s">
+        <v>63</v>
+      </c>
+      <c r="U116" t="s">
+        <v>64</v>
+      </c>
+      <c r="V116">
+        <v>1</v>
+      </c>
+      <c r="W116">
+        <v>15.99</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>-0.36</v>
+      </c>
+      <c r="AC116">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD116">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH116">
+        <v>15.99</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ116" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK116" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B117" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>-0.36</v>
+      </c>
+      <c r="L117" t="s">
+        <v>53</v>
+      </c>
+      <c r="M117" t="s">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
+        <v>0</v>
+      </c>
+      <c r="O117" t="s">
+        <v>0</v>
+      </c>
+      <c r="P117" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>406150707028</v>
+      </c>
+      <c r="S117" t="s">
+        <v>0</v>
+      </c>
+      <c r="T117" t="s">
+        <v>0</v>
+      </c>
+      <c r="U117" t="s">
+        <v>0</v>
+      </c>
+      <c r="V117" t="s">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s">
+        <v>0</v>
+      </c>
+      <c r="X117" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH117">
+        <v>-0.36</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B118" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>-0.36</v>
+      </c>
+      <c r="L118" t="s">
+        <v>53</v>
+      </c>
+      <c r="M118" t="s">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
+        <v>0</v>
+      </c>
+      <c r="O118" t="s">
+        <v>0</v>
+      </c>
+      <c r="P118" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>406150688920</v>
+      </c>
+      <c r="S118" t="s">
+        <v>0</v>
+      </c>
+      <c r="T118" t="s">
+        <v>0</v>
+      </c>
+      <c r="U118" t="s">
+        <v>0</v>
+      </c>
+      <c r="V118" t="s">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s">
+        <v>0</v>
+      </c>
+      <c r="X118" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>-0.36</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK118" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B119" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>-0.36</v>
+      </c>
+      <c r="L119" t="s">
+        <v>53</v>
+      </c>
+      <c r="M119" t="s">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
+        <v>0</v>
+      </c>
+      <c r="O119" t="s">
+        <v>0</v>
+      </c>
+      <c r="P119" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>406150688920</v>
+      </c>
+      <c r="S119" t="s">
+        <v>0</v>
+      </c>
+      <c r="T119" t="s">
+        <v>0</v>
+      </c>
+      <c r="U119" t="s">
+        <v>0</v>
+      </c>
+      <c r="V119" t="s">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s">
+        <v>0</v>
+      </c>
+      <c r="X119" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>-0.36</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B120" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>-0.35</v>
+      </c>
+      <c r="L120" t="s">
+        <v>53</v>
+      </c>
+      <c r="M120" t="s">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
+        <v>0</v>
+      </c>
+      <c r="O120" t="s">
+        <v>0</v>
+      </c>
+      <c r="P120" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>406144852286</v>
+      </c>
+      <c r="S120" t="s">
+        <v>0</v>
+      </c>
+      <c r="T120" t="s">
+        <v>0</v>
+      </c>
+      <c r="U120" t="s">
+        <v>0</v>
+      </c>
+      <c r="V120" t="s">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s">
+        <v>0</v>
+      </c>
+      <c r="X120" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>-0.35</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B121" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" t="s">
+        <v>332</v>
+      </c>
+      <c r="D121" t="s">
+        <v>332</v>
+      </c>
+      <c r="E121" t="s">
+        <v>333</v>
+      </c>
+      <c r="F121" t="s">
+        <v>334</v>
+      </c>
+      <c r="G121" t="s">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>-7.39</v>
+      </c>
+      <c r="L121" t="s">
+        <v>53</v>
+      </c>
+      <c r="M121" t="s">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
+        <v>0</v>
+      </c>
+      <c r="O121" t="s">
+        <v>0</v>
+      </c>
+      <c r="P121" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>406141891482</v>
+      </c>
+      <c r="S121" t="s">
+        <v>0</v>
+      </c>
+      <c r="T121" t="s">
+        <v>0</v>
+      </c>
+      <c r="U121" t="s">
+        <v>0</v>
+      </c>
+      <c r="V121" t="s">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s">
+        <v>0</v>
+      </c>
+      <c r="X121" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA121" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF121" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>-7.39</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL121" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B122" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" t="s">
+        <v>332</v>
+      </c>
+      <c r="D122" t="s">
+        <v>332</v>
+      </c>
+      <c r="E122" t="s">
+        <v>333</v>
+      </c>
+      <c r="F122" t="s">
+        <v>334</v>
+      </c>
+      <c r="G122" t="s">
+        <v>336</v>
+      </c>
+      <c r="H122" t="s">
+        <v>311</v>
+      </c>
+      <c r="I122" t="s">
+        <v>337</v>
+      </c>
+      <c r="J122" t="s">
+        <v>55</v>
+      </c>
+      <c r="K122">
+        <v>48.07</v>
+      </c>
+      <c r="L122" t="s">
+        <v>53</v>
+      </c>
+      <c r="M122" t="s">
+        <v>0</v>
+      </c>
+      <c r="N122" t="s">
+        <v>0</v>
+      </c>
+      <c r="O122" t="s">
+        <v>0</v>
+      </c>
+      <c r="P122" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>231</v>
+      </c>
+      <c r="R122">
+        <v>406141891482</v>
+      </c>
+      <c r="S122">
+        <v>10075122007206</v>
+      </c>
+      <c r="T122" t="s">
+        <v>232</v>
+      </c>
+      <c r="U122" t="s">
+        <v>233</v>
+      </c>
+      <c r="V122">
+        <v>1</v>
+      </c>
+      <c r="W122">
+        <v>55.99</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>-0.36</v>
+      </c>
+      <c r="AC122">
+        <v>-7.32</v>
+      </c>
+      <c r="AD122">
+        <v>-0.24</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH122">
+        <v>55.99</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ122" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK122" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B123" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>-0.36</v>
+      </c>
+      <c r="L123" t="s">
+        <v>53</v>
+      </c>
+      <c r="M123" t="s">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
+        <v>0</v>
+      </c>
+      <c r="O123" t="s">
+        <v>0</v>
+      </c>
+      <c r="P123" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>406150211733</v>
+      </c>
+      <c r="S123" t="s">
+        <v>0</v>
+      </c>
+      <c r="T123" t="s">
+        <v>0</v>
+      </c>
+      <c r="U123" t="s">
+        <v>0</v>
+      </c>
+      <c r="V123" t="s">
+        <v>0</v>
+      </c>
+      <c r="W123" t="s">
+        <v>0</v>
+      </c>
+      <c r="X123" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH123">
+        <v>-0.36</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK123" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL123" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B124" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" t="s">
+        <v>339</v>
+      </c>
+      <c r="D124" t="s">
+        <v>339</v>
+      </c>
+      <c r="E124" t="s">
+        <v>340</v>
+      </c>
+      <c r="F124" t="s">
+        <v>341</v>
+      </c>
+      <c r="G124" t="s">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>-1.85</v>
+      </c>
+      <c r="L124" t="s">
+        <v>53</v>
+      </c>
+      <c r="M124" t="s">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
+        <v>0</v>
+      </c>
+      <c r="O124" t="s">
+        <v>0</v>
+      </c>
+      <c r="P124" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>406123550928</v>
+      </c>
+      <c r="S124" t="s">
+        <v>0</v>
+      </c>
+      <c r="T124" t="s">
+        <v>0</v>
+      </c>
+      <c r="U124" t="s">
+        <v>0</v>
+      </c>
+      <c r="V124" t="s">
+        <v>0</v>
+      </c>
+      <c r="W124" t="s">
+        <v>0</v>
+      </c>
+      <c r="X124" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>-1.85</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ124" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK124" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL124" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B125" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" t="s">
+        <v>339</v>
+      </c>
+      <c r="D125" t="s">
+        <v>339</v>
+      </c>
+      <c r="E125" t="s">
+        <v>340</v>
+      </c>
+      <c r="F125" t="s">
+        <v>341</v>
+      </c>
+      <c r="G125" t="s">
+        <v>343</v>
+      </c>
+      <c r="H125" t="s">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>344</v>
+      </c>
+      <c r="J125" t="s">
+        <v>55</v>
+      </c>
+      <c r="K125">
+        <v>13.28</v>
+      </c>
+      <c r="L125" t="s">
+        <v>53</v>
+      </c>
+      <c r="M125" t="s">
+        <v>0</v>
+      </c>
+      <c r="N125" t="s">
+        <v>0</v>
+      </c>
+      <c r="O125" t="s">
+        <v>0</v>
+      </c>
+      <c r="P125" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>231</v>
+      </c>
+      <c r="R125">
+        <v>406123550928</v>
+      </c>
+      <c r="S125">
+        <v>10077902289018</v>
+      </c>
+      <c r="T125" t="s">
+        <v>63</v>
+      </c>
+      <c r="U125" t="s">
+        <v>64</v>
+      </c>
+      <c r="V125">
+        <v>1</v>
+      </c>
+      <c r="W125">
+        <v>15.99</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>-0.36</v>
+      </c>
+      <c r="AC125">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AD125">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH125">
+        <v>15.99</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B126" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>-0.36</v>
+      </c>
+      <c r="L126" t="s">
+        <v>53</v>
+      </c>
+      <c r="M126" t="s">
+        <v>0</v>
+      </c>
+      <c r="N126" t="s">
+        <v>0</v>
+      </c>
+      <c r="O126" t="s">
+        <v>0</v>
+      </c>
+      <c r="P126" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>406150127730</v>
+      </c>
+      <c r="S126" t="s">
+        <v>0</v>
+      </c>
+      <c r="T126" t="s">
+        <v>0</v>
+      </c>
+      <c r="U126" t="s">
+        <v>0</v>
+      </c>
+      <c r="V126" t="s">
+        <v>0</v>
+      </c>
+      <c r="W126" t="s">
+        <v>0</v>
+      </c>
+      <c r="X126" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA126" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF126" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>-0.36</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ126" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK126" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL126" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B127" t="s">
+        <v>52</v>
+      </c>
+      <c r="C127" t="s">
+        <v>224</v>
+      </c>
+      <c r="D127" t="s">
+        <v>224</v>
+      </c>
+      <c r="E127" t="s">
+        <v>225</v>
+      </c>
+      <c r="F127" t="s">
+        <v>226</v>
+      </c>
+      <c r="G127" t="s">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>-15.14</v>
+      </c>
+      <c r="L127" t="s">
+        <v>53</v>
+      </c>
+      <c r="M127" t="s">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
+        <v>0</v>
+      </c>
+      <c r="O127" t="s">
+        <v>0</v>
+      </c>
+      <c r="P127" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>406141891482</v>
+      </c>
+      <c r="S127" t="s">
+        <v>0</v>
+      </c>
+      <c r="T127" t="s">
+        <v>0</v>
+      </c>
+      <c r="U127" t="s">
+        <v>0</v>
+      </c>
+      <c r="V127" t="s">
+        <v>0</v>
+      </c>
+      <c r="W127" t="s">
+        <v>0</v>
+      </c>
+      <c r="X127" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF127" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>-15.14</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ127" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK127" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL127" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B128" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" t="s">
+        <v>224</v>
+      </c>
+      <c r="D128" t="s">
+        <v>224</v>
+      </c>
+      <c r="E128" t="s">
+        <v>225</v>
+      </c>
+      <c r="F128" t="s">
+        <v>226</v>
+      </c>
+      <c r="G128" t="s">
+        <v>228</v>
+      </c>
+      <c r="H128" t="s">
+        <v>229</v>
+      </c>
+      <c r="I128" t="s">
+        <v>230</v>
+      </c>
+      <c r="J128" t="s">
+        <v>55</v>
+      </c>
+      <c r="K128">
+        <v>94.57</v>
+      </c>
+      <c r="L128" t="s">
+        <v>53</v>
+      </c>
+      <c r="M128" t="s">
+        <v>0</v>
+      </c>
+      <c r="N128" t="s">
+        <v>0</v>
+      </c>
+      <c r="O128" t="s">
+        <v>0</v>
+      </c>
+      <c r="P128" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>231</v>
+      </c>
+      <c r="R128">
+        <v>406141891482</v>
+      </c>
+      <c r="S128">
+        <v>10079387786521</v>
+      </c>
+      <c r="T128" t="s">
+        <v>232</v>
+      </c>
+      <c r="U128" t="s">
+        <v>233</v>
+      </c>
+      <c r="V128">
+        <v>2</v>
+      </c>
+      <c r="W128">
+        <v>109.74</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>-0.36</v>
+      </c>
+      <c r="AC128">
+        <v>-14.35</v>
+      </c>
+      <c r="AD128">
+        <v>-0.46</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <v>109.74</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK128" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B129" t="s">
+        <v>52</v>
+      </c>
+      <c r="C129" t="s">
+        <v>234</v>
+      </c>
+      <c r="D129" t="s">
+        <v>234</v>
+      </c>
+      <c r="E129" t="s">
+        <v>235</v>
+      </c>
+      <c r="F129" t="s">
+        <v>236</v>
+      </c>
+      <c r="G129" t="s">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>-10.86</v>
+      </c>
+      <c r="L129" t="s">
+        <v>53</v>
+      </c>
+      <c r="M129" t="s">
+        <v>0</v>
+      </c>
+      <c r="N129" t="s">
+        <v>0</v>
+      </c>
+      <c r="O129" t="s">
+        <v>0</v>
+      </c>
+      <c r="P129" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>406142372232</v>
+      </c>
+      <c r="S129" t="s">
+        <v>0</v>
+      </c>
+      <c r="T129" t="s">
+        <v>0</v>
+      </c>
+      <c r="U129" t="s">
+        <v>0</v>
+      </c>
+      <c r="V129" t="s">
+        <v>0</v>
+      </c>
+      <c r="W129" t="s">
+        <v>0</v>
+      </c>
+      <c r="X129" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF129" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG129" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>-10.86</v>
+      </c>
+      <c r="AI129" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ129" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK129" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL129" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B130" t="s">
+        <v>54</v>
+      </c>
+      <c r="C130" t="s">
+        <v>234</v>
+      </c>
+      <c r="D130" t="s">
+        <v>234</v>
+      </c>
+      <c r="E130" t="s">
+        <v>235</v>
+      </c>
+      <c r="F130" t="s">
+        <v>236</v>
+      </c>
+      <c r="G130" t="s">
+        <v>238</v>
+      </c>
+      <c r="H130" t="s">
+        <v>239</v>
+      </c>
+      <c r="I130" t="s">
+        <v>240</v>
+      </c>
+      <c r="J130" t="s">
+        <v>55</v>
+      </c>
+      <c r="K130">
+        <v>66.17</v>
+      </c>
+      <c r="L130" t="s">
+        <v>53</v>
+      </c>
+      <c r="M130" t="s">
+        <v>0</v>
+      </c>
+      <c r="N130" t="s">
+        <v>0</v>
+      </c>
+      <c r="O130" t="s">
+        <v>0</v>
+      </c>
+      <c r="P130" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>231</v>
+      </c>
+      <c r="R130">
+        <v>406142372232</v>
+      </c>
+      <c r="S130">
+        <v>10074198260809</v>
+      </c>
+      <c r="T130" t="s">
+        <v>135</v>
+      </c>
+      <c r="U130" t="s">
+        <v>136</v>
+      </c>
+      <c r="V130">
+        <v>1</v>
+      </c>
+      <c r="W130">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>-0.36</v>
+      </c>
+      <c r="AC130">
+        <v>-11.14</v>
+      </c>
+      <c r="AD130">
+        <v>-0.32</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF130" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ130" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK130" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL130" t="s">
         <v>0</v>
       </c>
     </row>
